--- a/AAII_Financials/Quarterly/RAFI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAFI_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>RAFI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,89 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -747,43 +758,52 @@
         <v>1000</v>
       </c>
       <c r="F8" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G8" s="3">
         <v>1000</v>
       </c>
       <c r="H8" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I8" s="3">
         <v>900</v>
       </c>
       <c r="J8" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K8" s="3">
         <v>900</v>
       </c>
       <c r="L8" s="3">
-        <v>1700</v>
+        <v>900</v>
       </c>
       <c r="M8" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N8" s="3">
         <v>900</v>
       </c>
       <c r="O8" s="3">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="P8" s="3">
         <v>700</v>
       </c>
       <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+        <v>900</v>
+      </c>
+      <c r="R8" s="3">
+        <v>800</v>
+      </c>
+      <c r="S8" s="3">
+        <v>700</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -791,7 +811,7 @@
         <v>400</v>
       </c>
       <c r="E9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F9" s="3">
         <v>400</v>
@@ -806,31 +826,40 @@
         <v>400</v>
       </c>
       <c r="J9" s="3">
+        <v>400</v>
+      </c>
+      <c r="K9" s="3">
+        <v>400</v>
+      </c>
+      <c r="L9" s="3">
+        <v>400</v>
+      </c>
+      <c r="M9" s="3">
         <v>500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P9" s="3">
         <v>400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="Q9" s="3">
         <v>400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="R9" s="3">
         <v>300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="S9" s="3">
         <v>200</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,46 +867,55 @@
         <v>600</v>
       </c>
       <c r="E10" s="3">
+        <v>700</v>
+      </c>
+      <c r="F10" s="3">
         <v>600</v>
-      </c>
-      <c r="F10" s="3">
-        <v>500</v>
       </c>
       <c r="G10" s="3">
         <v>600</v>
       </c>
       <c r="H10" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I10" s="3">
         <v>500</v>
       </c>
       <c r="J10" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K10" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L10" s="3">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="M10" s="3">
         <v>300</v>
       </c>
       <c r="N10" s="3">
+        <v>600</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P10" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q10" s="3">
         <v>500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="R10" s="3">
         <v>500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="S10" s="3">
         <v>500</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +933,11 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +983,17 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,55 +1039,73 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="H14" s="3">
         <v>1000</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P14" s="3">
-        <v>1400</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1066,7 +1134,7 @@
         <v>200</v>
       </c>
       <c r="L15" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="M15" s="3">
         <v>200</v>
@@ -1075,16 +1143,25 @@
         <v>200</v>
       </c>
       <c r="O15" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="P15" s="3">
         <v>200</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="Q15" s="3">
+        <v>200</v>
+      </c>
+      <c r="R15" s="3">
+        <v>200</v>
+      </c>
+      <c r="S15" s="3">
+        <v>200</v>
+      </c>
+      <c r="T15" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,84 +1176,96 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>900</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="3">
         <v>1200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>2100</v>
       </c>
-      <c r="F17" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>900</v>
+      </c>
+      <c r="K17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>1200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>900</v>
-      </c>
-      <c r="L17" s="3">
-        <v>2000</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1100</v>
       </c>
       <c r="N17" s="3">
         <v>900</v>
       </c>
       <c r="O17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>900</v>
+      </c>
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="S17" s="3">
         <v>2400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="T17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="H18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-300</v>
       </c>
       <c r="M18" s="3">
         <v>-400</v>
@@ -1185,16 +1274,25 @@
         <v>0</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="P18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="T18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,102 +1310,123 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>700</v>
+      </c>
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="H20" s="3">
         <v>1900</v>
-      </c>
-      <c r="F20" s="3">
-        <v>800</v>
-      </c>
-      <c r="G20" s="3">
-        <v>2400</v>
-      </c>
-      <c r="H20" s="3">
-        <v>2500</v>
       </c>
       <c r="I20" s="3">
         <v>2000</v>
       </c>
       <c r="J20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M20" s="3">
         <v>1800</v>
-      </c>
-      <c r="K20" s="3">
-        <v>2300</v>
-      </c>
-      <c r="L20" s="3">
-        <v>3400</v>
-      </c>
-      <c r="M20" s="3">
-        <v>1300</v>
       </c>
       <c r="N20" s="3">
         <v>2300</v>
       </c>
       <c r="O20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="P20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="R20" s="3">
         <v>1800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="S20" s="3">
         <v>1900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="T20" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>600</v>
+      </c>
+      <c r="F21" s="3">
         <v>900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
+        <v>900</v>
+      </c>
+      <c r="H21" s="3">
         <v>1000</v>
       </c>
-      <c r="F21" s="3">
-        <v>600</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K21" s="3">
         <v>2600</v>
       </c>
-      <c r="H21" s="3">
-        <v>2600</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>2000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>1700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>2400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>3500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>1100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="Q21" s="3">
         <v>2500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="R21" s="3">
         <v>2000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="S21" s="3">
         <v>400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="T21" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1336,7 +1455,7 @@
         <v>300</v>
       </c>
       <c r="L22" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M22" s="3">
         <v>300</v>
@@ -1345,110 +1464,137 @@
         <v>300</v>
       </c>
       <c r="O22" s="3">
+        <v>600</v>
+      </c>
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
+        <v>300</v>
+      </c>
+      <c r="R22" s="3">
+        <v>300</v>
+      </c>
+      <c r="S22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="T22" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
         <v>400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
+        <v>400</v>
+      </c>
+      <c r="H23" s="3">
         <v>500</v>
       </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>2100</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K23" s="3">
         <v>2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>1900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>2500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>2000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="R23" s="3">
         <v>1500</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="J24" s="3">
         <v>1100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="K24" s="3">
         <v>2200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>-700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="3">
         <v>800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="Q24" s="3">
         <v>900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="R24" s="3">
         <v>-200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,40 +1640,49 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>400</v>
       </c>
-      <c r="F26" s="3">
-        <v>-600</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>1900</v>
-      </c>
-      <c r="K26" s="3">
-        <v>1100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>1700</v>
-      </c>
-      <c r="M26" s="3">
-        <v>500</v>
       </c>
       <c r="N26" s="3">
         <v>1100</v>
@@ -1536,45 +1691,54 @@
         <v>1700</v>
       </c>
       <c r="P26" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="T26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>400</v>
       </c>
-      <c r="F27" s="3">
-        <v>-600</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>1900</v>
-      </c>
-      <c r="K27" s="3">
-        <v>1100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>1700</v>
-      </c>
-      <c r="M27" s="3">
-        <v>500</v>
       </c>
       <c r="N27" s="3">
         <v>1100</v>
@@ -1583,13 +1747,22 @@
         <v>1700</v>
       </c>
       <c r="P27" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S27" s="3">
         <v>100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="T27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1808,17 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1864,17 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1920,17 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,87 +1976,105 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="H32" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-2500</v>
       </c>
       <c r="I32" s="3">
         <v>-2000</v>
       </c>
       <c r="J32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="M32" s="3">
         <v>-1800</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-1300</v>
       </c>
       <c r="N32" s="3">
         <v>-2300</v>
       </c>
       <c r="O32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="R32" s="3">
         <v>-1800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="S32" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="T32" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>400</v>
       </c>
-      <c r="F33" s="3">
-        <v>-600</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>1900</v>
-      </c>
-      <c r="K33" s="3">
-        <v>1100</v>
-      </c>
-      <c r="L33" s="3">
-        <v>1700</v>
-      </c>
-      <c r="M33" s="3">
-        <v>500</v>
       </c>
       <c r="N33" s="3">
         <v>1100</v>
@@ -1865,13 +2083,22 @@
         <v>1700</v>
       </c>
       <c r="P33" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S33" s="3">
         <v>100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="T33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,40 +2144,49 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>400</v>
       </c>
-      <c r="F35" s="3">
-        <v>-600</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>1900</v>
-      </c>
-      <c r="K35" s="3">
-        <v>1100</v>
-      </c>
-      <c r="L35" s="3">
-        <v>1700</v>
-      </c>
-      <c r="M35" s="3">
-        <v>500</v>
       </c>
       <c r="N35" s="3">
         <v>1100</v>
@@ -1959,65 +2195,83 @@
         <v>1700</v>
       </c>
       <c r="P35" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S35" s="3">
         <v>100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="T35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2289,11 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,78 +2311,90 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>600</v>
+      </c>
+      <c r="F41" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G41" s="3">
         <v>5500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="H41" s="3">
         <v>5100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="I41" s="3">
         <v>3900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="J41" s="3">
         <v>4600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="K41" s="3">
         <v>3900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>5700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>5300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>4600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>4400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>5200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="Q41" s="3">
         <v>5000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="R41" s="3">
         <v>4900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="S41" s="3">
         <v>5400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="T41" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>5800</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>6300</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2148,8 +2417,17 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2160,13 +2438,13 @@
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -2175,16 +2453,16 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>200</v>
-      </c>
-      <c r="L43" s="3">
-        <v>300</v>
-      </c>
-      <c r="M43" s="3">
-        <v>300</v>
-      </c>
-      <c r="N43" s="3">
-        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>300</v>
@@ -2193,245 +2471,299 @@
         <v>300</v>
       </c>
       <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
+        <v>300</v>
+      </c>
+      <c r="S43" s="3">
+        <v>300</v>
+      </c>
+      <c r="T43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="L44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G45" s="3">
         <v>1900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="H45" s="3">
         <v>1300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="I45" s="3">
         <v>1400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="J45" s="3">
         <v>900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="K45" s="3">
         <v>1000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="L45" s="3">
         <v>1300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="M45" s="3">
         <v>1100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="N45" s="3">
         <v>900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="O45" s="3">
         <v>800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="P45" s="3">
         <v>700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="Q45" s="3">
         <v>800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="R45" s="3">
         <v>700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="S45" s="3">
         <v>800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="T45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F46" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G46" s="3">
         <v>7500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="H46" s="3">
         <v>6500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="I46" s="3">
         <v>5300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>5500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>5000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>7000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>6400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>5700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>5500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>6200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="Q46" s="3">
         <v>5900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="R46" s="3">
         <v>6000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="S46" s="3">
         <v>6500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="T46" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>53400</v>
+      </c>
+      <c r="F47" s="3">
+        <v>53500</v>
+      </c>
+      <c r="G47" s="3">
         <v>55000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="H47" s="3">
         <v>56100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="I47" s="3">
         <v>56800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="J47" s="3">
         <v>42600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="K47" s="3">
         <v>41400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="L47" s="3">
         <v>40200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="M47" s="3">
         <v>55400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="N47" s="3">
         <v>40000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="O47" s="3">
         <v>38500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="P47" s="3">
         <v>37000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="Q47" s="3">
         <v>36700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="R47" s="3">
         <v>35100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="S47" s="3">
         <v>34100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="T47" s="3">
         <v>32800</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>32300</v>
+      </c>
+      <c r="F48" s="3">
+        <v>32500</v>
+      </c>
+      <c r="G48" s="3">
         <v>32600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="H48" s="3">
         <v>32800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="I48" s="3">
         <v>33000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="J48" s="3">
         <v>33200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="K48" s="3">
         <v>33400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>33600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>33800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>34000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>34200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>34400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="Q48" s="3">
         <v>34600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="R48" s="3">
         <v>34700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="S48" s="3">
         <v>34900</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2809,17 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2865,17 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,34 +2921,43 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>300</v>
+      </c>
+      <c r="E52" s="3">
         <v>400</v>
       </c>
-      <c r="E52" s="3">
-        <v>500</v>
-      </c>
       <c r="F52" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H52" s="3">
         <v>500</v>
       </c>
       <c r="I52" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J52" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K52" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L52" s="3">
         <v>600</v>
@@ -2607,19 +2966,28 @@
         <v>600</v>
       </c>
       <c r="N52" s="3">
+        <v>600</v>
+      </c>
+      <c r="O52" s="3">
+        <v>600</v>
+      </c>
+      <c r="P52" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q52" s="3">
         <v>700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="R52" s="3">
         <v>1200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="S52" s="3">
         <v>700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="T52" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +3033,73 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>96100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>96200</v>
+      </c>
+      <c r="F54" s="3">
+        <v>96600</v>
+      </c>
+      <c r="G54" s="3">
         <v>95600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>95900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>95700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>81800</v>
-      </c>
-      <c r="H54" s="3">
-        <v>80300</v>
-      </c>
-      <c r="I54" s="3">
-        <v>81400</v>
-      </c>
-      <c r="J54" s="3">
-        <v>96100</v>
       </c>
       <c r="K54" s="3">
         <v>80300</v>
       </c>
       <c r="L54" s="3">
+        <v>81400</v>
+      </c>
+      <c r="M54" s="3">
+        <v>96100</v>
+      </c>
+      <c r="N54" s="3">
+        <v>80300</v>
+      </c>
+      <c r="O54" s="3">
         <v>78800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>78200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>77800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>77100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="S54" s="3">
         <v>76200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="T54" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +3117,11 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,78 +3139,90 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
         <v>400</v>
       </c>
       <c r="F57" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="G57" s="3">
         <v>500</v>
       </c>
       <c r="H57" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="I57" s="3">
         <v>400</v>
       </c>
       <c r="J57" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K57" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="M57" s="3">
         <v>300</v>
       </c>
       <c r="N57" s="3">
+        <v>300</v>
+      </c>
+      <c r="O57" s="3">
+        <v>100</v>
+      </c>
+      <c r="P57" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="S57" s="3">
         <v>700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="T57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2844,8 +3245,17 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2853,98 +3263,116 @@
         <v>700</v>
       </c>
       <c r="E59" s="3">
+        <v>800</v>
+      </c>
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
+        <v>700</v>
+      </c>
+      <c r="H59" s="3">
+        <v>700</v>
+      </c>
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>1000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>1000</v>
-      </c>
-      <c r="L59" s="3">
-        <v>500</v>
-      </c>
-      <c r="M59" s="3">
-        <v>600</v>
-      </c>
-      <c r="N59" s="3">
-        <v>500</v>
       </c>
       <c r="O59" s="3">
         <v>500</v>
       </c>
       <c r="P59" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
+        <v>500</v>
+      </c>
+      <c r="S59" s="3">
+        <v>500</v>
+      </c>
+      <c r="T59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="E60" s="3">
         <v>1100</v>
       </c>
       <c r="F60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I60" s="3">
         <v>1000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>2000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>1200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>1100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>1300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>1200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="T60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>25200</v>
+        <v>24800</v>
       </c>
       <c r="E61" s="3">
         <v>25200</v>
@@ -2959,13 +3387,13 @@
         <v>25200</v>
       </c>
       <c r="I61" s="3">
-        <v>25100</v>
+        <v>25200</v>
       </c>
       <c r="J61" s="3">
-        <v>25100</v>
+        <v>25200</v>
       </c>
       <c r="K61" s="3">
-        <v>25100</v>
+        <v>25200</v>
       </c>
       <c r="L61" s="3">
         <v>25100</v>
@@ -2980,13 +3408,22 @@
         <v>25100</v>
       </c>
       <c r="P61" s="3">
+        <v>25100</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>25100</v>
+      </c>
+      <c r="R61" s="3">
+        <v>25100</v>
+      </c>
+      <c r="S61" s="3">
         <v>25300</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3469,17 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3525,17 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3581,17 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3637,73 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>26400</v>
+      </c>
+      <c r="F66" s="3">
         <v>26500</v>
       </c>
-      <c r="E66" s="3">
-        <v>26300</v>
-      </c>
-      <c r="F66" s="3">
-        <v>26200</v>
-      </c>
       <c r="G66" s="3">
-        <v>27200</v>
+        <v>26500</v>
       </c>
       <c r="H66" s="3">
         <v>26300</v>
       </c>
       <c r="I66" s="3">
+        <v>26200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>27200</v>
+      </c>
+      <c r="K66" s="3">
+        <v>26300</v>
+      </c>
+      <c r="L66" s="3">
         <v>26600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>26300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>26500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>25800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>26100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>26000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>26000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>26500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="T66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3721,11 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3771,17 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3827,17 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3883,17 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3939,73 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>55700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>55800</v>
+      </c>
+      <c r="F72" s="3">
+        <v>56000</v>
+      </c>
+      <c r="G72" s="3">
         <v>55100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>55500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>55400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>40600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>39900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>40700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>55800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>39700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>38900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>38100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>37800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>37100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>35700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +4051,17 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +4107,17 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +4163,73 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>69700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>69900</v>
+      </c>
+      <c r="F76" s="3">
+        <v>70100</v>
+      </c>
+      <c r="G76" s="3">
         <v>69200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>69500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>69500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>54700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>54000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>54800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>69900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>53800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>53000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>52100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>51900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>51100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>49700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="T76" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,92 +4275,110 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>400</v>
       </c>
-      <c r="F81" s="3">
-        <v>-600</v>
-      </c>
-      <c r="G81" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>1900</v>
-      </c>
-      <c r="K81" s="3">
-        <v>1100</v>
-      </c>
-      <c r="L81" s="3">
-        <v>1700</v>
-      </c>
-      <c r="M81" s="3">
-        <v>500</v>
       </c>
       <c r="N81" s="3">
         <v>1100</v>
@@ -3803,13 +4387,22 @@
         <v>1700</v>
       </c>
       <c r="P81" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S81" s="3">
         <v>100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="T81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4420,11 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3857,7 +4453,7 @@
         <v>200</v>
       </c>
       <c r="L83" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="M83" s="3">
         <v>200</v>
@@ -3866,16 +4462,25 @@
         <v>200</v>
       </c>
       <c r="O83" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="P83" s="3">
         <v>200</v>
       </c>
       <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="R83" s="3">
+        <v>200</v>
+      </c>
+      <c r="S83" s="3">
+        <v>200</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4526,17 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4582,17 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4638,17 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4694,17 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4750,73 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-2700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="K89" s="3">
         <v>-2300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>-1500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="R89" s="3">
         <v>-800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="S89" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="T89" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,13 +4834,16 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4207,8 +4869,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4219,11 +4881,20 @@
       <c r="P91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q91" s="3" t="s">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4940,17 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4996,73 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F94" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G94" s="3">
         <v>1600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="H94" s="3">
         <v>1500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="I94" s="3">
         <v>2300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="J94" s="3">
         <v>1000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="K94" s="3">
         <v>900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>1200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>900</v>
-      </c>
-      <c r="K94" s="3">
-        <v>700</v>
-      </c>
-      <c r="L94" s="3">
-        <v>1500</v>
-      </c>
-      <c r="M94" s="3">
-        <v>1100</v>
       </c>
       <c r="N94" s="3">
         <v>700</v>
       </c>
       <c r="O94" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P94" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>700</v>
+      </c>
+      <c r="R94" s="3">
         <v>800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="S94" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="T94" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +5080,11 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4412,7 +5113,7 @@
         <v>-300</v>
       </c>
       <c r="L96" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="M96" s="3">
         <v>-300</v>
@@ -4421,16 +5122,25 @@
         <v>-300</v>
       </c>
       <c r="O96" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P96" s="3">
         <v>-300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R96" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S96" s="3">
         <v>-200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="T96" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +5186,17 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5242,17 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +5298,17 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4582,7 +5319,7 @@
         <v>-300</v>
       </c>
       <c r="F100" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="G100" s="3">
         <v>-300</v>
@@ -4591,7 +5328,7 @@
         <v>-300</v>
       </c>
       <c r="I100" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="J100" s="3">
         <v>-300</v>
@@ -4600,7 +5337,7 @@
         <v>-300</v>
       </c>
       <c r="L100" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="M100" s="3">
         <v>-300</v>
@@ -4609,16 +5346,25 @@
         <v>-300</v>
       </c>
       <c r="O100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R100" s="3">
         <v>-400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="S100" s="3">
         <v>9000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="T100" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +5410,69 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F102" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="H102" s="3">
         <v>1200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="I102" s="3">
         <v>-600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="K102" s="3">
         <v>-1700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>-600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="R102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="S102" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="T102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RAFI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAFI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>RAFI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42551</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -767,43 +771,46 @@
         <v>1000</v>
       </c>
       <c r="I8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J8" s="3">
         <v>900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1000</v>
-      </c>
-      <c r="K8" s="3">
-        <v>900</v>
       </c>
       <c r="L8" s="3">
         <v>900</v>
       </c>
       <c r="M8" s="3">
+        <v>900</v>
+      </c>
+      <c r="N8" s="3">
         <v>800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>700</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -811,10 +818,10 @@
         <v>400</v>
       </c>
       <c r="E9" s="3">
+        <v>400</v>
+      </c>
+      <c r="F9" s="3">
         <v>300</v>
-      </c>
-      <c r="F9" s="3">
-        <v>400</v>
       </c>
       <c r="G9" s="3">
         <v>400</v>
@@ -835,31 +842,34 @@
         <v>400</v>
       </c>
       <c r="M9" s="3">
+        <v>400</v>
+      </c>
+      <c r="N9" s="3">
         <v>500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>600</v>
-      </c>
-      <c r="P9" s="3">
-        <v>400</v>
       </c>
       <c r="Q9" s="3">
         <v>400</v>
       </c>
       <c r="R9" s="3">
+        <v>400</v>
+      </c>
+      <c r="S9" s="3">
         <v>300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>200</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,10 +877,10 @@
         <v>600</v>
       </c>
       <c r="E10" s="3">
+        <v>600</v>
+      </c>
+      <c r="F10" s="3">
         <v>700</v>
-      </c>
-      <c r="F10" s="3">
-        <v>600</v>
       </c>
       <c r="G10" s="3">
         <v>600</v>
@@ -879,31 +889,31 @@
         <v>600</v>
       </c>
       <c r="I10" s="3">
+        <v>600</v>
+      </c>
+      <c r="J10" s="3">
         <v>500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>600</v>
-      </c>
-      <c r="K10" s="3">
-        <v>500</v>
       </c>
       <c r="L10" s="3">
         <v>500</v>
       </c>
       <c r="M10" s="3">
+        <v>500</v>
+      </c>
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>300</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>500</v>
       </c>
       <c r="R10" s="3">
         <v>500</v>
@@ -911,11 +921,14 @@
       <c r="S10" s="3">
         <v>500</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="T10" s="3">
+        <v>500</v>
+      </c>
+      <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,13 +1065,16 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1063,16 +1083,16 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2100</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>5</v>
@@ -1080,8 +1100,8 @@
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1096,16 +1116,19 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1400</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1143,10 +1166,10 @@
         <v>200</v>
       </c>
       <c r="O15" s="3">
+        <v>200</v>
+      </c>
+      <c r="P15" s="3">
         <v>400</v>
-      </c>
-      <c r="P15" s="3">
-        <v>200</v>
       </c>
       <c r="Q15" s="3">
         <v>200</v>
@@ -1157,11 +1180,14 @@
       <c r="S15" s="3">
         <v>200</v>
       </c>
-      <c r="T15" s="3" t="s">
+      <c r="T15" s="3">
+        <v>200</v>
+      </c>
+      <c r="U15" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>1000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1100</v>
       </c>
       <c r="L17" s="3">
         <v>1100</v>
       </c>
       <c r="M17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N17" s="3">
         <v>1200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-200</v>
       </c>
       <c r="L18" s="3">
         <v>-200</v>
       </c>
       <c r="M18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-1700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,111 +1356,117 @@
         <v>600</v>
       </c>
       <c r="E20" s="3">
+        <v>600</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>900</v>
+      </c>
+      <c r="E21" s="3">
         <v>800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>600</v>
-      </c>
-      <c r="F21" s="3">
-        <v>900</v>
       </c>
       <c r="G21" s="3">
         <v>900</v>
       </c>
       <c r="H21" s="3">
+        <v>900</v>
+      </c>
+      <c r="I21" s="3">
         <v>1000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1464,10 +1504,10 @@
         <v>300</v>
       </c>
       <c r="O22" s="3">
+        <v>300</v>
+      </c>
+      <c r="P22" s="3">
         <v>600</v>
-      </c>
-      <c r="P22" s="3">
-        <v>300</v>
       </c>
       <c r="Q22" s="3">
         <v>300</v>
@@ -1476,125 +1516,134 @@
         <v>300</v>
       </c>
       <c r="S22" s="3">
+        <v>300</v>
+      </c>
+      <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3" t="s">
+      <c r="U22" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>400</v>
+      </c>
+      <c r="E23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>400</v>
       </c>
       <c r="G23" s="3">
         <v>400</v>
       </c>
       <c r="H23" s="3">
+        <v>400</v>
+      </c>
+      <c r="I23" s="3">
         <v>500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1500</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-700</v>
-      </c>
-      <c r="N24" s="3">
-        <v>800</v>
       </c>
       <c r="O24" s="3">
         <v>800</v>
       </c>
       <c r="P24" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
         <v>200</v>
       </c>
       <c r="F26" s="3">
+        <v>200</v>
+      </c>
+      <c r="G26" s="3">
         <v>1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
         <v>200</v>
       </c>
       <c r="F27" s="3">
+        <v>200</v>
+      </c>
+      <c r="G27" s="3">
         <v>1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,111 +2064,117 @@
         <v>-600</v>
       </c>
       <c r="E32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
         <v>200</v>
       </c>
       <c r="F33" s="3">
+        <v>200</v>
+      </c>
+      <c r="G33" s="3">
         <v>1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
         <v>200</v>
       </c>
       <c r="F35" s="3">
+        <v>200</v>
+      </c>
+      <c r="G35" s="3">
         <v>1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42551</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,75 +2400,79 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>800</v>
+      </c>
+      <c r="E41" s="3">
         <v>900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E42" s="3">
         <v>5800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>6300</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>5</v>
@@ -2396,8 +2486,8 @@
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2426,8 +2516,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2447,7 +2540,7 @@
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -2462,28 +2555,31 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>200</v>
-      </c>
-      <c r="O43" s="3">
-        <v>300</v>
       </c>
       <c r="P43" s="3">
         <v>300</v>
       </c>
       <c r="Q43" s="3">
+        <v>300</v>
+      </c>
+      <c r="R43" s="3">
         <v>100</v>
-      </c>
-      <c r="R43" s="3">
-        <v>300</v>
       </c>
       <c r="S43" s="3">
         <v>300</v>
       </c>
       <c r="T43" s="3">
+        <v>300</v>
+      </c>
+      <c r="U43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2508,14 +2604,14 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
+      <c r="K44" s="3">
+        <v>0</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2535,235 +2631,250 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-      <c r="T44" s="3" t="s">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E45" s="3">
         <v>3000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E46" s="3">
         <v>9800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>54400</v>
+      </c>
+      <c r="E47" s="3">
         <v>54000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>53400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>53500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>55000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>56100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>56800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>42600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>41400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>40200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>55400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>40000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>38500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>37000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>36700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>35100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>34100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>32800</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E48" s="3">
         <v>32100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>32300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>32500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>32600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>32800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>33000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>33200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>33400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>33600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>33800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>34000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>34200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>34400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>34600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>34700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>34900</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2939,16 +3059,16 @@
         <v>300</v>
       </c>
       <c r="E52" s="3">
+        <v>300</v>
+      </c>
+      <c r="F52" s="3">
         <v>400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>400</v>
-      </c>
-      <c r="H52" s="3">
-        <v>500</v>
       </c>
       <c r="I52" s="3">
         <v>500</v>
@@ -2960,7 +3080,7 @@
         <v>500</v>
       </c>
       <c r="L52" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M52" s="3">
         <v>600</v>
@@ -2975,19 +3095,22 @@
         <v>600</v>
       </c>
       <c r="Q52" s="3">
+        <v>600</v>
+      </c>
+      <c r="R52" s="3">
         <v>700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>96000</v>
+      </c>
+      <c r="E54" s="3">
         <v>96100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>96200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>96600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>95600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>95900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>95700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>81800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>80300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>81400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>96100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>80300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>78800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>78200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>77800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>77100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>76200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,72 +3272,76 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E57" s="3">
         <v>400</v>
       </c>
       <c r="F57" s="3">
+        <v>400</v>
+      </c>
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
-      </c>
-      <c r="H57" s="3">
-        <v>400</v>
       </c>
       <c r="I57" s="3">
         <v>400</v>
       </c>
       <c r="J57" s="3">
+        <v>400</v>
+      </c>
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
-      </c>
-      <c r="M57" s="3">
-        <v>300</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
       </c>
       <c r="O57" s="3">
+        <v>300</v>
+      </c>
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>200</v>
       </c>
       <c r="R57" s="3">
         <v>200</v>
       </c>
       <c r="S57" s="3">
+        <v>200</v>
+      </c>
+      <c r="T57" s="3">
         <v>700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>5</v>
@@ -3224,8 +3358,8 @@
       <c r="J58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3254,19 +3388,22 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>800</v>
-      </c>
-      <c r="F59" s="3">
-        <v>700</v>
       </c>
       <c r="G59" s="3">
         <v>700</v>
@@ -3275,31 +3412,31 @@
         <v>700</v>
       </c>
       <c r="I59" s="3">
+        <v>700</v>
+      </c>
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>600</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>500</v>
       </c>
       <c r="R59" s="3">
         <v>500</v>
@@ -3308,66 +3445,72 @@
         <v>500</v>
       </c>
       <c r="T59" s="3">
+        <v>500</v>
+      </c>
+      <c r="U59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1100</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1300</v>
       </c>
       <c r="G60" s="3">
         <v>1300</v>
       </c>
       <c r="H60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3375,7 +3518,7 @@
         <v>24800</v>
       </c>
       <c r="E61" s="3">
-        <v>25200</v>
+        <v>24800</v>
       </c>
       <c r="F61" s="3">
         <v>25200</v>
@@ -3396,7 +3539,7 @@
         <v>25200</v>
       </c>
       <c r="L61" s="3">
-        <v>25100</v>
+        <v>25200</v>
       </c>
       <c r="M61" s="3">
         <v>25100</v>
@@ -3417,13 +3560,16 @@
         <v>25100</v>
       </c>
       <c r="S61" s="3">
+        <v>25100</v>
+      </c>
+      <c r="T61" s="3">
         <v>25300</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>26400</v>
+        <v>26500</v>
       </c>
       <c r="E66" s="3">
         <v>26400</v>
       </c>
       <c r="F66" s="3">
-        <v>26500</v>
+        <v>26400</v>
       </c>
       <c r="G66" s="3">
         <v>26500</v>
       </c>
       <c r="H66" s="3">
+        <v>26500</v>
+      </c>
+      <c r="I66" s="3">
         <v>26300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>26200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>27200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>26300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>26600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>26300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>26500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>25800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>26100</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>26000</v>
       </c>
       <c r="R66" s="3">
         <v>26000</v>
       </c>
       <c r="S66" s="3">
+        <v>26000</v>
+      </c>
+      <c r="T66" s="3">
         <v>26500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>55400</v>
+      </c>
+      <c r="E72" s="3">
         <v>55700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>55800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>56000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>55100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>55500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>55400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>40600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>39900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>40700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>55800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>39700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>38900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>38100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>37800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>37100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>35700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>69500</v>
+      </c>
+      <c r="E76" s="3">
         <v>69700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>69900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>70100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>69200</v>
-      </c>
-      <c r="H76" s="3">
-        <v>69500</v>
       </c>
       <c r="I76" s="3">
         <v>69500</v>
       </c>
       <c r="J76" s="3">
+        <v>69500</v>
+      </c>
+      <c r="K76" s="3">
         <v>54700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>54000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>54800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>69900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>53800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>53000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>52100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>51900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>51100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>49700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42551</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E81" s="3">
         <v>200</v>
       </c>
       <c r="F81" s="3">
+        <v>200</v>
+      </c>
+      <c r="G81" s="3">
         <v>1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4462,10 +4661,10 @@
         <v>200</v>
       </c>
       <c r="O83" s="3">
+        <v>200</v>
+      </c>
+      <c r="P83" s="3">
         <v>400</v>
-      </c>
-      <c r="P83" s="3">
-        <v>200</v>
       </c>
       <c r="Q83" s="3">
         <v>200</v>
@@ -4477,10 +4676,13 @@
         <v>200</v>
       </c>
       <c r="T83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>200</v>
+      </c>
+      <c r="E89" s="3">
         <v>100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-2700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,16 +5057,17 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -4878,23 +5099,26 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>100</v>
+      </c>
+      <c r="E94" s="3">
         <v>500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>2000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>2300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-9400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5122,10 +5356,10 @@
         <v>-300</v>
       </c>
       <c r="O96" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P96" s="3">
         <v>-600</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-300</v>
       </c>
       <c r="Q96" s="3">
         <v>-300</v>
@@ -5134,13 +5368,16 @@
         <v>-300</v>
       </c>
       <c r="S96" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="T96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5550,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5328,10 +5574,10 @@
         <v>-300</v>
       </c>
       <c r="I100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J100" s="3">
         <v>-200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-300</v>
       </c>
       <c r="K100" s="3">
         <v>-300</v>
@@ -5346,25 +5592,28 @@
         <v>-300</v>
       </c>
       <c r="O100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P100" s="3">
         <v>-600</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-300</v>
       </c>
       <c r="Q100" s="3">
         <v>-300</v>
       </c>
       <c r="R100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S100" s="3">
         <v>-400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>9000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-600</v>
-      </c>
-      <c r="P102" s="3">
-        <v>100</v>
       </c>
       <c r="Q102" s="3">
         <v>100</v>
       </c>
       <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RAFI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAFI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>RAFI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,97 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -774,43 +778,46 @@
         <v>1000</v>
       </c>
       <c r="J8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K8" s="3">
         <v>900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1000</v>
-      </c>
-      <c r="L8" s="3">
-        <v>900</v>
       </c>
       <c r="M8" s="3">
         <v>900</v>
       </c>
       <c r="N8" s="3">
+        <v>900</v>
+      </c>
+      <c r="O8" s="3">
         <v>800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>700</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -821,10 +828,10 @@
         <v>400</v>
       </c>
       <c r="F9" s="3">
+        <v>400</v>
+      </c>
+      <c r="G9" s="3">
         <v>300</v>
-      </c>
-      <c r="G9" s="3">
-        <v>400</v>
       </c>
       <c r="H9" s="3">
         <v>400</v>
@@ -845,31 +852,34 @@
         <v>400</v>
       </c>
       <c r="N9" s="3">
+        <v>400</v>
+      </c>
+      <c r="O9" s="3">
         <v>500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>600</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>400</v>
       </c>
       <c r="R9" s="3">
         <v>400</v>
       </c>
       <c r="S9" s="3">
+        <v>400</v>
+      </c>
+      <c r="T9" s="3">
         <v>300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>200</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -880,10 +890,10 @@
         <v>600</v>
       </c>
       <c r="F10" s="3">
+        <v>600</v>
+      </c>
+      <c r="G10" s="3">
         <v>700</v>
-      </c>
-      <c r="G10" s="3">
-        <v>600</v>
       </c>
       <c r="H10" s="3">
         <v>600</v>
@@ -892,31 +902,31 @@
         <v>600</v>
       </c>
       <c r="J10" s="3">
+        <v>600</v>
+      </c>
+      <c r="K10" s="3">
         <v>500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>600</v>
-      </c>
-      <c r="L10" s="3">
-        <v>500</v>
       </c>
       <c r="M10" s="3">
         <v>500</v>
       </c>
       <c r="N10" s="3">
+        <v>500</v>
+      </c>
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>300</v>
-      </c>
-      <c r="R10" s="3">
-        <v>500</v>
       </c>
       <c r="S10" s="3">
         <v>500</v>
@@ -924,11 +934,14 @@
       <c r="T10" s="3">
         <v>500</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="U10" s="3">
+        <v>500</v>
+      </c>
+      <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,13 +1085,16 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1086,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2100</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>5</v>
@@ -1103,8 +1123,8 @@
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1119,16 +1139,19 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>-100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1400</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1169,10 +1192,10 @@
         <v>200</v>
       </c>
       <c r="P15" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q15" s="3">
         <v>400</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>200</v>
       </c>
       <c r="R15" s="3">
         <v>200</v>
@@ -1183,11 +1206,14 @@
       <c r="T15" s="3">
         <v>200</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="U15" s="3">
+        <v>200</v>
+      </c>
+      <c r="V15" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1100</v>
       </c>
       <c r="M17" s="3">
         <v>1100</v>
       </c>
       <c r="N17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O17" s="3">
         <v>1200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-200</v>
       </c>
       <c r="M18" s="3">
         <v>-200</v>
       </c>
       <c r="N18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-1700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1380,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1359,114 +1393,120 @@
         <v>600</v>
       </c>
       <c r="F20" s="3">
+        <v>600</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>800</v>
+      </c>
+      <c r="E21" s="3">
         <v>900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>600</v>
-      </c>
-      <c r="G21" s="3">
-        <v>900</v>
       </c>
       <c r="H21" s="3">
         <v>900</v>
       </c>
       <c r="I21" s="3">
+        <v>900</v>
+      </c>
+      <c r="J21" s="3">
         <v>1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1507,10 +1547,10 @@
         <v>300</v>
       </c>
       <c r="P22" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q22" s="3">
         <v>600</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>300</v>
       </c>
       <c r="R22" s="3">
         <v>300</v>
@@ -1519,131 +1559,140 @@
         <v>300</v>
       </c>
       <c r="T22" s="3">
+        <v>300</v>
+      </c>
+      <c r="U22" s="3">
         <v>200</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="V22" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>300</v>
+      </c>
+      <c r="E23" s="3">
         <v>400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>400</v>
       </c>
       <c r="H23" s="3">
         <v>400</v>
       </c>
       <c r="I23" s="3">
+        <v>400</v>
+      </c>
+      <c r="J23" s="3">
         <v>500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1500</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-700</v>
-      </c>
-      <c r="O24" s="3">
-        <v>800</v>
       </c>
       <c r="P24" s="3">
         <v>800</v>
       </c>
       <c r="Q24" s="3">
+        <v>800</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>200</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>300</v>
+      </c>
+      <c r="E26" s="3">
         <v>100</v>
-      </c>
-      <c r="E26" s="3">
-        <v>200</v>
       </c>
       <c r="F26" s="3">
         <v>200</v>
       </c>
       <c r="G26" s="3">
+        <v>200</v>
+      </c>
+      <c r="H26" s="3">
         <v>1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>300</v>
+      </c>
+      <c r="E27" s="3">
         <v>100</v>
-      </c>
-      <c r="E27" s="3">
-        <v>200</v>
       </c>
       <c r="F27" s="3">
         <v>200</v>
       </c>
       <c r="G27" s="3">
+        <v>200</v>
+      </c>
+      <c r="H27" s="3">
         <v>1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2122,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2067,114 +2137,120 @@
         <v>-600</v>
       </c>
       <c r="F32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>300</v>
+      </c>
+      <c r="E33" s="3">
         <v>100</v>
-      </c>
-      <c r="E33" s="3">
-        <v>200</v>
       </c>
       <c r="F33" s="3">
         <v>200</v>
       </c>
       <c r="G33" s="3">
+        <v>200</v>
+      </c>
+      <c r="H33" s="3">
         <v>1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>300</v>
+      </c>
+      <c r="E35" s="3">
         <v>100</v>
-      </c>
-      <c r="E35" s="3">
-        <v>200</v>
       </c>
       <c r="F35" s="3">
         <v>200</v>
       </c>
       <c r="G35" s="3">
+        <v>200</v>
+      </c>
+      <c r="H35" s="3">
         <v>1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,81 +2487,85 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E41" s="3">
         <v>800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E42" s="3">
         <v>5700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>5800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>6300</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>5</v>
@@ -2489,8 +2579,8 @@
       <c r="K42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2519,8 +2609,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2543,7 +2636,7 @@
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2558,28 +2651,31 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
-      </c>
-      <c r="P43" s="3">
-        <v>300</v>
       </c>
       <c r="Q43" s="3">
         <v>300</v>
       </c>
       <c r="R43" s="3">
+        <v>300</v>
+      </c>
+      <c r="S43" s="3">
         <v>100</v>
-      </c>
-      <c r="S43" s="3">
-        <v>300</v>
       </c>
       <c r="T43" s="3">
         <v>300</v>
       </c>
       <c r="U43" s="3">
+        <v>300</v>
+      </c>
+      <c r="V43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2607,14 +2703,14 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
+      <c r="L44" s="3">
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2634,247 +2730,262 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-      <c r="U44" s="3" t="s">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E45" s="3">
         <v>2800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E46" s="3">
         <v>9400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E47" s="3">
         <v>54400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>54000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>53400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>53500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>55000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>56100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>56800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>42600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>41400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>40200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>55400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>40000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>38500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>37000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>36700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>35100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>34100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>32800</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E48" s="3">
         <v>31900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>32100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>32300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>32500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>32600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>32800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>33000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>33200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>33400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>33600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>33800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>34000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>34200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>34400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>34600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>34700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>34900</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3062,16 +3182,16 @@
         <v>300</v>
       </c>
       <c r="F52" s="3">
+        <v>300</v>
+      </c>
+      <c r="G52" s="3">
         <v>400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>400</v>
-      </c>
-      <c r="I52" s="3">
-        <v>500</v>
       </c>
       <c r="J52" s="3">
         <v>500</v>
@@ -3083,7 +3203,7 @@
         <v>500</v>
       </c>
       <c r="M52" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N52" s="3">
         <v>600</v>
@@ -3098,19 +3218,22 @@
         <v>600</v>
       </c>
       <c r="R52" s="3">
+        <v>600</v>
+      </c>
+      <c r="S52" s="3">
         <v>700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,8 +3291,11 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3177,58 +3303,61 @@
         <v>96000</v>
       </c>
       <c r="E54" s="3">
+        <v>96000</v>
+      </c>
+      <c r="F54" s="3">
         <v>96100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>96200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>96600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>95600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>95900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>95700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>81800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>80300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>81400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>96100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>80300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>78800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>78200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>77800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>77100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>76200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,67 +3403,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
-      </c>
-      <c r="E57" s="3">
-        <v>400</v>
       </c>
       <c r="F57" s="3">
         <v>400</v>
       </c>
       <c r="G57" s="3">
+        <v>400</v>
+      </c>
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
-      </c>
-      <c r="I57" s="3">
-        <v>400</v>
       </c>
       <c r="J57" s="3">
         <v>400</v>
       </c>
       <c r="K57" s="3">
+        <v>400</v>
+      </c>
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
-      </c>
-      <c r="N57" s="3">
-        <v>300</v>
       </c>
       <c r="O57" s="3">
         <v>300</v>
       </c>
       <c r="P57" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
-      </c>
-      <c r="R57" s="3">
-        <v>200</v>
       </c>
       <c r="S57" s="3">
         <v>200</v>
       </c>
       <c r="T57" s="3">
+        <v>200</v>
+      </c>
+      <c r="U57" s="3">
         <v>700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3341,10 +3475,10 @@
         <v>400</v>
       </c>
       <c r="E58" s="3">
+        <v>400</v>
+      </c>
+      <c r="F58" s="3">
         <v>300</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>5</v>
@@ -3361,8 +3495,8 @@
       <c r="K58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -3391,22 +3525,25 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
-      </c>
-      <c r="G59" s="3">
-        <v>700</v>
       </c>
       <c r="H59" s="3">
         <v>700</v>
@@ -3415,31 +3552,31 @@
         <v>700</v>
       </c>
       <c r="J59" s="3">
+        <v>700</v>
+      </c>
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>600</v>
-      </c>
-      <c r="R59" s="3">
-        <v>500</v>
       </c>
       <c r="S59" s="3">
         <v>500</v>
@@ -3448,10 +3585,13 @@
         <v>500</v>
       </c>
       <c r="U59" s="3">
+        <v>500</v>
+      </c>
+      <c r="V59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3459,69 +3599,72 @@
         <v>1700</v>
       </c>
       <c r="E60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F60" s="3">
         <v>1500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1300</v>
       </c>
       <c r="H60" s="3">
         <v>1300</v>
       </c>
       <c r="I60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J60" s="3">
         <v>1100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>24800</v>
+        <v>24700</v>
       </c>
       <c r="E61" s="3">
         <v>24800</v>
       </c>
       <c r="F61" s="3">
-        <v>25200</v>
+        <v>24800</v>
       </c>
       <c r="G61" s="3">
         <v>25200</v>
@@ -3542,7 +3685,7 @@
         <v>25200</v>
       </c>
       <c r="M61" s="3">
-        <v>25100</v>
+        <v>25200</v>
       </c>
       <c r="N61" s="3">
         <v>25100</v>
@@ -3563,13 +3706,16 @@
         <v>25100</v>
       </c>
       <c r="T61" s="3">
+        <v>25100</v>
+      </c>
+      <c r="U61" s="3">
         <v>25300</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,8 +3959,11 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3813,58 +3971,61 @@
         <v>26500</v>
       </c>
       <c r="E66" s="3">
-        <v>26400</v>
+        <v>26500</v>
       </c>
       <c r="F66" s="3">
         <v>26400</v>
       </c>
       <c r="G66" s="3">
-        <v>26500</v>
+        <v>26400</v>
       </c>
       <c r="H66" s="3">
         <v>26500</v>
       </c>
       <c r="I66" s="3">
+        <v>26500</v>
+      </c>
+      <c r="J66" s="3">
         <v>26300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>26200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>27200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>26300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>26600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>26300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>26500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>25800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>26100</v>
-      </c>
-      <c r="R66" s="3">
-        <v>26000</v>
       </c>
       <c r="S66" s="3">
         <v>26000</v>
       </c>
       <c r="T66" s="3">
+        <v>26000</v>
+      </c>
+      <c r="U66" s="3">
         <v>26500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,8 +4293,11 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4131,58 +4305,61 @@
         <v>55400</v>
       </c>
       <c r="E72" s="3">
+        <v>55400</v>
+      </c>
+      <c r="F72" s="3">
         <v>55700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>55800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>56000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>55100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>55500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>55400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>40600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>39900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>40700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>55800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>39700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>38900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>38100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>37800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>37100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>35700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,8 +4541,11 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4367,58 +4553,61 @@
         <v>69500</v>
       </c>
       <c r="E76" s="3">
+        <v>69500</v>
+      </c>
+      <c r="F76" s="3">
         <v>69700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>69900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>70100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>69200</v>
-      </c>
-      <c r="I76" s="3">
-        <v>69500</v>
       </c>
       <c r="J76" s="3">
         <v>69500</v>
       </c>
       <c r="K76" s="3">
+        <v>69500</v>
+      </c>
+      <c r="L76" s="3">
         <v>54700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>54000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>54800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>69900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>53800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>53000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>52100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>51900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>51100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>49700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>300</v>
+      </c>
+      <c r="E81" s="3">
         <v>100</v>
-      </c>
-      <c r="E81" s="3">
-        <v>200</v>
       </c>
       <c r="F81" s="3">
         <v>200</v>
       </c>
       <c r="G81" s="3">
+        <v>200</v>
+      </c>
+      <c r="H81" s="3">
         <v>1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4664,10 +4863,10 @@
         <v>200</v>
       </c>
       <c r="P83" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q83" s="3">
         <v>400</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>200</v>
       </c>
       <c r="R83" s="3">
         <v>200</v>
@@ -4679,10 +4878,13 @@
         <v>200</v>
       </c>
       <c r="U83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E89" s="3">
         <v>200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-900</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-2700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5278,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5069,8 +5290,8 @@
       <c r="E91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -5102,23 +5323,26 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E94" s="3">
         <v>100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>2000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>2300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-9400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5359,10 +5593,10 @@
         <v>-300</v>
       </c>
       <c r="P96" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-300</v>
       </c>
       <c r="R96" s="3">
         <v>-300</v>
@@ -5371,13 +5605,16 @@
         <v>-300</v>
       </c>
       <c r="T96" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="U96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,13 +5796,16 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E100" s="3">
         <v>-300</v>
@@ -5577,10 +5823,10 @@
         <v>-300</v>
       </c>
       <c r="J100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-200</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-300</v>
       </c>
       <c r="L100" s="3">
         <v>-300</v>
@@ -5595,25 +5841,28 @@
         <v>-300</v>
       </c>
       <c r="P100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>-300</v>
       </c>
       <c r="R100" s="3">
         <v>-300</v>
       </c>
       <c r="S100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T100" s="3">
         <v>-400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>9000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>100</v>
       </c>
       <c r="R102" s="3">
         <v>100</v>
       </c>
       <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
         <v>-400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RAFI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAFI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>RAFI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,102 +665,109 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E8" s="3">
         <v>1000</v>
@@ -781,7 +788,7 @@
         <v>1000</v>
       </c>
       <c r="K8" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="L8" s="3">
         <v>1000</v>
@@ -790,34 +797,40 @@
         <v>900</v>
       </c>
       <c r="N8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O8" s="3">
         <v>900</v>
-      </c>
-      <c r="O8" s="3">
-        <v>800</v>
       </c>
       <c r="P8" s="3">
         <v>900</v>
       </c>
       <c r="Q8" s="3">
+        <v>800</v>
+      </c>
+      <c r="R8" s="3">
+        <v>900</v>
+      </c>
+      <c r="S8" s="3">
         <v>1700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>700</v>
       </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -825,19 +838,19 @@
         <v>400</v>
       </c>
       <c r="E9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F9" s="3">
         <v>400</v>
       </c>
       <c r="G9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H9" s="3">
         <v>400</v>
       </c>
       <c r="I9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J9" s="3">
         <v>400</v>
@@ -855,57 +868,63 @@
         <v>400</v>
       </c>
       <c r="O9" s="3">
+        <v>400</v>
+      </c>
+      <c r="P9" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q9" s="3">
         <v>500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>300</v>
       </c>
-      <c r="U9" s="3">
-        <v>200</v>
-      </c>
-      <c r="V9" s="3" t="s">
+      <c r="W9" s="3">
+        <v>200</v>
+      </c>
+      <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E10" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F10" s="3">
         <v>600</v>
       </c>
       <c r="G10" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H10" s="3">
         <v>600</v>
       </c>
       <c r="I10" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J10" s="3">
         <v>600</v>
       </c>
       <c r="K10" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L10" s="3">
         <v>600</v>
@@ -914,34 +933,40 @@
         <v>500</v>
       </c>
       <c r="N10" s="3">
+        <v>600</v>
+      </c>
+      <c r="O10" s="3">
         <v>500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>300</v>
-      </c>
-      <c r="S10" s="3">
-        <v>500</v>
-      </c>
-      <c r="T10" s="3">
-        <v>500</v>
       </c>
       <c r="U10" s="3">
         <v>500</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="V10" s="3">
+        <v>500</v>
+      </c>
+      <c r="W10" s="3">
+        <v>500</v>
+      </c>
+      <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1053,14 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,13 +1121,19 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1109,28 +1148,28 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>200</v>
+      </c>
+      <c r="L14" s="3">
         <v>1000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>2100</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1142,16 +1181,22 @@
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>-100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>1400</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1195,25 +1240,31 @@
         <v>200</v>
       </c>
       <c r="Q15" s="3">
+        <v>200</v>
+      </c>
+      <c r="R15" s="3">
+        <v>200</v>
+      </c>
+      <c r="S15" s="3">
         <v>400</v>
       </c>
-      <c r="R15" s="3">
-        <v>200</v>
-      </c>
-      <c r="S15" s="3">
-        <v>200</v>
-      </c>
       <c r="T15" s="3">
         <v>200</v>
       </c>
       <c r="U15" s="3">
         <v>200</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="V15" s="3">
+        <v>200</v>
+      </c>
+      <c r="W15" s="3">
+        <v>200</v>
+      </c>
+      <c r="X15" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,8 +1284,10 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1248,60 +1301,66 @@
         <v>1000</v>
       </c>
       <c r="G17" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H17" s="3">
         <v>1000</v>
       </c>
       <c r="I17" s="3">
+        <v>900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K17" s="3">
         <v>1200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E18" s="3">
         <v>200</v>
@@ -1310,55 +1369,61 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
+        <v>200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-1700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1446,10 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1390,123 +1457,135 @@
         <v>600</v>
       </c>
       <c r="E20" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F20" s="3">
         <v>600</v>
       </c>
       <c r="G20" s="3">
+        <v>600</v>
+      </c>
+      <c r="H20" s="3">
+        <v>600</v>
+      </c>
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-2200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>2500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>2000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>2300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>3400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>1300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>2300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>1800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>1900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>900</v>
+      </c>
+      <c r="E21" s="3">
         <v>800</v>
-      </c>
-      <c r="E21" s="3">
-        <v>900</v>
       </c>
       <c r="F21" s="3">
         <v>800</v>
       </c>
       <c r="G21" s="3">
+        <v>900</v>
+      </c>
+      <c r="H21" s="3">
+        <v>800</v>
+      </c>
+      <c r="I21" s="3">
         <v>600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>2600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>2000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>2400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>3500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>1100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>2500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>2000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1550,149 +1629,167 @@
         <v>300</v>
       </c>
       <c r="Q22" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="R22" s="3">
         <v>300</v>
       </c>
       <c r="S22" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="T22" s="3">
         <v>300</v>
       </c>
       <c r="U22" s="3">
-        <v>200</v>
-      </c>
-      <c r="V22" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="V22" s="3">
+        <v>300</v>
+      </c>
+      <c r="W22" s="3">
+        <v>200</v>
+      </c>
+      <c r="X22" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>400</v>
+      </c>
+      <c r="E23" s="3">
         <v>300</v>
-      </c>
-      <c r="E23" s="3">
-        <v>400</v>
       </c>
       <c r="F23" s="3">
         <v>300</v>
       </c>
       <c r="G23" s="3">
+        <v>400</v>
+      </c>
+      <c r="H23" s="3">
+        <v>300</v>
+      </c>
+      <c r="I23" s="3">
         <v>100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>2000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>2500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>2000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>1500</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>2200</v>
       </c>
-      <c r="N24" s="3">
-        <v>200</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-200</v>
       </c>
-      <c r="U24" s="3">
-        <v>200</v>
-      </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>200</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,8 +1850,14 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1762,61 +1865,67 @@
         <v>300</v>
       </c>
       <c r="E26" s="3">
+        <v>300</v>
+      </c>
+      <c r="F26" s="3">
+        <v>300</v>
+      </c>
+      <c r="G26" s="3">
         <v>100</v>
       </c>
-      <c r="F26" s="3">
-        <v>200</v>
-      </c>
-      <c r="G26" s="3">
-        <v>200</v>
-      </c>
       <c r="H26" s="3">
+        <v>200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>200</v>
+      </c>
+      <c r="J26" s="3">
         <v>1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-3600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>1700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>1100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>1700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1824,61 +1933,67 @@
         <v>300</v>
       </c>
       <c r="E27" s="3">
+        <v>200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>300</v>
+      </c>
+      <c r="G27" s="3">
         <v>100</v>
       </c>
-      <c r="F27" s="3">
-        <v>200</v>
-      </c>
-      <c r="G27" s="3">
-        <v>200</v>
-      </c>
       <c r="H27" s="3">
+        <v>200</v>
+      </c>
+      <c r="I27" s="3">
+        <v>200</v>
+      </c>
+      <c r="J27" s="3">
         <v>1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-3600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>1700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>1100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>1700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2258,14 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2134,61 +2273,67 @@
         <v>-600</v>
       </c>
       <c r="E32" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="F32" s="3">
         <v>-600</v>
       </c>
       <c r="G32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>2200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-2500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-2000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-3400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-1300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-2300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-1800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-1900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2196,61 +2341,67 @@
         <v>300</v>
       </c>
       <c r="E33" s="3">
+        <v>200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>300</v>
+      </c>
+      <c r="G33" s="3">
         <v>100</v>
       </c>
-      <c r="F33" s="3">
-        <v>200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>200</v>
-      </c>
       <c r="H33" s="3">
+        <v>200</v>
+      </c>
+      <c r="I33" s="3">
+        <v>200</v>
+      </c>
+      <c r="J33" s="3">
         <v>1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-3600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>1700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>1100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>1700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,8 +2462,14 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2320,128 +2477,140 @@
         <v>300</v>
       </c>
       <c r="E35" s="3">
+        <v>200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>300</v>
+      </c>
+      <c r="G35" s="3">
         <v>100</v>
       </c>
-      <c r="F35" s="3">
-        <v>200</v>
-      </c>
-      <c r="G35" s="3">
-        <v>200</v>
-      </c>
       <c r="H35" s="3">
+        <v>200</v>
+      </c>
+      <c r="I35" s="3">
+        <v>200</v>
+      </c>
+      <c r="J35" s="3">
         <v>1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-3600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>1700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>1100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>1700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2659,78 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F41" s="3">
         <v>1100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>7200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>5500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>5100</v>
-      </c>
-      <c r="K41" s="3">
-        <v>3900</v>
-      </c>
-      <c r="L41" s="3">
-        <v>4600</v>
       </c>
       <c r="M41" s="3">
         <v>3900</v>
       </c>
       <c r="N41" s="3">
+        <v>4600</v>
+      </c>
+      <c r="O41" s="3">
+        <v>3900</v>
+      </c>
+      <c r="P41" s="3">
         <v>5700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>5300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>4600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>4400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>5200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>5000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>4900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>5400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2559,19 +2738,19 @@
         <v>6500</v>
       </c>
       <c r="E42" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F42" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G42" s="3">
         <v>5700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>5800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>6300</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
@@ -2582,11 +2761,11 @@
       <c r="L42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2612,16 +2791,22 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
@@ -2639,10 +2824,10 @@
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2654,28 +2839,34 @@
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>200</v>
+      </c>
+      <c r="S43" s="3">
         <v>300</v>
-      </c>
-      <c r="R43" s="3">
-        <v>300</v>
-      </c>
-      <c r="S43" s="3">
-        <v>100</v>
       </c>
       <c r="T43" s="3">
         <v>300</v>
       </c>
       <c r="U43" s="3">
+        <v>100</v>
+      </c>
+      <c r="V43" s="3">
         <v>300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
+        <v>300</v>
+      </c>
+      <c r="X43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2706,18 +2897,18 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N44" s="3" t="s">
+      <c r="P44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
       <c r="Q44" s="3">
         <v>0</v>
       </c>
@@ -2733,58 +2924,64 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-      <c r="V44" s="3" t="s">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>700</v>
+      </c>
+      <c r="F45" s="3">
         <v>1400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>3000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>3200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>2700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>900</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>800</v>
-      </c>
-      <c r="R45" s="3">
-        <v>700</v>
       </c>
       <c r="S45" s="3">
         <v>800</v>
@@ -2796,196 +2993,220 @@
         <v>800</v>
       </c>
       <c r="V45" s="3">
+        <v>700</v>
+      </c>
+      <c r="W45" s="3">
+        <v>800</v>
+      </c>
+      <c r="X45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F46" s="3">
         <v>9100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>9400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>9800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>10200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>10000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>7500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>6500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>5300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>5500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>5000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>7000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>6400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>5700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>5500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>6200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>5900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>6000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>6500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>55400</v>
+      </c>
+      <c r="F47" s="3">
         <v>55000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>54400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>54000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>53400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>53500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>55000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>56100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>56800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>42600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>41400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>40200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>55400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>40000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>38500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>37000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>36700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>35100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>34100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>32800</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>31500</v>
+      </c>
+      <c r="F48" s="3">
         <v>31700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>31900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>32100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>32300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>32500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>32600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>32800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>33000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>33200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>33400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>33600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>33800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>34000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>34200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>34400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>34600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>34700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>34900</v>
       </c>
-      <c r="V48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3046,8 +3267,14 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,13 +3403,19 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E52" s="3">
         <v>300</v>
@@ -3185,19 +3424,19 @@
         <v>300</v>
       </c>
       <c r="G52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H52" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I52" s="3">
         <v>400</v>
       </c>
       <c r="J52" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L52" s="3">
         <v>500</v>
@@ -3206,10 +3445,10 @@
         <v>500</v>
       </c>
       <c r="N52" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O52" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="P52" s="3">
         <v>600</v>
@@ -3221,19 +3460,25 @@
         <v>600</v>
       </c>
       <c r="S52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T52" s="3">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="U52" s="3">
         <v>700</v>
       </c>
       <c r="V52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W52" s="3">
+        <v>700</v>
+      </c>
+      <c r="X52" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>95800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>95800</v>
+      </c>
+      <c r="F54" s="3">
         <v>96000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>96000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>96100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>96200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>96600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>95600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>95900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>95700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>81800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>80300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>81400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>96100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>80300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>78800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>78200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>77800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>77100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>76200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,70 +3663,78 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
-      </c>
-      <c r="P57" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>300</v>
       </c>
       <c r="S57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U57" s="3">
+        <v>200</v>
+      </c>
+      <c r="V57" s="3">
+        <v>200</v>
+      </c>
+      <c r="W57" s="3">
         <v>700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3478,13 +3745,13 @@
         <v>400</v>
       </c>
       <c r="F58" s="3">
+        <v>400</v>
+      </c>
+      <c r="G58" s="3">
+        <v>400</v>
+      </c>
+      <c r="H58" s="3">
         <v>300</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>5</v>
@@ -3498,11 +3765,11 @@
       <c r="L58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3528,16 +3795,22 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
-      </c>
-      <c r="E59" s="3">
-        <v>800</v>
       </c>
       <c r="F59" s="3">
         <v>700</v>
@@ -3549,128 +3822,140 @@
         <v>700</v>
       </c>
       <c r="I59" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J59" s="3">
         <v>700</v>
       </c>
       <c r="K59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L59" s="3">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="M59" s="3">
         <v>600</v>
       </c>
       <c r="N59" s="3">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="O59" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="P59" s="3">
         <v>1000</v>
       </c>
       <c r="Q59" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="R59" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="S59" s="3">
         <v>500</v>
       </c>
       <c r="T59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="U59" s="3">
         <v>500</v>
       </c>
       <c r="V59" s="3">
+        <v>500</v>
+      </c>
+      <c r="W59" s="3">
+        <v>500</v>
+      </c>
+      <c r="X59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F60" s="3">
         <v>1700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>24600</v>
+      </c>
+      <c r="F61" s="3">
         <v>24700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>24800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>24800</v>
-      </c>
-      <c r="G61" s="3">
-        <v>25200</v>
-      </c>
-      <c r="H61" s="3">
-        <v>25200</v>
       </c>
       <c r="I61" s="3">
         <v>25200</v>
@@ -3688,10 +3973,10 @@
         <v>25200</v>
       </c>
       <c r="N61" s="3">
-        <v>25100</v>
+        <v>25200</v>
       </c>
       <c r="O61" s="3">
-        <v>25100</v>
+        <v>25200</v>
       </c>
       <c r="P61" s="3">
         <v>25100</v>
@@ -3709,36 +3994,42 @@
         <v>25100</v>
       </c>
       <c r="U61" s="3">
+        <v>25100</v>
+      </c>
+      <c r="V61" s="3">
+        <v>25100</v>
+      </c>
+      <c r="W61" s="3">
         <v>25300</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3776,8 +4067,14 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,8 +4271,14 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3974,58 +4289,64 @@
         <v>26500</v>
       </c>
       <c r="F66" s="3">
+        <v>26500</v>
+      </c>
+      <c r="G66" s="3">
+        <v>26500</v>
+      </c>
+      <c r="H66" s="3">
         <v>26400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>26400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>26500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>26500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>26300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>26200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>27200</v>
-      </c>
-      <c r="M66" s="3">
-        <v>26300</v>
-      </c>
-      <c r="N66" s="3">
-        <v>26600</v>
       </c>
       <c r="O66" s="3">
         <v>26300</v>
       </c>
       <c r="P66" s="3">
+        <v>26600</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>26300</v>
+      </c>
+      <c r="R66" s="3">
         <v>26500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>25800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>26100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>26000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>26000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>26500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>55300</v>
+      </c>
+      <c r="F72" s="3">
         <v>55400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>55400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>55700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>55800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>56000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>55100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>55500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>55400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>40600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>39900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>40700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>55800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>39700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>38900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>38100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>37800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>37100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>35700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>69300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>69400</v>
+      </c>
+      <c r="F76" s="3">
         <v>69500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>69500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>69700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>69900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>70100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>69200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>69500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>69500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>54700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>54000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>54800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>69900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>53800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>53000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>52100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>51900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>51100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>49700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,75 +5045,87 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4744,61 +5133,67 @@
         <v>300</v>
       </c>
       <c r="E81" s="3">
+        <v>200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>300</v>
+      </c>
+      <c r="G81" s="3">
         <v>100</v>
       </c>
-      <c r="F81" s="3">
-        <v>200</v>
-      </c>
-      <c r="G81" s="3">
-        <v>200</v>
-      </c>
       <c r="H81" s="3">
+        <v>200</v>
+      </c>
+      <c r="I81" s="3">
+        <v>200</v>
+      </c>
+      <c r="J81" s="3">
         <v>1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-3600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>1700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>1100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>1700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5216,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4866,14 +5263,14 @@
         <v>200</v>
       </c>
       <c r="Q83" s="3">
+        <v>200</v>
+      </c>
+      <c r="R83" s="3">
+        <v>200</v>
+      </c>
+      <c r="S83" s="3">
         <v>400</v>
       </c>
-      <c r="R83" s="3">
-        <v>200</v>
-      </c>
-      <c r="S83" s="3">
-        <v>200</v>
-      </c>
       <c r="T83" s="3">
         <v>200</v>
       </c>
@@ -4881,10 +5278,16 @@
         <v>200</v>
       </c>
       <c r="V83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="W83" s="3">
+        <v>200</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5620,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>400</v>
+      </c>
+      <c r="F89" s="3">
         <v>1600</v>
       </c>
-      <c r="E89" s="3">
-        <v>200</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
+        <v>200</v>
+      </c>
+      <c r="H89" s="3">
         <v>100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-2700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-2300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-1500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-1400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,25 +5718,27 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -5326,23 +5767,29 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3" t="s">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V91" s="3" t="s">
+      <c r="X91" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5918,82 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-5900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>2000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>1600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>1500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>2300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>1000</v>
-      </c>
-      <c r="M94" s="3">
-        <v>900</v>
-      </c>
-      <c r="N94" s="3">
-        <v>1200</v>
       </c>
       <c r="O94" s="3">
         <v>900</v>
       </c>
       <c r="P94" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>900</v>
+      </c>
+      <c r="R94" s="3">
         <v>700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>1500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>1100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>700</v>
-      </c>
-      <c r="T94" s="3">
-        <v>800</v>
-      </c>
-      <c r="U94" s="3">
-        <v>-9400</v>
       </c>
       <c r="V94" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="X94" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5596,25 +6063,31 @@
         <v>-300</v>
       </c>
       <c r="Q96" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="R96" s="3">
         <v>-300</v>
       </c>
       <c r="S96" s="3">
-        <v>-300</v>
+        <v>-600</v>
       </c>
       <c r="T96" s="3">
         <v>-300</v>
       </c>
       <c r="U96" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V96" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W96" s="3">
         <v>-200</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,8 +6284,14 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5808,10 +6299,10 @@
         <v>-400</v>
       </c>
       <c r="E100" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F100" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G100" s="3">
         <v>-300</v>
@@ -5826,13 +6317,13 @@
         <v>-300</v>
       </c>
       <c r="K100" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="L100" s="3">
         <v>-300</v>
       </c>
       <c r="M100" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="N100" s="3">
         <v>-300</v>
@@ -5844,25 +6335,31 @@
         <v>-300</v>
       </c>
       <c r="Q100" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="R100" s="3">
         <v>-300</v>
       </c>
       <c r="S100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T100" s="3">
         <v>-300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V100" s="3">
         <v>-400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>9000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6420,78 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>600</v>
+      </c>
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-6800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-600</v>
-      </c>
-      <c r="L102" s="3">
-        <v>500</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-1700</v>
       </c>
       <c r="N102" s="3">
         <v>500</v>
       </c>
       <c r="O102" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="P102" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q102" s="3">
         <v>700</v>
       </c>
-      <c r="P102" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
+        <v>200</v>
+      </c>
+      <c r="S102" s="3">
         <v>-600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-1800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RAFI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAFI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>RAFI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,108 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42551</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -770,7 +774,7 @@
         <v>1100</v>
       </c>
       <c r="E8" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F8" s="3">
         <v>1000</v>
@@ -794,43 +798,46 @@
         <v>1000</v>
       </c>
       <c r="M8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N8" s="3">
         <v>900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1000</v>
-      </c>
-      <c r="O8" s="3">
-        <v>900</v>
       </c>
       <c r="P8" s="3">
         <v>900</v>
       </c>
       <c r="Q8" s="3">
+        <v>900</v>
+      </c>
+      <c r="R8" s="3">
         <v>800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>700</v>
       </c>
-      <c r="X8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -838,10 +845,10 @@
         <v>400</v>
       </c>
       <c r="E9" s="3">
+        <v>400</v>
+      </c>
+      <c r="F9" s="3">
         <v>300</v>
-      </c>
-      <c r="F9" s="3">
-        <v>400</v>
       </c>
       <c r="G9" s="3">
         <v>400</v>
@@ -850,10 +857,10 @@
         <v>400</v>
       </c>
       <c r="I9" s="3">
+        <v>400</v>
+      </c>
+      <c r="J9" s="3">
         <v>300</v>
-      </c>
-      <c r="J9" s="3">
-        <v>400</v>
       </c>
       <c r="K9" s="3">
         <v>400</v>
@@ -874,31 +881,34 @@
         <v>400</v>
       </c>
       <c r="Q9" s="3">
+        <v>400</v>
+      </c>
+      <c r="R9" s="3">
         <v>500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>600</v>
-      </c>
-      <c r="T9" s="3">
-        <v>400</v>
       </c>
       <c r="U9" s="3">
         <v>400</v>
       </c>
       <c r="V9" s="3">
+        <v>400</v>
+      </c>
+      <c r="W9" s="3">
         <v>300</v>
       </c>
-      <c r="W9" s="3">
-        <v>200</v>
-      </c>
-      <c r="X9" s="3" t="s">
+      <c r="X9" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,7 +919,7 @@
         <v>700</v>
       </c>
       <c r="F10" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G10" s="3">
         <v>600</v>
@@ -918,10 +928,10 @@
         <v>600</v>
       </c>
       <c r="I10" s="3">
+        <v>600</v>
+      </c>
+      <c r="J10" s="3">
         <v>700</v>
-      </c>
-      <c r="J10" s="3">
-        <v>600</v>
       </c>
       <c r="K10" s="3">
         <v>600</v>
@@ -930,31 +940,31 @@
         <v>600</v>
       </c>
       <c r="M10" s="3">
+        <v>600</v>
+      </c>
+      <c r="N10" s="3">
         <v>500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>600</v>
-      </c>
-      <c r="O10" s="3">
-        <v>500</v>
       </c>
       <c r="P10" s="3">
         <v>500</v>
       </c>
       <c r="Q10" s="3">
+        <v>500</v>
+      </c>
+      <c r="R10" s="3">
         <v>300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>300</v>
-      </c>
-      <c r="U10" s="3">
-        <v>500</v>
       </c>
       <c r="V10" s="3">
         <v>500</v>
@@ -962,11 +972,14 @@
       <c r="W10" s="3">
         <v>500</v>
       </c>
-      <c r="X10" s="3" t="s">
+      <c r="X10" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,16 +1144,19 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1154,16 +1174,16 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>200</v>
+      </c>
+      <c r="M14" s="3">
         <v>1000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2100</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>5</v>
@@ -1171,8 +1191,8 @@
       <c r="P14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1187,16 +1207,19 @@
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>-100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1400</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1246,11 +1269,11 @@
         <v>200</v>
       </c>
       <c r="S15" s="3">
+        <v>200</v>
+      </c>
+      <c r="T15" s="3">
         <v>400</v>
       </c>
-      <c r="T15" s="3">
-        <v>200</v>
-      </c>
       <c r="U15" s="3">
         <v>200</v>
       </c>
@@ -1260,11 +1283,14 @@
       <c r="W15" s="3">
         <v>200</v>
       </c>
-      <c r="X15" s="3" t="s">
+      <c r="X15" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y15" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1312,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1295,67 +1322,70 @@
         <v>1000</v>
       </c>
       <c r="E17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>900</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1100</v>
       </c>
       <c r="P17" s="3">
         <v>1100</v>
       </c>
       <c r="Q17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R17" s="3">
         <v>1200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,67 +1393,70 @@
         <v>100</v>
       </c>
       <c r="E18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G18" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>100</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>100</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-200</v>
       </c>
       <c r="P18" s="3">
         <v>-200</v>
       </c>
       <c r="Q18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
         <v>0</v>
       </c>
       <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
         <v>-1700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1481,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1457,10 +1491,10 @@
         <v>600</v>
       </c>
       <c r="E20" s="3">
+        <v>600</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
-      </c>
-      <c r="F20" s="3">
-        <v>600</v>
       </c>
       <c r="G20" s="3">
         <v>600</v>
@@ -1469,123 +1503,129 @@
         <v>600</v>
       </c>
       <c r="I20" s="3">
+        <v>600</v>
+      </c>
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E21" s="3">
         <v>900</v>
-      </c>
-      <c r="E21" s="3">
-        <v>800</v>
       </c>
       <c r="F21" s="3">
         <v>800</v>
       </c>
       <c r="G21" s="3">
+        <v>800</v>
+      </c>
+      <c r="H21" s="3">
         <v>900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>600</v>
-      </c>
-      <c r="J21" s="3">
-        <v>900</v>
       </c>
       <c r="K21" s="3">
         <v>900</v>
       </c>
       <c r="L21" s="3">
+        <v>900</v>
+      </c>
+      <c r="M21" s="3">
         <v>1000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1635,10 +1675,10 @@
         <v>300</v>
       </c>
       <c r="S22" s="3">
+        <v>300</v>
+      </c>
+      <c r="T22" s="3">
         <v>600</v>
-      </c>
-      <c r="T22" s="3">
-        <v>300</v>
       </c>
       <c r="U22" s="3">
         <v>300</v>
@@ -1647,13 +1687,16 @@
         <v>300</v>
       </c>
       <c r="W22" s="3">
-        <v>200</v>
-      </c>
-      <c r="X22" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="X22" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y22" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1661,67 +1704,70 @@
         <v>400</v>
       </c>
       <c r="E23" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F23" s="3">
         <v>300</v>
       </c>
       <c r="G23" s="3">
+        <v>300</v>
+      </c>
+      <c r="H23" s="3">
         <v>400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>400</v>
       </c>
       <c r="K23" s="3">
         <v>400</v>
       </c>
       <c r="L23" s="3">
+        <v>400</v>
+      </c>
+      <c r="M23" s="3">
         <v>500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1500</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
       <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1729,67 +1775,70 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2200</v>
       </c>
-      <c r="P24" s="3">
-        <v>200</v>
-      </c>
       <c r="Q24" s="3">
+        <v>200</v>
+      </c>
+      <c r="R24" s="3">
         <v>-700</v>
-      </c>
-      <c r="R24" s="3">
-        <v>800</v>
       </c>
       <c r="S24" s="3">
         <v>800</v>
       </c>
       <c r="T24" s="3">
+        <v>800</v>
+      </c>
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-200</v>
       </c>
-      <c r="W24" s="3">
-        <v>200</v>
-      </c>
       <c r="X24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,8 +1905,11 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1871,61 +1923,64 @@
         <v>300</v>
       </c>
       <c r="G26" s="3">
+        <v>300</v>
+      </c>
+      <c r="H26" s="3">
         <v>100</v>
       </c>
-      <c r="H26" s="3">
-        <v>200</v>
-      </c>
       <c r="I26" s="3">
         <v>200</v>
       </c>
       <c r="J26" s="3">
+        <v>200</v>
+      </c>
+      <c r="K26" s="3">
         <v>1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1933,67 +1988,70 @@
         <v>300</v>
       </c>
       <c r="E27" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F27" s="3">
+        <v>200</v>
+      </c>
+      <c r="G27" s="3">
         <v>300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>100</v>
       </c>
-      <c r="H27" s="3">
-        <v>200</v>
-      </c>
       <c r="I27" s="3">
         <v>200</v>
       </c>
       <c r="J27" s="3">
+        <v>200</v>
+      </c>
+      <c r="K27" s="3">
         <v>1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2331,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,10 +2343,10 @@
         <v>-600</v>
       </c>
       <c r="E32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-600</v>
       </c>
       <c r="G32" s="3">
         <v>-600</v>
@@ -2285,55 +2355,58 @@
         <v>-600</v>
       </c>
       <c r="I32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2341,67 +2414,70 @@
         <v>300</v>
       </c>
       <c r="E33" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F33" s="3">
+        <v>200</v>
+      </c>
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>100</v>
       </c>
-      <c r="H33" s="3">
-        <v>200</v>
-      </c>
       <c r="I33" s="3">
         <v>200</v>
       </c>
       <c r="J33" s="3">
+        <v>200</v>
+      </c>
+      <c r="K33" s="3">
         <v>1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,8 +2544,11 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2477,140 +2556,146 @@
         <v>300</v>
       </c>
       <c r="E35" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F35" s="3">
+        <v>200</v>
+      </c>
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>100</v>
       </c>
-      <c r="H35" s="3">
-        <v>200</v>
-      </c>
       <c r="I35" s="3">
         <v>200</v>
       </c>
       <c r="J35" s="3">
+        <v>200</v>
+      </c>
+      <c r="K35" s="3">
         <v>1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42551</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,99 +2747,103 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E41" s="3">
         <v>1000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E42" s="3">
         <v>6500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>5900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>6500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>5700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>5800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>6300</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>5</v>
@@ -2767,8 +2857,8 @@
       <c r="N42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2797,8 +2887,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2809,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
@@ -2830,7 +2923,7 @@
         <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2845,28 +2938,31 @@
         <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T43" s="3">
         <v>300</v>
       </c>
       <c r="U43" s="3">
+        <v>300</v>
+      </c>
+      <c r="V43" s="3">
         <v>100</v>
-      </c>
-      <c r="V43" s="3">
-        <v>300</v>
       </c>
       <c r="W43" s="3">
         <v>300</v>
       </c>
       <c r="X43" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2903,14 +2999,14 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
+      <c r="O44" s="3">
+        <v>0</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -2930,283 +3026,298 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-      <c r="X44" s="3" t="s">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E45" s="3">
         <v>700</v>
       </c>
       <c r="F45" s="3">
+        <v>700</v>
+      </c>
+      <c r="G45" s="3">
         <v>1400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E46" s="3">
         <v>8300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>6500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E47" s="3">
         <v>56000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>55400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>55000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>54400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>54000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>53400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>53500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>55000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>56100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>56800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>42600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>41400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>40200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>55400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>40000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>38500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>37000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>36700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>35100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>34100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>32800</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E48" s="3">
         <v>31300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>31500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>31700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>31900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>32100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>32300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>32500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>32600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>32800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>33000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>33200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>33400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>33600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>33800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>34000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>34200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>34400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>34600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>34700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>34900</v>
       </c>
-      <c r="X48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3418,7 +3538,7 @@
         <v>200</v>
       </c>
       <c r="E52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F52" s="3">
         <v>300</v>
@@ -3430,16 +3550,16 @@
         <v>300</v>
       </c>
       <c r="I52" s="3">
+        <v>300</v>
+      </c>
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>400</v>
-      </c>
-      <c r="L52" s="3">
-        <v>500</v>
       </c>
       <c r="M52" s="3">
         <v>500</v>
@@ -3451,7 +3571,7 @@
         <v>500</v>
       </c>
       <c r="P52" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q52" s="3">
         <v>600</v>
@@ -3466,19 +3586,22 @@
         <v>600</v>
       </c>
       <c r="U52" s="3">
+        <v>600</v>
+      </c>
+      <c r="V52" s="3">
         <v>700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>95800</v>
+        <v>95900</v>
       </c>
       <c r="E54" s="3">
         <v>95800</v>
       </c>
       <c r="F54" s="3">
-        <v>96000</v>
+        <v>95800</v>
       </c>
       <c r="G54" s="3">
         <v>96000</v>
       </c>
       <c r="H54" s="3">
+        <v>96000</v>
+      </c>
+      <c r="I54" s="3">
         <v>96100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>96200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>96600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>95600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>95900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>95700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>81800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>80300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>81400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>96100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>80300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>78800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>78200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>77800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>77100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>76200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,76 +3795,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E57" s="3">
         <v>400</v>
       </c>
       <c r="F57" s="3">
+        <v>400</v>
+      </c>
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
-      </c>
-      <c r="H57" s="3">
-        <v>400</v>
       </c>
       <c r="I57" s="3">
         <v>400</v>
       </c>
       <c r="J57" s="3">
+        <v>400</v>
+      </c>
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
-      </c>
-      <c r="L57" s="3">
-        <v>400</v>
       </c>
       <c r="M57" s="3">
         <v>400</v>
       </c>
       <c r="N57" s="3">
+        <v>400</v>
+      </c>
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>300</v>
       </c>
       <c r="R57" s="3">
         <v>300</v>
       </c>
       <c r="S57" s="3">
+        <v>300</v>
+      </c>
+      <c r="T57" s="3">
         <v>100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>300</v>
       </c>
-      <c r="U57" s="3">
-        <v>200</v>
-      </c>
       <c r="V57" s="3">
         <v>200</v>
       </c>
       <c r="W57" s="3">
+        <v>200</v>
+      </c>
+      <c r="X57" s="3">
         <v>700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3751,10 +3885,10 @@
         <v>400</v>
       </c>
       <c r="H58" s="3">
+        <v>400</v>
+      </c>
+      <c r="I58" s="3">
         <v>300</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -3771,8 +3905,8 @@
       <c r="N58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3801,31 +3935,34 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
         <v>800</v>
-      </c>
-      <c r="E59" s="3">
-        <v>700</v>
       </c>
       <c r="F59" s="3">
         <v>700</v>
       </c>
       <c r="G59" s="3">
+        <v>700</v>
+      </c>
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
-      </c>
-      <c r="J59" s="3">
-        <v>700</v>
       </c>
       <c r="K59" s="3">
         <v>700</v>
@@ -3834,31 +3971,31 @@
         <v>700</v>
       </c>
       <c r="M59" s="3">
+        <v>700</v>
+      </c>
+      <c r="N59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>600</v>
-      </c>
-      <c r="U59" s="3">
-        <v>500</v>
       </c>
       <c r="V59" s="3">
         <v>500</v>
@@ -3867,98 +4004,104 @@
         <v>500</v>
       </c>
       <c r="X59" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E60" s="3">
         <v>1600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1500</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1700</v>
       </c>
       <c r="G60" s="3">
         <v>1700</v>
       </c>
       <c r="H60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I60" s="3">
         <v>1500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1100</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1300</v>
       </c>
       <c r="K60" s="3">
         <v>1300</v>
       </c>
       <c r="L60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M60" s="3">
         <v>1100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E61" s="3">
         <v>24500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>24600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>24700</v>
-      </c>
-      <c r="G61" s="3">
-        <v>24800</v>
       </c>
       <c r="H61" s="3">
         <v>24800</v>
       </c>
       <c r="I61" s="3">
-        <v>25200</v>
+        <v>24800</v>
       </c>
       <c r="J61" s="3">
         <v>25200</v>
@@ -3979,7 +4122,7 @@
         <v>25200</v>
       </c>
       <c r="P61" s="3">
-        <v>25100</v>
+        <v>25200</v>
       </c>
       <c r="Q61" s="3">
         <v>25100</v>
@@ -4000,13 +4143,16 @@
         <v>25100</v>
       </c>
       <c r="W61" s="3">
+        <v>25100</v>
+      </c>
+      <c r="X61" s="3">
         <v>25300</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4016,8 +4162,8 @@
       <c r="E62" s="3">
         <v>200</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
+      <c r="F62" s="3">
+        <v>200</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>5</v>
@@ -4031,8 +4177,8 @@
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,13 +4432,16 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>26500</v>
+        <v>26700</v>
       </c>
       <c r="E66" s="3">
         <v>26500</v>
@@ -4295,58 +4453,61 @@
         <v>26500</v>
       </c>
       <c r="H66" s="3">
-        <v>26400</v>
+        <v>26500</v>
       </c>
       <c r="I66" s="3">
         <v>26400</v>
       </c>
       <c r="J66" s="3">
-        <v>26500</v>
+        <v>26400</v>
       </c>
       <c r="K66" s="3">
         <v>26500</v>
       </c>
       <c r="L66" s="3">
+        <v>26500</v>
+      </c>
+      <c r="M66" s="3">
         <v>26300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>26200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>27200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>26300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>26600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>26300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>26500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>25800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>26100</v>
-      </c>
-      <c r="U66" s="3">
-        <v>26000</v>
       </c>
       <c r="V66" s="3">
         <v>26000</v>
       </c>
       <c r="W66" s="3">
+        <v>26000</v>
+      </c>
+      <c r="X66" s="3">
         <v>26500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>55300</v>
+        <v>55200</v>
       </c>
       <c r="E72" s="3">
         <v>55300</v>
       </c>
       <c r="F72" s="3">
-        <v>55400</v>
+        <v>55300</v>
       </c>
       <c r="G72" s="3">
         <v>55400</v>
       </c>
       <c r="H72" s="3">
+        <v>55400</v>
+      </c>
+      <c r="I72" s="3">
         <v>55700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>55800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>56000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>55100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>55500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>55400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>40600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>39900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>40700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>55800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>39700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>38900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>38100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>37800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>37100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>35700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,8 +5098,11 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4924,67 +5110,70 @@
         <v>69300</v>
       </c>
       <c r="E76" s="3">
+        <v>69300</v>
+      </c>
+      <c r="F76" s="3">
         <v>69400</v>
-      </c>
-      <c r="F76" s="3">
-        <v>69500</v>
       </c>
       <c r="G76" s="3">
         <v>69500</v>
       </c>
       <c r="H76" s="3">
+        <v>69500</v>
+      </c>
+      <c r="I76" s="3">
         <v>69700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>69900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>70100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>69200</v>
-      </c>
-      <c r="L76" s="3">
-        <v>69500</v>
       </c>
       <c r="M76" s="3">
         <v>69500</v>
       </c>
       <c r="N76" s="3">
+        <v>69500</v>
+      </c>
+      <c r="O76" s="3">
         <v>54700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>54000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>54800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>69900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>53800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>53000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>52100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>51900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>51100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>49700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,81 +5240,87 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42551</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5133,67 +5328,70 @@
         <v>300</v>
       </c>
       <c r="E81" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F81" s="3">
+        <v>200</v>
+      </c>
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>100</v>
       </c>
-      <c r="H81" s="3">
-        <v>200</v>
-      </c>
       <c r="I81" s="3">
         <v>200</v>
       </c>
       <c r="J81" s="3">
+        <v>200</v>
+      </c>
+      <c r="K81" s="3">
         <v>1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5269,11 +5468,11 @@
         <v>200</v>
       </c>
       <c r="S83" s="3">
+        <v>200</v>
+      </c>
+      <c r="T83" s="3">
         <v>400</v>
       </c>
-      <c r="T83" s="3">
-        <v>200</v>
-      </c>
       <c r="U83" s="3">
         <v>200</v>
       </c>
@@ -5284,10 +5483,13 @@
         <v>200</v>
       </c>
       <c r="X83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E89" s="3">
+        <v>200</v>
+      </c>
+      <c r="F89" s="3">
         <v>400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1600</v>
       </c>
-      <c r="G89" s="3">
-        <v>200</v>
-      </c>
       <c r="H89" s="3">
+        <v>200</v>
+      </c>
+      <c r="I89" s="3">
         <v>100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-900</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-2700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5731,8 +5952,8 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>5</v>
@@ -5740,8 +5961,8 @@
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -5773,23 +5994,26 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>5</v>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>2000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-9400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6069,10 +6303,10 @@
         <v>-300</v>
       </c>
       <c r="S96" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T96" s="3">
         <v>-600</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-300</v>
       </c>
       <c r="U96" s="3">
         <v>-300</v>
@@ -6081,13 +6315,16 @@
         <v>-300</v>
       </c>
       <c r="W96" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="X96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,13 +6533,16 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E100" s="3">
         <v>-400</v>
@@ -6305,7 +6551,7 @@
         <v>-400</v>
       </c>
       <c r="G100" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="H100" s="3">
         <v>-300</v>
@@ -6323,10 +6569,10 @@
         <v>-300</v>
       </c>
       <c r="M100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N100" s="3">
         <v>-200</v>
-      </c>
-      <c r="N100" s="3">
-        <v>-300</v>
       </c>
       <c r="O100" s="3">
         <v>-300</v>
@@ -6341,25 +6587,28 @@
         <v>-300</v>
       </c>
       <c r="S100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T100" s="3">
         <v>-600</v>
-      </c>
-      <c r="T100" s="3">
-        <v>-300</v>
       </c>
       <c r="U100" s="3">
         <v>-300</v>
       </c>
       <c r="V100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W100" s="3">
         <v>-400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>9000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6675,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>700</v>
       </c>
-      <c r="R102" s="3">
-        <v>200</v>
-      </c>
       <c r="S102" s="3">
+        <v>200</v>
+      </c>
+      <c r="T102" s="3">
         <v>-600</v>
-      </c>
-      <c r="T102" s="3">
-        <v>100</v>
       </c>
       <c r="U102" s="3">
         <v>100</v>
       </c>
       <c r="V102" s="3">
+        <v>100</v>
+      </c>
+      <c r="W102" s="3">
         <v>-400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RAFI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAFI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>RAFI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,123 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E8" s="3">
         <v>1100</v>
       </c>
       <c r="F8" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="G8" s="3">
         <v>1000</v>
@@ -801,43 +805,46 @@
         <v>1000</v>
       </c>
       <c r="N8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O8" s="3">
         <v>900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1000</v>
-      </c>
-      <c r="P8" s="3">
-        <v>900</v>
       </c>
       <c r="Q8" s="3">
         <v>900</v>
       </c>
       <c r="R8" s="3">
+        <v>900</v>
+      </c>
+      <c r="S8" s="3">
         <v>800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>700</v>
       </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,10 +855,10 @@
         <v>400</v>
       </c>
       <c r="F9" s="3">
+        <v>400</v>
+      </c>
+      <c r="G9" s="3">
         <v>300</v>
-      </c>
-      <c r="G9" s="3">
-        <v>400</v>
       </c>
       <c r="H9" s="3">
         <v>400</v>
@@ -860,10 +867,10 @@
         <v>400</v>
       </c>
       <c r="J9" s="3">
+        <v>400</v>
+      </c>
+      <c r="K9" s="3">
         <v>300</v>
-      </c>
-      <c r="K9" s="3">
-        <v>400</v>
       </c>
       <c r="L9" s="3">
         <v>400</v>
@@ -884,36 +891,39 @@
         <v>400</v>
       </c>
       <c r="R9" s="3">
+        <v>400</v>
+      </c>
+      <c r="S9" s="3">
         <v>500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>600</v>
-      </c>
-      <c r="U9" s="3">
-        <v>400</v>
       </c>
       <c r="V9" s="3">
         <v>400</v>
       </c>
       <c r="W9" s="3">
+        <v>400</v>
+      </c>
+      <c r="X9" s="3">
         <v>300</v>
       </c>
-      <c r="X9" s="3">
-        <v>200</v>
-      </c>
-      <c r="Y9" s="3" t="s">
+      <c r="Y9" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E10" s="3">
         <v>700</v>
@@ -922,7 +932,7 @@
         <v>700</v>
       </c>
       <c r="G10" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H10" s="3">
         <v>600</v>
@@ -931,10 +941,10 @@
         <v>600</v>
       </c>
       <c r="J10" s="3">
+        <v>600</v>
+      </c>
+      <c r="K10" s="3">
         <v>700</v>
-      </c>
-      <c r="K10" s="3">
-        <v>600</v>
       </c>
       <c r="L10" s="3">
         <v>600</v>
@@ -943,31 +953,31 @@
         <v>600</v>
       </c>
       <c r="N10" s="3">
+        <v>600</v>
+      </c>
+      <c r="O10" s="3">
         <v>500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>600</v>
-      </c>
-      <c r="P10" s="3">
-        <v>500</v>
       </c>
       <c r="Q10" s="3">
         <v>500</v>
       </c>
       <c r="R10" s="3">
+        <v>500</v>
+      </c>
+      <c r="S10" s="3">
         <v>300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>300</v>
-      </c>
-      <c r="V10" s="3">
-        <v>500</v>
       </c>
       <c r="W10" s="3">
         <v>500</v>
@@ -975,11 +985,14 @@
       <c r="X10" s="3">
         <v>500</v>
       </c>
-      <c r="Y10" s="3" t="s">
+      <c r="Y10" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1090,11 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1164,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1158,8 +1178,8 @@
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1177,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>200</v>
+      </c>
+      <c r="N14" s="3">
         <v>1000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2100</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>5</v>
@@ -1194,8 +1214,8 @@
       <c r="Q14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1210,16 +1230,19 @@
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>-100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1400</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1272,11 +1295,11 @@
         <v>200</v>
       </c>
       <c r="T15" s="3">
+        <v>200</v>
+      </c>
+      <c r="U15" s="3">
         <v>400</v>
       </c>
-      <c r="U15" s="3">
-        <v>200</v>
-      </c>
       <c r="V15" s="3">
         <v>200</v>
       </c>
@@ -1286,11 +1309,14 @@
       <c r="X15" s="3">
         <v>200</v>
       </c>
-      <c r="Y15" s="3" t="s">
+      <c r="Y15" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z15" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E17" s="3">
         <v>1000</v>
       </c>
       <c r="F17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>900</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1100</v>
       </c>
       <c r="Q17" s="3">
         <v>1100</v>
       </c>
       <c r="R17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S17" s="3">
         <v>1200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E18" s="3">
         <v>100</v>
       </c>
       <c r="F18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H18" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>100</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-200</v>
       </c>
       <c r="Q18" s="3">
         <v>-200</v>
       </c>
       <c r="R18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
         <v>0</v>
       </c>
       <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1515,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1494,10 +1528,10 @@
         <v>600</v>
       </c>
       <c r="F20" s="3">
+        <v>600</v>
+      </c>
+      <c r="G20" s="3">
         <v>500</v>
-      </c>
-      <c r="G20" s="3">
-        <v>600</v>
       </c>
       <c r="H20" s="3">
         <v>600</v>
@@ -1506,126 +1540,132 @@
         <v>600</v>
       </c>
       <c r="J20" s="3">
+        <v>600</v>
+      </c>
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E21" s="3">
         <v>1000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>900</v>
-      </c>
-      <c r="F21" s="3">
-        <v>800</v>
       </c>
       <c r="G21" s="3">
         <v>800</v>
       </c>
       <c r="H21" s="3">
+        <v>800</v>
+      </c>
+      <c r="I21" s="3">
         <v>900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>600</v>
-      </c>
-      <c r="K21" s="3">
-        <v>900</v>
       </c>
       <c r="L21" s="3">
         <v>900</v>
       </c>
       <c r="M21" s="3">
+        <v>900</v>
+      </c>
+      <c r="N21" s="3">
         <v>1000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1678,10 +1718,10 @@
         <v>300</v>
       </c>
       <c r="T22" s="3">
+        <v>300</v>
+      </c>
+      <c r="U22" s="3">
         <v>600</v>
-      </c>
-      <c r="U22" s="3">
-        <v>300</v>
       </c>
       <c r="V22" s="3">
         <v>300</v>
@@ -1690,155 +1730,164 @@
         <v>300</v>
       </c>
       <c r="X22" s="3">
-        <v>200</v>
-      </c>
-      <c r="Y22" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z22" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E23" s="3">
         <v>400</v>
       </c>
       <c r="F23" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G23" s="3">
         <v>300</v>
       </c>
       <c r="H23" s="3">
+        <v>300</v>
+      </c>
+      <c r="I23" s="3">
         <v>400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>400</v>
       </c>
       <c r="L23" s="3">
         <v>400</v>
       </c>
       <c r="M23" s="3">
+        <v>400</v>
+      </c>
+      <c r="N23" s="3">
         <v>500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1500</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
       <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2200</v>
       </c>
-      <c r="Q24" s="3">
-        <v>200</v>
-      </c>
       <c r="R24" s="3">
+        <v>200</v>
+      </c>
+      <c r="S24" s="3">
         <v>-700</v>
-      </c>
-      <c r="S24" s="3">
-        <v>800</v>
       </c>
       <c r="T24" s="3">
         <v>800</v>
       </c>
       <c r="U24" s="3">
+        <v>800</v>
+      </c>
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-200</v>
       </c>
-      <c r="X24" s="3">
-        <v>200</v>
-      </c>
       <c r="Y24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,13 +1957,16 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E26" s="3">
         <v>300</v>
@@ -1926,61 +1978,64 @@
         <v>300</v>
       </c>
       <c r="H26" s="3">
+        <v>300</v>
+      </c>
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
-        <v>200</v>
-      </c>
       <c r="J26" s="3">
         <v>200</v>
       </c>
       <c r="K26" s="3">
+        <v>200</v>
+      </c>
+      <c r="L26" s="3">
         <v>1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1991,67 +2046,70 @@
         <v>300</v>
       </c>
       <c r="F27" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G27" s="3">
+        <v>200</v>
+      </c>
+      <c r="H27" s="3">
         <v>300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
-        <v>200</v>
-      </c>
       <c r="J27" s="3">
         <v>200</v>
       </c>
       <c r="K27" s="3">
+        <v>200</v>
+      </c>
+      <c r="L27" s="3">
         <v>1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,8 +2401,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2346,10 +2416,10 @@
         <v>-600</v>
       </c>
       <c r="F32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G32" s="3">
         <v>-500</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-600</v>
       </c>
       <c r="H32" s="3">
         <v>-600</v>
@@ -2358,55 +2428,58 @@
         <v>-600</v>
       </c>
       <c r="J32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2417,67 +2490,70 @@
         <v>300</v>
       </c>
       <c r="F33" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G33" s="3">
+        <v>200</v>
+      </c>
+      <c r="H33" s="3">
         <v>300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
-        <v>200</v>
-      </c>
       <c r="J33" s="3">
         <v>200</v>
       </c>
       <c r="K33" s="3">
+        <v>200</v>
+      </c>
+      <c r="L33" s="3">
         <v>1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,8 +2623,11 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2559,143 +2638,149 @@
         <v>300</v>
       </c>
       <c r="F35" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G35" s="3">
+        <v>200</v>
+      </c>
+      <c r="H35" s="3">
         <v>300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
-        <v>200</v>
-      </c>
       <c r="J35" s="3">
         <v>200</v>
       </c>
       <c r="K35" s="3">
+        <v>200</v>
+      </c>
+      <c r="L35" s="3">
         <v>1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,105 +2834,109 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E41" s="3">
         <v>1700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E42" s="3">
         <v>7000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>6500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>5900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>6500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>5700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>5800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>6300</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>5</v>
@@ -2860,8 +2950,8 @@
       <c r="O42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2890,13 +2980,16 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2905,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
@@ -2926,7 +3019,7 @@
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2941,28 +3034,31 @@
         <v>0</v>
       </c>
       <c r="S43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U43" s="3">
         <v>300</v>
       </c>
       <c r="V43" s="3">
+        <v>300</v>
+      </c>
+      <c r="W43" s="3">
         <v>100</v>
-      </c>
-      <c r="W43" s="3">
-        <v>300</v>
       </c>
       <c r="X43" s="3">
         <v>300</v>
       </c>
       <c r="Y43" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3002,14 +3098,14 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
+      <c r="P44" s="3">
+        <v>0</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -3029,82 +3125,88 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-      <c r="Y44" s="3" t="s">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>800</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
-      </c>
-      <c r="E45" s="3">
-        <v>700</v>
       </c>
       <c r="F45" s="3">
         <v>700</v>
       </c>
       <c r="G45" s="3">
+        <v>700</v>
+      </c>
+      <c r="H45" s="3">
         <v>1400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3112,212 +3214,221 @@
         <v>9300</v>
       </c>
       <c r="E46" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F46" s="3">
         <v>8300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>6000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>6500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>55800</v>
+      </c>
+      <c r="E47" s="3">
         <v>55300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>56000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>55400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>55000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>54400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>54000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>53400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>53500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>55000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>56100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>56800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>42600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>41400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>40200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>55400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>40000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>38500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>37000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>36700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>35100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>34100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>32800</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E48" s="3">
         <v>31200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>31300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>31500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>31700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>31900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>32100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>32300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>32500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>32600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>32800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>33000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>33200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>33400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>33600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>33800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>34000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>34200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>34400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>34600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>34700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>34900</v>
       </c>
-      <c r="Y48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3387,8 +3498,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3646,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3541,7 +3661,7 @@
         <v>200</v>
       </c>
       <c r="F52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G52" s="3">
         <v>300</v>
@@ -3553,16 +3673,16 @@
         <v>300</v>
       </c>
       <c r="J52" s="3">
+        <v>300</v>
+      </c>
+      <c r="K52" s="3">
         <v>400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>400</v>
-      </c>
-      <c r="M52" s="3">
-        <v>500</v>
       </c>
       <c r="N52" s="3">
         <v>500</v>
@@ -3574,7 +3694,7 @@
         <v>500</v>
       </c>
       <c r="Q52" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="R52" s="3">
         <v>600</v>
@@ -3589,19 +3709,22 @@
         <v>600</v>
       </c>
       <c r="V52" s="3">
+        <v>600</v>
+      </c>
+      <c r="W52" s="3">
         <v>700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3794,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>96200</v>
+      </c>
+      <c r="E54" s="3">
         <v>95900</v>
-      </c>
-      <c r="E54" s="3">
-        <v>95800</v>
       </c>
       <c r="F54" s="3">
         <v>95800</v>
       </c>
       <c r="G54" s="3">
-        <v>96000</v>
+        <v>95800</v>
       </c>
       <c r="H54" s="3">
         <v>96000</v>
       </c>
       <c r="I54" s="3">
+        <v>96000</v>
+      </c>
+      <c r="J54" s="3">
         <v>96100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>96200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>96600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>95600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>95900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>95700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>81800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>80300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>81400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>96100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>80300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>78800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>78200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>77800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>77100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>76200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,79 +3926,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
-      </c>
-      <c r="E57" s="3">
-        <v>400</v>
       </c>
       <c r="F57" s="3">
         <v>400</v>
       </c>
       <c r="G57" s="3">
+        <v>400</v>
+      </c>
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
-      </c>
-      <c r="I57" s="3">
-        <v>400</v>
       </c>
       <c r="J57" s="3">
         <v>400</v>
       </c>
       <c r="K57" s="3">
+        <v>400</v>
+      </c>
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
-      </c>
-      <c r="M57" s="3">
-        <v>400</v>
       </c>
       <c r="N57" s="3">
         <v>400</v>
       </c>
       <c r="O57" s="3">
+        <v>400</v>
+      </c>
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
-      </c>
-      <c r="R57" s="3">
-        <v>300</v>
       </c>
       <c r="S57" s="3">
         <v>300</v>
       </c>
       <c r="T57" s="3">
+        <v>300</v>
+      </c>
+      <c r="U57" s="3">
         <v>100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>300</v>
       </c>
-      <c r="V57" s="3">
-        <v>200</v>
-      </c>
       <c r="W57" s="3">
         <v>200</v>
       </c>
       <c r="X57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y57" s="3">
         <v>700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3888,10 +4022,10 @@
         <v>400</v>
       </c>
       <c r="I58" s="3">
+        <v>400</v>
+      </c>
+      <c r="J58" s="3">
         <v>300</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>5</v>
@@ -3908,8 +4042,8 @@
       <c r="O58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3938,34 +4072,37 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>800</v>
-      </c>
-      <c r="F59" s="3">
-        <v>700</v>
       </c>
       <c r="G59" s="3">
         <v>700</v>
       </c>
       <c r="H59" s="3">
+        <v>700</v>
+      </c>
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
-      </c>
-      <c r="K59" s="3">
-        <v>700</v>
       </c>
       <c r="L59" s="3">
         <v>700</v>
@@ -3974,31 +4111,31 @@
         <v>700</v>
       </c>
       <c r="N59" s="3">
+        <v>700</v>
+      </c>
+      <c r="O59" s="3">
         <v>600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>600</v>
-      </c>
-      <c r="V59" s="3">
-        <v>500</v>
       </c>
       <c r="W59" s="3">
         <v>500</v>
@@ -4007,104 +4144,110 @@
         <v>500</v>
       </c>
       <c r="Y59" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E60" s="3">
         <v>1800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1500</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1700</v>
       </c>
       <c r="H60" s="3">
         <v>1700</v>
       </c>
       <c r="I60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J60" s="3">
         <v>1500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1100</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1300</v>
       </c>
       <c r="L60" s="3">
         <v>1300</v>
       </c>
       <c r="M60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N60" s="3">
         <v>1100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E61" s="3">
         <v>24400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>24500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>24600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>24700</v>
-      </c>
-      <c r="H61" s="3">
-        <v>24800</v>
       </c>
       <c r="I61" s="3">
         <v>24800</v>
       </c>
       <c r="J61" s="3">
-        <v>25200</v>
+        <v>24800</v>
       </c>
       <c r="K61" s="3">
         <v>25200</v>
@@ -4125,7 +4268,7 @@
         <v>25200</v>
       </c>
       <c r="Q61" s="3">
-        <v>25100</v>
+        <v>25200</v>
       </c>
       <c r="R61" s="3">
         <v>25100</v>
@@ -4146,13 +4289,16 @@
         <v>25100</v>
       </c>
       <c r="X61" s="3">
+        <v>25100</v>
+      </c>
+      <c r="Y61" s="3">
         <v>25300</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4165,8 +4311,8 @@
       <c r="F62" s="3">
         <v>200</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
+      <c r="G62" s="3">
+        <v>200</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>5</v>
@@ -4180,8 +4326,8 @@
       <c r="K62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -4222,8 +4368,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,16 +4590,19 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E66" s="3">
         <v>26700</v>
-      </c>
-      <c r="E66" s="3">
-        <v>26500</v>
       </c>
       <c r="F66" s="3">
         <v>26500</v>
@@ -4456,58 +4614,61 @@
         <v>26500</v>
       </c>
       <c r="I66" s="3">
-        <v>26400</v>
+        <v>26500</v>
       </c>
       <c r="J66" s="3">
         <v>26400</v>
       </c>
       <c r="K66" s="3">
-        <v>26500</v>
+        <v>26400</v>
       </c>
       <c r="L66" s="3">
         <v>26500</v>
       </c>
       <c r="M66" s="3">
+        <v>26500</v>
+      </c>
+      <c r="N66" s="3">
         <v>26300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>26200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>27200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>26300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>26600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>26300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>26500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>25800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>26100</v>
-      </c>
-      <c r="V66" s="3">
-        <v>26000</v>
       </c>
       <c r="W66" s="3">
         <v>26000</v>
       </c>
       <c r="X66" s="3">
+        <v>26000</v>
+      </c>
+      <c r="Y66" s="3">
         <v>26500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,8 +4988,11 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4826,70 +5000,73 @@
         <v>55200</v>
       </c>
       <c r="E72" s="3">
-        <v>55300</v>
+        <v>55200</v>
       </c>
       <c r="F72" s="3">
         <v>55300</v>
       </c>
       <c r="G72" s="3">
-        <v>55400</v>
+        <v>55300</v>
       </c>
       <c r="H72" s="3">
         <v>55400</v>
       </c>
       <c r="I72" s="3">
+        <v>55400</v>
+      </c>
+      <c r="J72" s="3">
         <v>55700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>55800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>56000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>55100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>55500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>55400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>40600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>39900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>40700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>55800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>39700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>38900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>38100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>37800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>37100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>35700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,8 +5284,11 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5113,67 +5299,70 @@
         <v>69300</v>
       </c>
       <c r="F76" s="3">
+        <v>69300</v>
+      </c>
+      <c r="G76" s="3">
         <v>69400</v>
-      </c>
-      <c r="G76" s="3">
-        <v>69500</v>
       </c>
       <c r="H76" s="3">
         <v>69500</v>
       </c>
       <c r="I76" s="3">
+        <v>69500</v>
+      </c>
+      <c r="J76" s="3">
         <v>69700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>69900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>70100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>69200</v>
-      </c>
-      <c r="M76" s="3">
-        <v>69500</v>
       </c>
       <c r="N76" s="3">
         <v>69500</v>
       </c>
       <c r="O76" s="3">
+        <v>69500</v>
+      </c>
+      <c r="P76" s="3">
         <v>54700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>54000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>54800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>69900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>53800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>53000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>52100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>51900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>51100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>49700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,84 +5432,90 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5331,67 +5526,70 @@
         <v>300</v>
       </c>
       <c r="F81" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G81" s="3">
+        <v>200</v>
+      </c>
+      <c r="H81" s="3">
         <v>300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
-        <v>200</v>
-      </c>
       <c r="J81" s="3">
         <v>200</v>
       </c>
       <c r="K81" s="3">
+        <v>200</v>
+      </c>
+      <c r="L81" s="3">
         <v>1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5615,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5471,11 +5670,11 @@
         <v>200</v>
       </c>
       <c r="T83" s="3">
+        <v>200</v>
+      </c>
+      <c r="U83" s="3">
         <v>400</v>
       </c>
-      <c r="U83" s="3">
-        <v>200</v>
-      </c>
       <c r="V83" s="3">
         <v>200</v>
       </c>
@@ -5486,10 +5685,13 @@
         <v>200</v>
       </c>
       <c r="Y83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>400</v>
+      </c>
+      <c r="E89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
-        <v>200</v>
-      </c>
       <c r="F89" s="3">
+        <v>200</v>
+      </c>
+      <c r="G89" s="3">
         <v>400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1600</v>
       </c>
-      <c r="H89" s="3">
-        <v>200</v>
-      </c>
       <c r="I89" s="3">
+        <v>200</v>
+      </c>
+      <c r="J89" s="3">
         <v>100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-900</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-2700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6161,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5955,8 +6176,8 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>5</v>
@@ -5964,8 +6185,8 @@
       <c r="I91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5997,23 +6218,26 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>5</v>
+      <c r="X91" s="3">
+        <v>0</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6381,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>100</v>
+      </c>
+      <c r="E94" s="3">
         <v>700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>1100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-9400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6306,10 +6540,10 @@
         <v>-300</v>
       </c>
       <c r="T96" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U96" s="3">
         <v>-600</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-300</v>
       </c>
       <c r="V96" s="3">
         <v>-300</v>
@@ -6318,13 +6552,16 @@
         <v>-300</v>
       </c>
       <c r="X96" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Y96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,16 +6779,19 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-500</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-400</v>
       </c>
       <c r="F100" s="3">
         <v>-400</v>
@@ -6554,7 +6800,7 @@
         <v>-400</v>
       </c>
       <c r="H100" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I100" s="3">
         <v>-300</v>
@@ -6572,10 +6818,10 @@
         <v>-300</v>
       </c>
       <c r="N100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O100" s="3">
         <v>-200</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-300</v>
       </c>
       <c r="P100" s="3">
         <v>-300</v>
@@ -6590,25 +6836,28 @@
         <v>-300</v>
       </c>
       <c r="T100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U100" s="3">
         <v>-600</v>
-      </c>
-      <c r="U100" s="3">
-        <v>-300</v>
       </c>
       <c r="V100" s="3">
         <v>-300</v>
       </c>
       <c r="W100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X100" s="3">
         <v>-400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>9000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,75 +6927,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>700</v>
       </c>
-      <c r="S102" s="3">
-        <v>200</v>
-      </c>
       <c r="T102" s="3">
+        <v>200</v>
+      </c>
+      <c r="U102" s="3">
         <v>-600</v>
-      </c>
-      <c r="U102" s="3">
-        <v>100</v>
       </c>
       <c r="V102" s="3">
         <v>100</v>
       </c>
       <c r="W102" s="3">
+        <v>100</v>
+      </c>
+      <c r="X102" s="3">
         <v>-400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RAFI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAFI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>RAFI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,129 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42551</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E8" s="3">
         <v>1200</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1100</v>
       </c>
       <c r="F8" s="3">
         <v>1100</v>
       </c>
       <c r="G8" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H8" s="3">
         <v>1000</v>
@@ -808,43 +811,46 @@
         <v>1000</v>
       </c>
       <c r="O8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P8" s="3">
         <v>900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>900</v>
       </c>
       <c r="R8" s="3">
         <v>900</v>
       </c>
       <c r="S8" s="3">
+        <v>900</v>
+      </c>
+      <c r="T8" s="3">
         <v>800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>700</v>
       </c>
-      <c r="Z8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,10 +864,10 @@
         <v>400</v>
       </c>
       <c r="G9" s="3">
+        <v>400</v>
+      </c>
+      <c r="H9" s="3">
         <v>300</v>
-      </c>
-      <c r="H9" s="3">
-        <v>400</v>
       </c>
       <c r="I9" s="3">
         <v>400</v>
@@ -870,10 +876,10 @@
         <v>400</v>
       </c>
       <c r="K9" s="3">
+        <v>400</v>
+      </c>
+      <c r="L9" s="3">
         <v>300</v>
-      </c>
-      <c r="L9" s="3">
-        <v>400</v>
       </c>
       <c r="M9" s="3">
         <v>400</v>
@@ -894,39 +900,42 @@
         <v>400</v>
       </c>
       <c r="S9" s="3">
+        <v>400</v>
+      </c>
+      <c r="T9" s="3">
         <v>500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>600</v>
-      </c>
-      <c r="V9" s="3">
-        <v>400</v>
       </c>
       <c r="W9" s="3">
         <v>400</v>
       </c>
       <c r="X9" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y9" s="3">
         <v>300</v>
       </c>
-      <c r="Y9" s="3">
-        <v>200</v>
-      </c>
-      <c r="Z9" s="3" t="s">
+      <c r="Z9" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>900</v>
+      </c>
+      <c r="E10" s="3">
         <v>800</v>
-      </c>
-      <c r="E10" s="3">
-        <v>700</v>
       </c>
       <c r="F10" s="3">
         <v>700</v>
@@ -935,7 +944,7 @@
         <v>700</v>
       </c>
       <c r="H10" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I10" s="3">
         <v>600</v>
@@ -944,10 +953,10 @@
         <v>600</v>
       </c>
       <c r="K10" s="3">
+        <v>600</v>
+      </c>
+      <c r="L10" s="3">
         <v>700</v>
-      </c>
-      <c r="L10" s="3">
-        <v>600</v>
       </c>
       <c r="M10" s="3">
         <v>600</v>
@@ -956,31 +965,31 @@
         <v>600</v>
       </c>
       <c r="O10" s="3">
+        <v>600</v>
+      </c>
+      <c r="P10" s="3">
         <v>500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>600</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>500</v>
       </c>
       <c r="R10" s="3">
         <v>500</v>
       </c>
       <c r="S10" s="3">
+        <v>500</v>
+      </c>
+      <c r="T10" s="3">
         <v>300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>300</v>
-      </c>
-      <c r="W10" s="3">
-        <v>500</v>
       </c>
       <c r="X10" s="3">
         <v>500</v>
@@ -988,11 +997,14 @@
       <c r="Y10" s="3">
         <v>500</v>
       </c>
-      <c r="Z10" s="3" t="s">
+      <c r="Z10" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1093,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1181,8 +1200,8 @@
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1200,16 +1219,16 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>200</v>
+      </c>
+      <c r="O14" s="3">
         <v>1000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2100</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>5</v>
@@ -1217,8 +1236,8 @@
       <c r="R14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1233,16 +1252,19 @@
         <v>0</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>-100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>1400</v>
       </c>
-      <c r="Z14" s="3" t="s">
+      <c r="AA14" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1298,11 +1320,11 @@
         <v>200</v>
       </c>
       <c r="U15" s="3">
+        <v>200</v>
+      </c>
+      <c r="V15" s="3">
         <v>400</v>
       </c>
-      <c r="V15" s="3">
-        <v>200</v>
-      </c>
       <c r="W15" s="3">
         <v>200</v>
       </c>
@@ -1312,11 +1334,14 @@
       <c r="Y15" s="3">
         <v>200</v>
       </c>
-      <c r="Z15" s="3" t="s">
+      <c r="Z15" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA15" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,82 +1365,86 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="3">
         <v>900</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1000</v>
       </c>
       <c r="F17" s="3">
         <v>1000</v>
       </c>
       <c r="G17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>900</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1100</v>
       </c>
       <c r="R17" s="3">
         <v>1100</v>
       </c>
       <c r="S17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T17" s="3">
         <v>1200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1423,73 +1452,76 @@
         <v>300</v>
       </c>
       <c r="E18" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F18" s="3">
         <v>100</v>
       </c>
       <c r="G18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I18" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>100</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-200</v>
       </c>
       <c r="R18" s="3">
         <v>-200</v>
       </c>
       <c r="S18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
         <v>0</v>
       </c>
       <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,13 +1548,14 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E20" s="3">
         <v>600</v>
@@ -1531,10 +1564,10 @@
         <v>600</v>
       </c>
       <c r="G20" s="3">
+        <v>600</v>
+      </c>
+      <c r="H20" s="3">
         <v>500</v>
-      </c>
-      <c r="H20" s="3">
-        <v>600</v>
       </c>
       <c r="I20" s="3">
         <v>600</v>
@@ -1543,129 +1576,135 @@
         <v>600</v>
       </c>
       <c r="K20" s="3">
+        <v>600</v>
+      </c>
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>800</v>
+      </c>
+      <c r="E21" s="3">
         <v>1100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>900</v>
-      </c>
-      <c r="G21" s="3">
-        <v>800</v>
       </c>
       <c r="H21" s="3">
         <v>800</v>
       </c>
       <c r="I21" s="3">
+        <v>800</v>
+      </c>
+      <c r="J21" s="3">
         <v>900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>600</v>
-      </c>
-      <c r="L21" s="3">
-        <v>900</v>
       </c>
       <c r="M21" s="3">
         <v>900</v>
       </c>
       <c r="N21" s="3">
+        <v>900</v>
+      </c>
+      <c r="O21" s="3">
         <v>1000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1721,10 +1760,10 @@
         <v>300</v>
       </c>
       <c r="U22" s="3">
+        <v>300</v>
+      </c>
+      <c r="V22" s="3">
         <v>600</v>
-      </c>
-      <c r="V22" s="3">
-        <v>300</v>
       </c>
       <c r="W22" s="3">
         <v>300</v>
@@ -1733,161 +1772,170 @@
         <v>300</v>
       </c>
       <c r="Y22" s="3">
-        <v>200</v>
-      </c>
-      <c r="Z22" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA22" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>300</v>
+      </c>
+      <c r="E23" s="3">
         <v>600</v>
-      </c>
-      <c r="E23" s="3">
-        <v>400</v>
       </c>
       <c r="F23" s="3">
         <v>400</v>
       </c>
       <c r="G23" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H23" s="3">
         <v>300</v>
       </c>
       <c r="I23" s="3">
+        <v>300</v>
+      </c>
+      <c r="J23" s="3">
         <v>400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>400</v>
       </c>
       <c r="M23" s="3">
         <v>400</v>
       </c>
       <c r="N23" s="3">
+        <v>400</v>
+      </c>
+      <c r="O23" s="3">
         <v>500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1500</v>
       </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
       <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>200</v>
+        <v>-400</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2200</v>
       </c>
-      <c r="R24" s="3">
-        <v>200</v>
-      </c>
       <c r="S24" s="3">
+        <v>200</v>
+      </c>
+      <c r="T24" s="3">
         <v>-700</v>
-      </c>
-      <c r="T24" s="3">
-        <v>800</v>
       </c>
       <c r="U24" s="3">
         <v>800</v>
       </c>
       <c r="V24" s="3">
+        <v>800</v>
+      </c>
+      <c r="W24" s="3">
         <v>100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-200</v>
       </c>
-      <c r="Y24" s="3">
-        <v>200</v>
-      </c>
       <c r="Z24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,16 +2008,19 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>600</v>
+      </c>
+      <c r="E26" s="3">
         <v>400</v>
-      </c>
-      <c r="E26" s="3">
-        <v>300</v>
       </c>
       <c r="F26" s="3">
         <v>300</v>
@@ -1981,66 +2032,69 @@
         <v>300</v>
       </c>
       <c r="I26" s="3">
+        <v>300</v>
+      </c>
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="3">
-        <v>200</v>
-      </c>
       <c r="K26" s="3">
         <v>200</v>
       </c>
       <c r="L26" s="3">
+        <v>200</v>
+      </c>
+      <c r="M26" s="3">
         <v>1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E27" s="3">
         <v>300</v>
@@ -2049,67 +2103,70 @@
         <v>300</v>
       </c>
       <c r="G27" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H27" s="3">
+        <v>200</v>
+      </c>
+      <c r="I27" s="3">
         <v>300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="J27" s="3">
-        <v>200</v>
-      </c>
       <c r="K27" s="3">
         <v>200</v>
       </c>
       <c r="L27" s="3">
+        <v>200</v>
+      </c>
+      <c r="M27" s="3">
         <v>1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,13 +2470,16 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="E32" s="3">
         <v>-600</v>
@@ -2419,10 +2488,10 @@
         <v>-600</v>
       </c>
       <c r="G32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H32" s="3">
         <v>-500</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-600</v>
       </c>
       <c r="I32" s="3">
         <v>-600</v>
@@ -2431,60 +2500,63 @@
         <v>-600</v>
       </c>
       <c r="K32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E33" s="3">
         <v>300</v>
@@ -2493,67 +2565,70 @@
         <v>300</v>
       </c>
       <c r="G33" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H33" s="3">
+        <v>200</v>
+      </c>
+      <c r="I33" s="3">
         <v>300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>100</v>
       </c>
-      <c r="J33" s="3">
-        <v>200</v>
-      </c>
       <c r="K33" s="3">
         <v>200</v>
       </c>
       <c r="L33" s="3">
+        <v>200</v>
+      </c>
+      <c r="M33" s="3">
         <v>1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,13 +2701,16 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E35" s="3">
         <v>300</v>
@@ -2641,146 +2719,152 @@
         <v>300</v>
       </c>
       <c r="G35" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H35" s="3">
+        <v>200</v>
+      </c>
+      <c r="I35" s="3">
         <v>300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>100</v>
       </c>
-      <c r="J35" s="3">
-        <v>200</v>
-      </c>
       <c r="K35" s="3">
         <v>200</v>
       </c>
       <c r="L35" s="3">
+        <v>200</v>
+      </c>
+      <c r="M35" s="3">
         <v>1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42551</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,111 +2920,115 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E42" s="3">
         <v>6900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>7000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>6500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>5900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>6500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>5700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>5800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>6300</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>5</v>
@@ -2953,8 +3042,8 @@
       <c r="P42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2983,8 +3072,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2992,7 +3084,7 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -3001,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
@@ -3022,7 +3114,7 @@
         <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -3037,28 +3129,31 @@
         <v>0</v>
       </c>
       <c r="T43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V43" s="3">
         <v>300</v>
       </c>
       <c r="W43" s="3">
+        <v>300</v>
+      </c>
+      <c r="X43" s="3">
         <v>100</v>
-      </c>
-      <c r="X43" s="3">
-        <v>300</v>
       </c>
       <c r="Y43" s="3">
         <v>300</v>
       </c>
       <c r="Z43" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3101,14 +3196,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
+      <c r="Q44" s="3">
+        <v>0</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="S44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
@@ -3128,307 +3223,322 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-      <c r="Z44" s="3" t="s">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>600</v>
-      </c>
-      <c r="F45" s="3">
-        <v>700</v>
       </c>
       <c r="G45" s="3">
         <v>700</v>
       </c>
       <c r="H45" s="3">
+        <v>700</v>
+      </c>
+      <c r="I45" s="3">
         <v>1400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9300</v>
+        <v>8800</v>
       </c>
       <c r="E46" s="3">
         <v>9300</v>
       </c>
       <c r="F46" s="3">
+        <v>9300</v>
+      </c>
+      <c r="G46" s="3">
         <v>8300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>6000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>6500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E47" s="3">
         <v>55800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>55300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>56000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>55400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>55000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>54400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>54000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>53400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>53500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>55000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>56100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>56800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>42600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>41400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>40200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>55400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>40000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>38500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>37000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>36700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>35100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>34100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>32800</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E48" s="3">
         <v>31000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>31200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>31300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>31500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>31700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>31900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>32100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>32300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>32500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>32600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>32800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>33000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>33200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>33400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>33600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>33800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>34000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>34200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>34400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>34600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>34700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>34900</v>
       </c>
-      <c r="Z48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3501,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3664,7 +3783,7 @@
         <v>200</v>
       </c>
       <c r="G52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H52" s="3">
         <v>300</v>
@@ -3676,16 +3795,16 @@
         <v>300</v>
       </c>
       <c r="K52" s="3">
+        <v>300</v>
+      </c>
+      <c r="L52" s="3">
         <v>400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>400</v>
-      </c>
-      <c r="N52" s="3">
-        <v>500</v>
       </c>
       <c r="O52" s="3">
         <v>500</v>
@@ -3697,7 +3816,7 @@
         <v>500</v>
       </c>
       <c r="R52" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="S52" s="3">
         <v>600</v>
@@ -3712,19 +3831,22 @@
         <v>600</v>
       </c>
       <c r="W52" s="3">
+        <v>600</v>
+      </c>
+      <c r="X52" s="3">
         <v>700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>95800</v>
+      </c>
+      <c r="E54" s="3">
         <v>96200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>95900</v>
-      </c>
-      <c r="F54" s="3">
-        <v>95800</v>
       </c>
       <c r="G54" s="3">
         <v>95800</v>
       </c>
       <c r="H54" s="3">
-        <v>96000</v>
+        <v>95800</v>
       </c>
       <c r="I54" s="3">
         <v>96000</v>
       </c>
       <c r="J54" s="3">
+        <v>96000</v>
+      </c>
+      <c r="K54" s="3">
         <v>96100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>96200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>96600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>95600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>95900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>95700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>81800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>80300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>81400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>96100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>80300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>78800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>78200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>77800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>77100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>76200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,82 +4056,86 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
-      </c>
-      <c r="F57" s="3">
-        <v>400</v>
       </c>
       <c r="G57" s="3">
         <v>400</v>
       </c>
       <c r="H57" s="3">
+        <v>400</v>
+      </c>
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
-      </c>
-      <c r="J57" s="3">
-        <v>400</v>
       </c>
       <c r="K57" s="3">
         <v>400</v>
       </c>
       <c r="L57" s="3">
+        <v>400</v>
+      </c>
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
-      </c>
-      <c r="N57" s="3">
-        <v>400</v>
       </c>
       <c r="O57" s="3">
         <v>400</v>
       </c>
       <c r="P57" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>400</v>
-      </c>
-      <c r="S57" s="3">
-        <v>300</v>
       </c>
       <c r="T57" s="3">
         <v>300</v>
       </c>
       <c r="U57" s="3">
+        <v>300</v>
+      </c>
+      <c r="V57" s="3">
         <v>100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>300</v>
       </c>
-      <c r="W57" s="3">
-        <v>200</v>
-      </c>
       <c r="X57" s="3">
         <v>200</v>
       </c>
       <c r="Y57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z57" s="3">
         <v>700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4025,10 +4158,10 @@
         <v>400</v>
       </c>
       <c r="J58" s="3">
+        <v>400</v>
+      </c>
+      <c r="K58" s="3">
         <v>300</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>5</v>
@@ -4045,8 +4178,8 @@
       <c r="P58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -4075,37 +4208,40 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
-      </c>
-      <c r="G59" s="3">
-        <v>700</v>
       </c>
       <c r="H59" s="3">
         <v>700</v>
       </c>
       <c r="I59" s="3">
+        <v>700</v>
+      </c>
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
-      </c>
-      <c r="L59" s="3">
-        <v>700</v>
       </c>
       <c r="M59" s="3">
         <v>700</v>
@@ -4114,31 +4250,31 @@
         <v>700</v>
       </c>
       <c r="O59" s="3">
+        <v>700</v>
+      </c>
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>600</v>
-      </c>
-      <c r="W59" s="3">
-        <v>500</v>
       </c>
       <c r="X59" s="3">
         <v>500</v>
@@ -4147,110 +4283,116 @@
         <v>500</v>
       </c>
       <c r="Z59" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E60" s="3">
         <v>2100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1500</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1700</v>
       </c>
       <c r="I60" s="3">
         <v>1700</v>
       </c>
       <c r="J60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K60" s="3">
         <v>1500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1100</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1300</v>
       </c>
       <c r="M60" s="3">
         <v>1300</v>
       </c>
       <c r="N60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O60" s="3">
         <v>1100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E61" s="3">
         <v>24300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>24400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>24500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>24600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>24700</v>
-      </c>
-      <c r="I61" s="3">
-        <v>24800</v>
       </c>
       <c r="J61" s="3">
         <v>24800</v>
       </c>
       <c r="K61" s="3">
-        <v>25200</v>
+        <v>24800</v>
       </c>
       <c r="L61" s="3">
         <v>25200</v>
@@ -4271,7 +4413,7 @@
         <v>25200</v>
       </c>
       <c r="R61" s="3">
-        <v>25100</v>
+        <v>25200</v>
       </c>
       <c r="S61" s="3">
         <v>25100</v>
@@ -4292,18 +4434,21 @@
         <v>25100</v>
       </c>
       <c r="Y61" s="3">
+        <v>25100</v>
+      </c>
+      <c r="Z61" s="3">
         <v>25300</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>200</v>
@@ -4314,8 +4459,8 @@
       <c r="G62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
+      <c r="H62" s="3">
+        <v>200</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>5</v>
@@ -4329,8 +4474,8 @@
       <c r="L62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -4371,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,19 +4747,22 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E66" s="3">
         <v>27000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>26700</v>
-      </c>
-      <c r="F66" s="3">
-        <v>26500</v>
       </c>
       <c r="G66" s="3">
         <v>26500</v>
@@ -4617,58 +4774,61 @@
         <v>26500</v>
       </c>
       <c r="J66" s="3">
-        <v>26400</v>
+        <v>26500</v>
       </c>
       <c r="K66" s="3">
         <v>26400</v>
       </c>
       <c r="L66" s="3">
-        <v>26500</v>
+        <v>26400</v>
       </c>
       <c r="M66" s="3">
         <v>26500</v>
       </c>
       <c r="N66" s="3">
+        <v>26500</v>
+      </c>
+      <c r="O66" s="3">
         <v>26300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>26200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>27200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>26300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>26600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>26300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>26500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>25800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>26100</v>
-      </c>
-      <c r="W66" s="3">
-        <v>26000</v>
       </c>
       <c r="X66" s="3">
         <v>26000</v>
       </c>
       <c r="Y66" s="3">
+        <v>26000</v>
+      </c>
+      <c r="Z66" s="3">
         <v>26500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>55200</v>
+        <v>55400</v>
       </c>
       <c r="E72" s="3">
         <v>55200</v>
       </c>
       <c r="F72" s="3">
-        <v>55300</v>
+        <v>55200</v>
       </c>
       <c r="G72" s="3">
         <v>55300</v>
       </c>
       <c r="H72" s="3">
-        <v>55400</v>
+        <v>55300</v>
       </c>
       <c r="I72" s="3">
         <v>55400</v>
       </c>
       <c r="J72" s="3">
+        <v>55400</v>
+      </c>
+      <c r="K72" s="3">
         <v>55700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>55800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>56000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>55100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>55500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>55400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>40600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>39900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>40700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>55800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>39700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>38900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>38100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>37800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>37100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>35700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,13 +5469,16 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>69300</v>
+        <v>69500</v>
       </c>
       <c r="E76" s="3">
         <v>69300</v>
@@ -5302,67 +5487,70 @@
         <v>69300</v>
       </c>
       <c r="G76" s="3">
+        <v>69300</v>
+      </c>
+      <c r="H76" s="3">
         <v>69400</v>
-      </c>
-      <c r="H76" s="3">
-        <v>69500</v>
       </c>
       <c r="I76" s="3">
         <v>69500</v>
       </c>
       <c r="J76" s="3">
+        <v>69500</v>
+      </c>
+      <c r="K76" s="3">
         <v>69700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>69900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>70100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>69200</v>
-      </c>
-      <c r="N76" s="3">
-        <v>69500</v>
       </c>
       <c r="O76" s="3">
         <v>69500</v>
       </c>
       <c r="P76" s="3">
+        <v>69500</v>
+      </c>
+      <c r="Q76" s="3">
         <v>54700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>54000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>54800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>69900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>53800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>53000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>52100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>51900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>51100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>49700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,92 +5623,98 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42551</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E81" s="3">
         <v>300</v>
@@ -5529,67 +5723,70 @@
         <v>300</v>
       </c>
       <c r="G81" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H81" s="3">
+        <v>200</v>
+      </c>
+      <c r="I81" s="3">
         <v>300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>100</v>
       </c>
-      <c r="J81" s="3">
-        <v>200</v>
-      </c>
       <c r="K81" s="3">
         <v>200</v>
       </c>
       <c r="L81" s="3">
+        <v>200</v>
+      </c>
+      <c r="M81" s="3">
         <v>1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5673,11 +5871,11 @@
         <v>200</v>
       </c>
       <c r="U83" s="3">
+        <v>200</v>
+      </c>
+      <c r="V83" s="3">
         <v>400</v>
       </c>
-      <c r="V83" s="3">
-        <v>200</v>
-      </c>
       <c r="W83" s="3">
         <v>200</v>
       </c>
@@ -5688,10 +5886,13 @@
         <v>200</v>
       </c>
       <c r="Z83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
-        <v>200</v>
-      </c>
       <c r="G89" s="3">
+        <v>200</v>
+      </c>
+      <c r="H89" s="3">
         <v>400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1600</v>
       </c>
-      <c r="I89" s="3">
-        <v>200</v>
-      </c>
       <c r="J89" s="3">
+        <v>200</v>
+      </c>
+      <c r="K89" s="3">
         <v>100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-900</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-2700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6179,8 +6399,8 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>5</v>
@@ -6188,8 +6408,8 @@
       <c r="J91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -6221,23 +6441,26 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>5</v>
+      <c r="Y91" s="3">
+        <v>0</v>
       </c>
       <c r="Z91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>700</v>
+      </c>
+      <c r="E94" s="3">
         <v>100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>2300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>1500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>1100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-9400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6543,10 +6776,10 @@
         <v>-300</v>
       </c>
       <c r="U96" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V96" s="3">
         <v>-600</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-300</v>
       </c>
       <c r="W96" s="3">
         <v>-300</v>
@@ -6555,13 +6788,16 @@
         <v>-300</v>
       </c>
       <c r="Y96" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Z96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,8 +7024,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6791,10 +7036,10 @@
         <v>-400</v>
       </c>
       <c r="E100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-500</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-400</v>
       </c>
       <c r="G100" s="3">
         <v>-400</v>
@@ -6803,7 +7048,7 @@
         <v>-400</v>
       </c>
       <c r="I100" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="J100" s="3">
         <v>-300</v>
@@ -6821,10 +7066,10 @@
         <v>-300</v>
       </c>
       <c r="O100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P100" s="3">
         <v>-200</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-300</v>
       </c>
       <c r="Q100" s="3">
         <v>-300</v>
@@ -6839,25 +7084,28 @@
         <v>-300</v>
       </c>
       <c r="U100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V100" s="3">
         <v>-600</v>
-      </c>
-      <c r="V100" s="3">
-        <v>-300</v>
       </c>
       <c r="W100" s="3">
         <v>-300</v>
       </c>
       <c r="X100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>9000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6930,78 +7178,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>700</v>
       </c>
-      <c r="T102" s="3">
-        <v>200</v>
-      </c>
       <c r="U102" s="3">
+        <v>200</v>
+      </c>
+      <c r="V102" s="3">
         <v>-600</v>
-      </c>
-      <c r="V102" s="3">
-        <v>100</v>
       </c>
       <c r="W102" s="3">
         <v>100</v>
       </c>
       <c r="X102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RAFI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAFI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>RAFI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,123 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42551</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,19 +789,19 @@
         <v>1300</v>
       </c>
       <c r="E8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G8" s="3">
         <v>1200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1100</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1000</v>
       </c>
       <c r="J8" s="3">
         <v>1000</v>
@@ -814,7 +822,7 @@
         <v>1000</v>
       </c>
       <c r="P8" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="Q8" s="3">
         <v>1000</v>
@@ -823,34 +831,40 @@
         <v>900</v>
       </c>
       <c r="S8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T8" s="3">
         <v>900</v>
-      </c>
-      <c r="T8" s="3">
-        <v>800</v>
       </c>
       <c r="U8" s="3">
         <v>900</v>
       </c>
       <c r="V8" s="3">
+        <v>800</v>
+      </c>
+      <c r="W8" s="3">
+        <v>900</v>
+      </c>
+      <c r="X8" s="3">
         <v>1700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>700</v>
       </c>
-      <c r="AA8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -867,25 +881,25 @@
         <v>400</v>
       </c>
       <c r="H9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I9" s="3">
         <v>400</v>
       </c>
       <c r="J9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K9" s="3">
         <v>400</v>
       </c>
       <c r="L9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M9" s="3">
         <v>400</v>
       </c>
       <c r="N9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O9" s="3">
         <v>400</v>
@@ -903,31 +917,37 @@
         <v>400</v>
       </c>
       <c r="T9" s="3">
+        <v>400</v>
+      </c>
+      <c r="U9" s="3">
+        <v>400</v>
+      </c>
+      <c r="V9" s="3">
         <v>500</v>
       </c>
-      <c r="U9" s="3">
-        <v>300</v>
-      </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
+        <v>300</v>
+      </c>
+      <c r="X9" s="3">
         <v>600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>400</v>
       </c>
-      <c r="Y9" s="3">
-        <v>300</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>200</v>
-      </c>
-      <c r="AA9" s="3" t="s">
+      <c r="AA9" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -935,40 +955,40 @@
         <v>900</v>
       </c>
       <c r="E10" s="3">
+        <v>900</v>
+      </c>
+      <c r="F10" s="3">
+        <v>900</v>
+      </c>
+      <c r="G10" s="3">
         <v>800</v>
-      </c>
-      <c r="F10" s="3">
-        <v>700</v>
-      </c>
-      <c r="G10" s="3">
-        <v>700</v>
       </c>
       <c r="H10" s="3">
         <v>700</v>
       </c>
       <c r="I10" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J10" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K10" s="3">
         <v>600</v>
       </c>
       <c r="L10" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M10" s="3">
         <v>600</v>
       </c>
       <c r="N10" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="O10" s="3">
         <v>600</v>
       </c>
       <c r="P10" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q10" s="3">
         <v>600</v>
@@ -977,34 +997,40 @@
         <v>500</v>
       </c>
       <c r="S10" s="3">
+        <v>600</v>
+      </c>
+      <c r="T10" s="3">
         <v>500</v>
       </c>
-      <c r="T10" s="3">
-        <v>300</v>
-      </c>
       <c r="U10" s="3">
+        <v>500</v>
+      </c>
+      <c r="V10" s="3">
+        <v>300</v>
+      </c>
+      <c r="W10" s="3">
         <v>600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>1100</v>
       </c>
-      <c r="W10" s="3">
-        <v>300</v>
-      </c>
-      <c r="X10" s="3">
-        <v>500</v>
-      </c>
       <c r="Y10" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Z10" s="3">
         <v>500</v>
       </c>
-      <c r="AA10" s="3" t="s">
+      <c r="AA10" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1058,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1137,14 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1220,14 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1203,11 +1243,11 @@
       <c r="G14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1222,28 +1262,28 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q14" s="3">
         <v>1000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>2100</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1255,16 +1295,22 @@
         <v>0</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>-100</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>1400</v>
       </c>
-      <c r="AA14" s="3" t="s">
+      <c r="AC14" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1323,25 +1369,31 @@
         <v>200</v>
       </c>
       <c r="V15" s="3">
+        <v>200</v>
+      </c>
+      <c r="W15" s="3">
+        <v>200</v>
+      </c>
+      <c r="X15" s="3">
         <v>400</v>
       </c>
-      <c r="W15" s="3">
-        <v>200</v>
-      </c>
-      <c r="X15" s="3">
-        <v>200</v>
-      </c>
       <c r="Y15" s="3">
         <v>200</v>
       </c>
       <c r="Z15" s="3">
         <v>200</v>
       </c>
-      <c r="AA15" s="3" t="s">
+      <c r="AA15" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC15" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,8 +1418,10 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1375,16 +1429,16 @@
         <v>1000</v>
       </c>
       <c r="E17" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F17" s="3">
         <v>1000</v>
       </c>
       <c r="G17" s="3">
+        <v>900</v>
+      </c>
+      <c r="H17" s="3">
         <v>1000</v>
-      </c>
-      <c r="H17" s="3">
-        <v>800</v>
       </c>
       <c r="I17" s="3">
         <v>1000</v>
@@ -1396,55 +1450,61 @@
         <v>1000</v>
       </c>
       <c r="L17" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M17" s="3">
         <v>1000</v>
       </c>
       <c r="N17" s="3">
+        <v>900</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P17" s="3">
         <v>1200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>2400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1455,17 +1515,17 @@
         <v>300</v>
       </c>
       <c r="F18" s="3">
+        <v>300</v>
+      </c>
+      <c r="G18" s="3">
+        <v>300</v>
+      </c>
+      <c r="H18" s="3">
         <v>100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>100</v>
       </c>
-      <c r="H18" s="3">
-        <v>200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
         <v>200</v>
       </c>
@@ -1473,55 +1533,61 @@
         <v>0</v>
       </c>
       <c r="L18" s="3">
+        <v>200</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>100</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-400</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
       <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
         <v>-1700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,162 +1615,176 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E20" s="3">
         <v>600</v>
       </c>
       <c r="F20" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="G20" s="3">
         <v>600</v>
       </c>
       <c r="H20" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I20" s="3">
         <v>600</v>
       </c>
       <c r="J20" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K20" s="3">
         <v>600</v>
       </c>
       <c r="L20" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M20" s="3">
+        <v>600</v>
+      </c>
+      <c r="N20" s="3">
+        <v>300</v>
+      </c>
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>2000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-2200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>2500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>2000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>1800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>2300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>3400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>1300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>2300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>1800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>1900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F21" s="3">
         <v>800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>800</v>
-      </c>
-      <c r="I21" s="3">
-        <v>800</v>
-      </c>
-      <c r="J21" s="3">
-        <v>900</v>
       </c>
       <c r="K21" s="3">
         <v>800</v>
       </c>
       <c r="L21" s="3">
+        <v>900</v>
+      </c>
+      <c r="M21" s="3">
+        <v>800</v>
+      </c>
+      <c r="N21" s="3">
         <v>600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-1900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>2600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>2000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>1700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>2400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>3500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>1100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>2500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>2000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1763,179 +1843,197 @@
         <v>300</v>
       </c>
       <c r="V22" s="3">
+        <v>300</v>
+      </c>
+      <c r="W22" s="3">
+        <v>300</v>
+      </c>
+      <c r="X22" s="3">
         <v>600</v>
       </c>
-      <c r="W22" s="3">
-        <v>300</v>
-      </c>
-      <c r="X22" s="3">
-        <v>300</v>
-      </c>
       <c r="Y22" s="3">
         <v>300</v>
       </c>
       <c r="Z22" s="3">
-        <v>200</v>
-      </c>
-      <c r="AA22" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC22" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E23" s="3">
+        <v>500</v>
+      </c>
+      <c r="F23" s="3">
+        <v>300</v>
+      </c>
+      <c r="G23" s="3">
         <v>600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>400</v>
       </c>
-      <c r="H23" s="3">
-        <v>300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>300</v>
-      </c>
       <c r="J23" s="3">
+        <v>300</v>
+      </c>
+      <c r="K23" s="3">
+        <v>300</v>
+      </c>
+      <c r="L23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
-        <v>300</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
+        <v>300</v>
+      </c>
+      <c r="N23" s="3">
         <v>100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-2400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>2000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>1400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>1100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>1900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>2500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>2000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>1500</v>
       </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="E24" s="3">
-        <v>200</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
+        <v>200</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>300</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>1100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>2200</v>
       </c>
-      <c r="S24" s="3">
-        <v>200</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
+        <v>200</v>
+      </c>
+      <c r="V24" s="3">
         <v>-700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>-200</v>
       </c>
-      <c r="Z24" s="3">
-        <v>200</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,22 +2109,28 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E26" s="3">
         <v>400</v>
       </c>
       <c r="F26" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="G26" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H26" s="3">
         <v>300</v>
@@ -2035,138 +2139,150 @@
         <v>300</v>
       </c>
       <c r="J26" s="3">
+        <v>300</v>
+      </c>
+      <c r="K26" s="3">
+        <v>300</v>
+      </c>
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
-        <v>200</v>
-      </c>
-      <c r="L26" s="3">
-        <v>200</v>
-      </c>
       <c r="M26" s="3">
+        <v>200</v>
+      </c>
+      <c r="N26" s="3">
+        <v>200</v>
+      </c>
+      <c r="O26" s="3">
         <v>1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-3600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>1200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>1900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>1100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>1700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>1100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>1700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>300</v>
+      </c>
+      <c r="F27" s="3">
         <v>500</v>
       </c>
-      <c r="E27" s="3">
-        <v>300</v>
-      </c>
-      <c r="F27" s="3">
-        <v>300</v>
-      </c>
       <c r="G27" s="3">
         <v>300</v>
       </c>
       <c r="H27" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I27" s="3">
         <v>300</v>
       </c>
       <c r="J27" s="3">
+        <v>200</v>
+      </c>
+      <c r="K27" s="3">
+        <v>300</v>
+      </c>
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
-        <v>200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>200</v>
-      </c>
       <c r="M27" s="3">
+        <v>200</v>
+      </c>
+      <c r="N27" s="3">
+        <v>200</v>
+      </c>
+      <c r="O27" s="3">
         <v>1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-3600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>1200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>1900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>1100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>1700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>1100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>1700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2358,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2441,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2524,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2607,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="E32" s="3">
         <v>-600</v>
       </c>
       <c r="F32" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="G32" s="3">
         <v>-600</v>
       </c>
       <c r="H32" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="I32" s="3">
         <v>-600</v>
       </c>
       <c r="J32" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="K32" s="3">
         <v>-600</v>
       </c>
       <c r="L32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>2200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-2500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-2000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-1800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-2300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-3400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-1300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>300</v>
+      </c>
+      <c r="F33" s="3">
         <v>500</v>
       </c>
-      <c r="E33" s="3">
-        <v>300</v>
-      </c>
-      <c r="F33" s="3">
-        <v>300</v>
-      </c>
       <c r="G33" s="3">
         <v>300</v>
       </c>
       <c r="H33" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I33" s="3">
         <v>300</v>
       </c>
       <c r="J33" s="3">
+        <v>200</v>
+      </c>
+      <c r="K33" s="3">
+        <v>300</v>
+      </c>
+      <c r="L33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
-        <v>200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>200</v>
-      </c>
       <c r="M33" s="3">
+        <v>200</v>
+      </c>
+      <c r="N33" s="3">
+        <v>200</v>
+      </c>
+      <c r="O33" s="3">
         <v>1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-3600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>1200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>1900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>1100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>1700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>1100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>1700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2856,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>300</v>
+      </c>
+      <c r="F35" s="3">
         <v>500</v>
       </c>
-      <c r="E35" s="3">
-        <v>300</v>
-      </c>
-      <c r="F35" s="3">
-        <v>300</v>
-      </c>
       <c r="G35" s="3">
         <v>300</v>
       </c>
       <c r="H35" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I35" s="3">
         <v>300</v>
       </c>
       <c r="J35" s="3">
+        <v>200</v>
+      </c>
+      <c r="K35" s="3">
+        <v>300</v>
+      </c>
+      <c r="L35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
-        <v>200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>200</v>
-      </c>
       <c r="M35" s="3">
+        <v>200</v>
+      </c>
+      <c r="N35" s="3">
+        <v>200</v>
+      </c>
+      <c r="O35" s="3">
         <v>1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-3600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>1200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>1900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>1100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>1700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>1100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>1700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42551</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3062,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,8 +3093,10 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2930,111 +3104,117 @@
         <v>2000</v>
       </c>
       <c r="E41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F41" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G41" s="3">
         <v>1600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>7200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>5500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>5100</v>
-      </c>
-      <c r="P41" s="3">
-        <v>3900</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>4600</v>
       </c>
       <c r="R41" s="3">
         <v>3900</v>
       </c>
       <c r="S41" s="3">
+        <v>4600</v>
+      </c>
+      <c r="T41" s="3">
+        <v>3900</v>
+      </c>
+      <c r="U41" s="3">
         <v>5700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>5300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>4600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>4400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>5200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>5000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>4900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>5400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E42" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F42" s="3">
         <v>6200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>6900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>7000</v>
-      </c>
-      <c r="G42" s="3">
-        <v>6500</v>
-      </c>
-      <c r="H42" s="3">
-        <v>5900</v>
       </c>
       <c r="I42" s="3">
         <v>6500</v>
       </c>
       <c r="J42" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K42" s="3">
+        <v>6500</v>
+      </c>
+      <c r="L42" s="3">
         <v>5700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>5800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>6300</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>5</v>
@@ -3045,11 +3225,11 @@
       <c r="Q42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
-      </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
@@ -3075,8 +3255,14 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3087,19 +3273,19 @@
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
@@ -3117,10 +3303,10 @@
         <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -3132,28 +3318,34 @@
         <v>0</v>
       </c>
       <c r="U43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V43" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="W43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X43" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z43" s="3">
         <v>100</v>
       </c>
-      <c r="Y43" s="3">
-        <v>300</v>
-      </c>
-      <c r="Z43" s="3">
-        <v>300</v>
-      </c>
       <c r="AA43" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3199,18 +3391,18 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-      <c r="R44" s="3" t="s">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S44" s="3" t="s">
+      <c r="U44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T44" s="3">
-        <v>0</v>
-      </c>
-      <c r="U44" s="3">
-        <v>0</v>
-      </c>
       <c r="V44" s="3">
         <v>0</v>
       </c>
@@ -3226,73 +3418,79 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-      <c r="AA44" s="3" t="s">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>700</v>
+      </c>
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>3000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>3200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>2700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>1100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>900</v>
-      </c>
-      <c r="V45" s="3">
-        <v>800</v>
-      </c>
-      <c r="W45" s="3">
-        <v>700</v>
       </c>
       <c r="X45" s="3">
         <v>800</v>
@@ -3304,164 +3502,182 @@
         <v>800</v>
       </c>
       <c r="AA45" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>800</v>
+      </c>
+      <c r="AC45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F46" s="3">
         <v>8800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>9300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>9300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>8300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>8600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>9100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>9400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>9800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>10200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>10000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>7500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>6500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>5300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>5500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>5000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>7000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>6400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>5700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>5500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>6200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>5900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>6000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>6500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>57200</v>
+      </c>
+      <c r="E47" s="3">
+        <v>56700</v>
+      </c>
+      <c r="F47" s="3">
         <v>56100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>55800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>55300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>56000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>55400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>55000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>54400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>54000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>53400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>53500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>55000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>56100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>56800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>42600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>41400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>40200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>55400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>40000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>38500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>37000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>36700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>35100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>34100</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>32800</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3472,73 +3688,79 @@
         <v>31000</v>
       </c>
       <c r="F48" s="3">
+        <v>30800</v>
+      </c>
+      <c r="G48" s="3">
+        <v>31000</v>
+      </c>
+      <c r="H48" s="3">
         <v>31200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>31300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>31500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>31700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>31900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>32100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>32300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>32500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>32600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>32800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>33000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>33200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>33400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>33600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>33800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>34000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>34200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>34400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>34600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>34700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>34900</v>
       </c>
-      <c r="AA48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3836,14 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3919,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +4002,14 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3786,10 +4026,10 @@
         <v>200</v>
       </c>
       <c r="H52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J52" s="3">
         <v>300</v>
@@ -3798,19 +4038,19 @@
         <v>300</v>
       </c>
       <c r="L52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M52" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N52" s="3">
         <v>400</v>
       </c>
       <c r="O52" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q52" s="3">
         <v>500</v>
@@ -3819,10 +4059,10 @@
         <v>500</v>
       </c>
       <c r="S52" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T52" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="U52" s="3">
         <v>600</v>
@@ -3834,19 +4074,25 @@
         <v>600</v>
       </c>
       <c r="X52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Y52" s="3">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="Z52" s="3">
         <v>700</v>
       </c>
       <c r="AA52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>700</v>
+      </c>
+      <c r="AC52" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4168,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>96500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>96400</v>
+      </c>
+      <c r="F54" s="3">
         <v>95800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>96200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>95900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>95800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>95800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>96000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>96000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>96100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>96200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>96600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>95600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>95900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>95700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>81800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>80300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>81400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>96100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>80300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>78800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>78200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>77800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>77100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>76200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4286,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,85 +4317,93 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>400</v>
+      </c>
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>400</v>
       </c>
-      <c r="T57" s="3">
-        <v>300</v>
-      </c>
-      <c r="U57" s="3">
-        <v>300</v>
-      </c>
       <c r="V57" s="3">
+        <v>300</v>
+      </c>
+      <c r="W57" s="3">
+        <v>300</v>
+      </c>
+      <c r="X57" s="3">
         <v>100</v>
       </c>
-      <c r="W57" s="3">
-        <v>300</v>
-      </c>
-      <c r="X57" s="3">
-        <v>200</v>
-      </c>
       <c r="Y57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Z57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB57" s="3">
         <v>700</v>
       </c>
-      <c r="AA57" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4161,13 +4429,13 @@
         <v>400</v>
       </c>
       <c r="K58" s="3">
-        <v>300</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
+        <v>400</v>
+      </c>
+      <c r="L58" s="3">
+        <v>400</v>
+      </c>
+      <c r="M58" s="3">
+        <v>300</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>5</v>
@@ -4181,11 +4449,11 @@
       <c r="Q58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -4211,31 +4479,37 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="E59" s="3">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="F59" s="3">
         <v>1000</v>
       </c>
       <c r="G59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>700</v>
-      </c>
-      <c r="I59" s="3">
-        <v>700</v>
-      </c>
-      <c r="J59" s="3">
-        <v>800</v>
       </c>
       <c r="K59" s="3">
         <v>700</v>
@@ -4247,158 +4521,170 @@
         <v>700</v>
       </c>
       <c r="N59" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="O59" s="3">
         <v>700</v>
       </c>
       <c r="P59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Q59" s="3">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="R59" s="3">
         <v>600</v>
       </c>
       <c r="S59" s="3">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="T59" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="U59" s="3">
         <v>1000</v>
       </c>
       <c r="V59" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="W59" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="X59" s="3">
         <v>500</v>
       </c>
       <c r="Y59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Z59" s="3">
         <v>500</v>
       </c>
       <c r="AA59" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+      <c r="AB59" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="E60" s="3">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="F60" s="3">
         <v>1800</v>
       </c>
       <c r="G60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I60" s="3">
         <v>1600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>1200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>24100</v>
+      </c>
+      <c r="F61" s="3">
         <v>24200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>24300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>24400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>24500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>24600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>24700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>24800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>24800</v>
-      </c>
-      <c r="L61" s="3">
-        <v>25200</v>
-      </c>
-      <c r="M61" s="3">
-        <v>25200</v>
       </c>
       <c r="N61" s="3">
         <v>25200</v>
@@ -4416,10 +4702,10 @@
         <v>25200</v>
       </c>
       <c r="S61" s="3">
-        <v>25100</v>
+        <v>25200</v>
       </c>
       <c r="T61" s="3">
-        <v>25100</v>
+        <v>25200</v>
       </c>
       <c r="U61" s="3">
         <v>25100</v>
@@ -4437,13 +4723,19 @@
         <v>25100</v>
       </c>
       <c r="Z61" s="3">
+        <v>25100</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>25100</v>
+      </c>
+      <c r="AB61" s="3">
         <v>25300</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4451,10 +4743,10 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>200</v>
@@ -4462,11 +4754,11 @@
       <c r="H62" s="3">
         <v>200</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
+      <c r="I62" s="3">
+        <v>200</v>
+      </c>
+      <c r="J62" s="3">
+        <v>200</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>5</v>
@@ -4477,11 +4769,11 @@
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -4519,8 +4811,14 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4894,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4977,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,25 +5060,31 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>26400</v>
+        <v>27100</v>
       </c>
       <c r="E66" s="3">
         <v>27000</v>
       </c>
       <c r="F66" s="3">
+        <v>26400</v>
+      </c>
+      <c r="G66" s="3">
+        <v>27000</v>
+      </c>
+      <c r="H66" s="3">
         <v>26700</v>
-      </c>
-      <c r="G66" s="3">
-        <v>26500</v>
-      </c>
-      <c r="H66" s="3">
-        <v>26500</v>
       </c>
       <c r="I66" s="3">
         <v>26500</v>
@@ -4777,58 +5093,64 @@
         <v>26500</v>
       </c>
       <c r="K66" s="3">
+        <v>26500</v>
+      </c>
+      <c r="L66" s="3">
+        <v>26500</v>
+      </c>
+      <c r="M66" s="3">
         <v>26400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>26400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>26500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>26500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>26300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>26200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>27200</v>
-      </c>
-      <c r="R66" s="3">
-        <v>26300</v>
-      </c>
-      <c r="S66" s="3">
-        <v>26600</v>
       </c>
       <c r="T66" s="3">
         <v>26300</v>
       </c>
       <c r="U66" s="3">
+        <v>26600</v>
+      </c>
+      <c r="V66" s="3">
+        <v>26300</v>
+      </c>
+      <c r="W66" s="3">
         <v>26500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>25800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>26100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>26000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>26000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>26500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5178,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5257,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5340,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5423,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,8 +5506,14 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5173,76 +5521,82 @@
         <v>55400</v>
       </c>
       <c r="E72" s="3">
+        <v>55400</v>
+      </c>
+      <c r="F72" s="3">
+        <v>55400</v>
+      </c>
+      <c r="G72" s="3">
         <v>55200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>55200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>55300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>55300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>55400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>55400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>55700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>55800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>56000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>55100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>55500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>55400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>40600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>39900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>40700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>55800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>39700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>38900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>38100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>37800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>37100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>35700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5672,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5755,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,8 +5838,14 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5481,76 +5853,82 @@
         <v>69500</v>
       </c>
       <c r="E76" s="3">
-        <v>69300</v>
+        <v>69400</v>
       </c>
       <c r="F76" s="3">
-        <v>69300</v>
+        <v>69500</v>
       </c>
       <c r="G76" s="3">
         <v>69300</v>
       </c>
       <c r="H76" s="3">
+        <v>69300</v>
+      </c>
+      <c r="I76" s="3">
+        <v>69300</v>
+      </c>
+      <c r="J76" s="3">
         <v>69400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>69500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>69500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>69700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>69900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>70100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>69200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>69500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>69500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>54700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>54000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>54800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>69900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>53800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>53000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>52100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>51900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>51100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>49700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6004,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42551</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>300</v>
+      </c>
+      <c r="F81" s="3">
         <v>500</v>
       </c>
-      <c r="E81" s="3">
-        <v>300</v>
-      </c>
-      <c r="F81" s="3">
-        <v>300</v>
-      </c>
       <c r="G81" s="3">
         <v>300</v>
       </c>
       <c r="H81" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I81" s="3">
         <v>300</v>
       </c>
       <c r="J81" s="3">
+        <v>200</v>
+      </c>
+      <c r="K81" s="3">
+        <v>300</v>
+      </c>
+      <c r="L81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
-        <v>200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>200</v>
-      </c>
       <c r="M81" s="3">
+        <v>200</v>
+      </c>
+      <c r="N81" s="3">
+        <v>200</v>
+      </c>
+      <c r="O81" s="3">
         <v>1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-3600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>1200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>1900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>1100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>1700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>1100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>1700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6210,10 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5874,14 +6272,14 @@
         <v>200</v>
       </c>
       <c r="V83" s="3">
+        <v>200</v>
+      </c>
+      <c r="W83" s="3">
+        <v>200</v>
+      </c>
+      <c r="X83" s="3">
         <v>400</v>
       </c>
-      <c r="W83" s="3">
-        <v>200</v>
-      </c>
-      <c r="X83" s="3">
-        <v>200</v>
-      </c>
       <c r="Y83" s="3">
         <v>200</v>
       </c>
@@ -5889,10 +6287,16 @@
         <v>200</v>
       </c>
       <c r="AA83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6372,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6455,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6538,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6621,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6704,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>400</v>
       </c>
-      <c r="F89" s="3">
-        <v>300</v>
-      </c>
-      <c r="G89" s="3">
-        <v>200</v>
-      </c>
       <c r="H89" s="3">
+        <v>300</v>
+      </c>
+      <c r="I89" s="3">
+        <v>200</v>
+      </c>
+      <c r="J89" s="3">
         <v>400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>1600</v>
       </c>
-      <c r="J89" s="3">
-        <v>200</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
+        <v>200</v>
+      </c>
+      <c r="M89" s="3">
         <v>100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-900</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-2300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-1500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6822,10 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6402,20 +6844,20 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -6444,23 +6886,29 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z91" s="3" t="s">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA91" s="3" t="s">
+      <c r="AC91" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6984,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +7067,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="E94" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F94" s="3">
         <v>700</v>
       </c>
       <c r="G94" s="3">
+        <v>100</v>
+      </c>
+      <c r="H94" s="3">
+        <v>700</v>
+      </c>
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-5900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>2000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>1600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>1500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>2300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>1000</v>
-      </c>
-      <c r="R94" s="3">
-        <v>900</v>
-      </c>
-      <c r="S94" s="3">
-        <v>1200</v>
       </c>
       <c r="T94" s="3">
         <v>900</v>
       </c>
       <c r="U94" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V94" s="3">
+        <v>900</v>
+      </c>
+      <c r="W94" s="3">
         <v>700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>1500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>1100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>700</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>800</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>-9400</v>
       </c>
       <c r="AA94" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7185,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6779,25 +7247,31 @@
         <v>-300</v>
       </c>
       <c r="V96" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="W96" s="3">
         <v>-300</v>
       </c>
       <c r="X96" s="3">
-        <v>-300</v>
+        <v>-600</v>
       </c>
       <c r="Y96" s="3">
         <v>-300</v>
       </c>
       <c r="Z96" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-200</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AC96" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7347,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7430,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7513,14 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7039,22 +7531,22 @@
         <v>-400</v>
       </c>
       <c r="F100" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="G100" s="3">
         <v>-400</v>
       </c>
       <c r="H100" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="I100" s="3">
         <v>-400</v>
       </c>
       <c r="J100" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="K100" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="L100" s="3">
         <v>-300</v>
@@ -7069,13 +7561,13 @@
         <v>-300</v>
       </c>
       <c r="P100" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Q100" s="3">
         <v>-300</v>
       </c>
       <c r="R100" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="S100" s="3">
         <v>-300</v>
@@ -7087,25 +7579,31 @@
         <v>-300</v>
       </c>
       <c r="V100" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="W100" s="3">
         <v>-300</v>
       </c>
       <c r="X100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA100" s="3">
         <v>-400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>9000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,81 +7679,93 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>200</v>
+      </c>
+      <c r="G102" s="3">
         <v>100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>600</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-800</v>
       </c>
       <c r="H102" s="3">
         <v>600</v>
       </c>
       <c r="I102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J102" s="3">
+        <v>600</v>
+      </c>
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>300</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>300</v>
+      </c>
+      <c r="N102" s="3">
         <v>-6800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>500</v>
-      </c>
-      <c r="R102" s="3">
-        <v>-1700</v>
       </c>
       <c r="S102" s="3">
         <v>500</v>
       </c>
       <c r="T102" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="U102" s="3">
+        <v>500</v>
+      </c>
+      <c r="V102" s="3">
         <v>700</v>
       </c>
-      <c r="U102" s="3">
-        <v>200</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
+        <v>200</v>
+      </c>
+      <c r="X102" s="3">
         <v>-600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-1800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RAFI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAFI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>RAFI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,128 +665,132 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42551</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="E8" s="3">
         <v>1300</v>
@@ -795,16 +799,16 @@
         <v>1300</v>
       </c>
       <c r="G8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H8" s="3">
         <v>1200</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1100</v>
       </c>
       <c r="I8" s="3">
         <v>1100</v>
       </c>
       <c r="J8" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K8" s="3">
         <v>1000</v>
@@ -828,43 +832,46 @@
         <v>1000</v>
       </c>
       <c r="R8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S8" s="3">
         <v>900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1000</v>
-      </c>
-      <c r="T8" s="3">
-        <v>900</v>
       </c>
       <c r="U8" s="3">
         <v>900</v>
       </c>
       <c r="V8" s="3">
+        <v>900</v>
+      </c>
+      <c r="W8" s="3">
         <v>800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>700</v>
       </c>
-      <c r="AC8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -887,10 +894,10 @@
         <v>400</v>
       </c>
       <c r="J9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L9" s="3">
         <v>400</v>
@@ -899,10 +906,10 @@
         <v>400</v>
       </c>
       <c r="N9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P9" s="3">
         <v>400</v>
@@ -923,36 +930,39 @@
         <v>400</v>
       </c>
       <c r="V9" s="3">
+        <v>400</v>
+      </c>
+      <c r="W9" s="3">
         <v>500</v>
       </c>
-      <c r="W9" s="3">
-        <v>300</v>
-      </c>
       <c r="X9" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y9" s="3">
         <v>600</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>400</v>
       </c>
       <c r="Z9" s="3">
         <v>400</v>
       </c>
       <c r="AA9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AB9" s="3">
-        <v>200</v>
-      </c>
-      <c r="AC9" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E10" s="3">
         <v>900</v>
@@ -961,10 +971,10 @@
         <v>900</v>
       </c>
       <c r="G10" s="3">
+        <v>900</v>
+      </c>
+      <c r="H10" s="3">
         <v>800</v>
-      </c>
-      <c r="H10" s="3">
-        <v>700</v>
       </c>
       <c r="I10" s="3">
         <v>700</v>
@@ -973,7 +983,7 @@
         <v>700</v>
       </c>
       <c r="K10" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L10" s="3">
         <v>600</v>
@@ -982,10 +992,10 @@
         <v>600</v>
       </c>
       <c r="N10" s="3">
+        <v>600</v>
+      </c>
+      <c r="O10" s="3">
         <v>700</v>
-      </c>
-      <c r="O10" s="3">
-        <v>600</v>
       </c>
       <c r="P10" s="3">
         <v>600</v>
@@ -994,31 +1004,31 @@
         <v>600</v>
       </c>
       <c r="R10" s="3">
+        <v>600</v>
+      </c>
+      <c r="S10" s="3">
         <v>500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>600</v>
-      </c>
-      <c r="T10" s="3">
-        <v>500</v>
       </c>
       <c r="U10" s="3">
         <v>500</v>
       </c>
       <c r="V10" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="W10" s="3">
+        <v>300</v>
+      </c>
+      <c r="X10" s="3">
         <v>600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1100</v>
       </c>
-      <c r="Y10" s="3">
-        <v>300</v>
-      </c>
       <c r="Z10" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AA10" s="3">
         <v>500</v>
@@ -1026,11 +1036,14 @@
       <c r="AB10" s="3">
         <v>500</v>
       </c>
-      <c r="AC10" s="3" t="s">
+      <c r="AC10" s="3">
+        <v>500</v>
+      </c>
+      <c r="AD10" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1073,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1143,8 +1157,11 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1243,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1249,8 +1269,8 @@
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1268,16 +1288,16 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>200</v>
+      </c>
+      <c r="R14" s="3">
         <v>1000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2100</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>5</v>
@@ -1285,8 +1305,8 @@
       <c r="U14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1301,16 +1321,19 @@
         <v>0</v>
       </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>-100</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>1400</v>
       </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AD14" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1375,11 +1398,11 @@
         <v>200</v>
       </c>
       <c r="X15" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y15" s="3">
         <v>400</v>
       </c>
-      <c r="Y15" s="3">
-        <v>200</v>
-      </c>
       <c r="Z15" s="3">
         <v>200</v>
       </c>
@@ -1389,11 +1412,14 @@
       <c r="AB15" s="3">
         <v>200</v>
       </c>
-      <c r="AC15" s="3" t="s">
+      <c r="AC15" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD15" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,13 +1446,14 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E17" s="3">
         <v>1000</v>
@@ -1435,81 +1462,84 @@
         <v>1000</v>
       </c>
       <c r="G17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H17" s="3">
         <v>900</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1000</v>
       </c>
       <c r="I17" s="3">
         <v>1000</v>
       </c>
       <c r="J17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>900</v>
-      </c>
-      <c r="T17" s="3">
-        <v>1100</v>
       </c>
       <c r="U17" s="3">
         <v>1100</v>
       </c>
       <c r="V17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W17" s="3">
         <v>1200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E18" s="3">
         <v>300</v>
@@ -1521,73 +1551,76 @@
         <v>300</v>
       </c>
       <c r="H18" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I18" s="3">
         <v>100</v>
       </c>
       <c r="J18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L18" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>100</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>100</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-200</v>
       </c>
       <c r="U18" s="3">
         <v>-200</v>
       </c>
       <c r="V18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W18" s="3">
         <v>-400</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-400</v>
       </c>
-      <c r="Z18" s="3">
-        <v>0</v>
-      </c>
       <c r="AA18" s="3">
         <v>0</v>
       </c>
       <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-1700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,22 +1650,23 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
-        <v>300</v>
-      </c>
       <c r="G20" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="H20" s="3">
         <v>600</v>
@@ -1641,10 +1675,10 @@
         <v>600</v>
       </c>
       <c r="J20" s="3">
+        <v>600</v>
+      </c>
+      <c r="K20" s="3">
         <v>500</v>
-      </c>
-      <c r="K20" s="3">
-        <v>600</v>
       </c>
       <c r="L20" s="3">
         <v>600</v>
@@ -1653,138 +1687,144 @@
         <v>600</v>
       </c>
       <c r="N20" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="O20" s="3">
+        <v>300</v>
+      </c>
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>3400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>1800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>1900</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E21" s="3">
         <v>1100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>900</v>
-      </c>
-      <c r="J21" s="3">
-        <v>800</v>
       </c>
       <c r="K21" s="3">
         <v>800</v>
       </c>
       <c r="L21" s="3">
+        <v>800</v>
+      </c>
+      <c r="M21" s="3">
         <v>900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>600</v>
-      </c>
-      <c r="O21" s="3">
-        <v>900</v>
       </c>
       <c r="P21" s="3">
         <v>900</v>
       </c>
       <c r="Q21" s="3">
+        <v>900</v>
+      </c>
+      <c r="R21" s="3">
         <v>1000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>3500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>2500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>2000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1849,11 +1889,11 @@
         <v>300</v>
       </c>
       <c r="X22" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y22" s="3">
         <v>600</v>
       </c>
-      <c r="Y22" s="3">
-        <v>300</v>
-      </c>
       <c r="Z22" s="3">
         <v>300</v>
       </c>
@@ -1861,96 +1901,102 @@
         <v>300</v>
       </c>
       <c r="AB22" s="3">
-        <v>200</v>
-      </c>
-      <c r="AC22" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD22" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E23" s="3">
         <v>500</v>
       </c>
       <c r="F23" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G23" s="3">
+        <v>300</v>
+      </c>
+      <c r="H23" s="3">
         <v>600</v>
-      </c>
-      <c r="H23" s="3">
-        <v>400</v>
       </c>
       <c r="I23" s="3">
         <v>400</v>
       </c>
       <c r="J23" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K23" s="3">
         <v>300</v>
       </c>
       <c r="L23" s="3">
+        <v>300</v>
+      </c>
+      <c r="M23" s="3">
         <v>400</v>
       </c>
-      <c r="M23" s="3">
-        <v>300</v>
-      </c>
       <c r="N23" s="3">
+        <v>300</v>
+      </c>
+      <c r="O23" s="3">
         <v>100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>400</v>
       </c>
       <c r="P23" s="3">
         <v>400</v>
       </c>
       <c r="Q23" s="3">
+        <v>400</v>
+      </c>
+      <c r="R23" s="3">
         <v>500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1500</v>
       </c>
-      <c r="AB23" s="3">
-        <v>0</v>
-      </c>
       <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1961,79 +2007,82 @@
         <v>100</v>
       </c>
       <c r="F24" s="3">
+        <v>100</v>
+      </c>
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
-        <v>200</v>
-      </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>300</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2200</v>
       </c>
-      <c r="U24" s="3">
-        <v>200</v>
-      </c>
       <c r="V24" s="3">
+        <v>200</v>
+      </c>
+      <c r="W24" s="3">
         <v>-700</v>
-      </c>
-      <c r="W24" s="3">
-        <v>800</v>
       </c>
       <c r="X24" s="3">
         <v>800</v>
       </c>
       <c r="Y24" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z24" s="3">
         <v>100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-200</v>
       </c>
-      <c r="AB24" s="3">
-        <v>200</v>
-      </c>
       <c r="AC24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,26 +2164,29 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E26" s="3">
         <v>400</v>
       </c>
       <c r="F26" s="3">
+        <v>400</v>
+      </c>
+      <c r="G26" s="3">
         <v>600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>400</v>
       </c>
-      <c r="H26" s="3">
-        <v>300</v>
-      </c>
       <c r="I26" s="3">
         <v>300</v>
       </c>
@@ -2145,76 +2197,79 @@
         <v>300</v>
       </c>
       <c r="L26" s="3">
+        <v>300</v>
+      </c>
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="M26" s="3">
-        <v>200</v>
-      </c>
       <c r="N26" s="3">
         <v>200</v>
       </c>
       <c r="O26" s="3">
+        <v>200</v>
+      </c>
+      <c r="P26" s="3">
         <v>1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>600</v>
+      </c>
+      <c r="E27" s="3">
         <v>400</v>
       </c>
-      <c r="E27" s="3">
-        <v>300</v>
-      </c>
       <c r="F27" s="3">
+        <v>300</v>
+      </c>
+      <c r="G27" s="3">
         <v>500</v>
       </c>
-      <c r="G27" s="3">
-        <v>300</v>
-      </c>
       <c r="H27" s="3">
         <v>300</v>
       </c>
@@ -2222,67 +2277,70 @@
         <v>300</v>
       </c>
       <c r="J27" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K27" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L27" s="3">
+        <v>300</v>
+      </c>
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="M27" s="3">
-        <v>200</v>
-      </c>
       <c r="N27" s="3">
         <v>200</v>
       </c>
       <c r="O27" s="3">
+        <v>200</v>
+      </c>
+      <c r="P27" s="3">
         <v>1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2422,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,8 +2508,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,22 +2680,25 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-600</v>
       </c>
       <c r="H32" s="3">
         <v>-600</v>
@@ -2637,10 +2707,10 @@
         <v>-600</v>
       </c>
       <c r="J32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-500</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-600</v>
       </c>
       <c r="L32" s="3">
         <v>-600</v>
@@ -2649,70 +2719,73 @@
         <v>-600</v>
       </c>
       <c r="N32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-1800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-1900</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>600</v>
+      </c>
+      <c r="E33" s="3">
         <v>400</v>
       </c>
-      <c r="E33" s="3">
-        <v>300</v>
-      </c>
       <c r="F33" s="3">
+        <v>300</v>
+      </c>
+      <c r="G33" s="3">
         <v>500</v>
       </c>
-      <c r="G33" s="3">
-        <v>300</v>
-      </c>
       <c r="H33" s="3">
         <v>300</v>
       </c>
@@ -2720,67 +2793,70 @@
         <v>300</v>
       </c>
       <c r="J33" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K33" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L33" s="3">
+        <v>300</v>
+      </c>
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="M33" s="3">
-        <v>200</v>
-      </c>
       <c r="N33" s="3">
         <v>200</v>
       </c>
       <c r="O33" s="3">
+        <v>200</v>
+      </c>
+      <c r="P33" s="3">
         <v>1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,23 +2938,26 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>600</v>
+      </c>
+      <c r="E35" s="3">
         <v>400</v>
       </c>
-      <c r="E35" s="3">
-        <v>300</v>
-      </c>
       <c r="F35" s="3">
+        <v>300</v>
+      </c>
+      <c r="G35" s="3">
         <v>500</v>
       </c>
-      <c r="G35" s="3">
-        <v>300</v>
-      </c>
       <c r="H35" s="3">
         <v>300</v>
       </c>
@@ -2886,155 +2965,161 @@
         <v>300</v>
       </c>
       <c r="J35" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K35" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L35" s="3">
+        <v>300</v>
+      </c>
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="M35" s="3">
-        <v>200</v>
-      </c>
       <c r="N35" s="3">
         <v>200</v>
       </c>
       <c r="O35" s="3">
+        <v>200</v>
+      </c>
+      <c r="P35" s="3">
         <v>1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42551</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,129 +3181,133 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E41" s="3">
         <v>2000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>5000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>5400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E42" s="3">
         <v>4900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>6000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>6200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>6900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>7000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>6500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>5900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>6500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>5700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>5800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>6300</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>5</v>
@@ -3231,8 +3321,8 @@
       <c r="S42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="T42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
@@ -3261,8 +3351,11 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3279,7 +3372,7 @@
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -3288,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
@@ -3309,7 +3402,7 @@
         <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -3324,28 +3417,31 @@
         <v>0</v>
       </c>
       <c r="W43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y43" s="3">
         <v>300</v>
       </c>
       <c r="Z43" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA43" s="3">
         <v>100</v>
       </c>
-      <c r="AA43" s="3">
-        <v>300</v>
-      </c>
       <c r="AB43" s="3">
         <v>300</v>
       </c>
       <c r="AC43" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3397,14 +3493,14 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
+      <c r="T44" s="3">
+        <v>0</v>
       </c>
       <c r="U44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V44" s="3">
-        <v>0</v>
+      <c r="V44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W44" s="3">
         <v>0</v>
@@ -3424,94 +3520,100 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-      <c r="AC44" s="3" t="s">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E45" s="3">
         <v>1400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
-      </c>
-      <c r="I45" s="3">
-        <v>700</v>
       </c>
       <c r="J45" s="3">
         <v>700</v>
       </c>
       <c r="K45" s="3">
+        <v>700</v>
+      </c>
+      <c r="L45" s="3">
         <v>1400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>700</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>800</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3519,248 +3621,257 @@
         <v>8500</v>
       </c>
       <c r="E46" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F46" s="3">
         <v>8600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8800</v>
-      </c>
-      <c r="G46" s="3">
-        <v>9300</v>
       </c>
       <c r="H46" s="3">
         <v>9300</v>
       </c>
       <c r="I46" s="3">
+        <v>9300</v>
+      </c>
+      <c r="J46" s="3">
         <v>8300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>6200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>5900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>6000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>6500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>57700</v>
+      </c>
+      <c r="E47" s="3">
         <v>57200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>56700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>56100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>55800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>55300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>56000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>55400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>55000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>54400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>54000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>53400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>53500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>55000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>56100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>56800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>42600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>41400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>40200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>55400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>40000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>38500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>37000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>36700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>35100</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>34100</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>32800</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E48" s="3">
         <v>30800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>31000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>30800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>31000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>31200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>31300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>31500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>31700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>31900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>32100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>32300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>32500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>32600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>32800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>33000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>33200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>33400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>33600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>33800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>34000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>34200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>34400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>34600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>34700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>34900</v>
       </c>
-      <c r="AC48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3842,8 +3953,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,8 +4125,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4032,7 +4152,7 @@
         <v>200</v>
       </c>
       <c r="J52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K52" s="3">
         <v>300</v>
@@ -4044,16 +4164,16 @@
         <v>300</v>
       </c>
       <c r="N52" s="3">
+        <v>300</v>
+      </c>
+      <c r="O52" s="3">
         <v>400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>400</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>500</v>
       </c>
       <c r="R52" s="3">
         <v>500</v>
@@ -4065,7 +4185,7 @@
         <v>500</v>
       </c>
       <c r="U52" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="V52" s="3">
         <v>600</v>
@@ -4080,19 +4200,22 @@
         <v>600</v>
       </c>
       <c r="Z52" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA52" s="3">
         <v>700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>700</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4297,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>96900</v>
+      </c>
+      <c r="E54" s="3">
         <v>96500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>96400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>95800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>96200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>95900</v>
-      </c>
-      <c r="I54" s="3">
-        <v>95800</v>
       </c>
       <c r="J54" s="3">
         <v>95800</v>
       </c>
       <c r="K54" s="3">
-        <v>96000</v>
+        <v>95800</v>
       </c>
       <c r="L54" s="3">
         <v>96000</v>
       </c>
       <c r="M54" s="3">
+        <v>96000</v>
+      </c>
+      <c r="N54" s="3">
         <v>96100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>96200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>96600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>95600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>95900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>95700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>81800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>80300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>81400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>96100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>80300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>78800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>78200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>77800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>77100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>76200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,91 +4449,95 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
-      </c>
-      <c r="E57" s="3">
-        <v>400</v>
       </c>
       <c r="F57" s="3">
         <v>400</v>
       </c>
       <c r="G57" s="3">
+        <v>400</v>
+      </c>
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
-      </c>
-      <c r="I57" s="3">
-        <v>400</v>
       </c>
       <c r="J57" s="3">
         <v>400</v>
       </c>
       <c r="K57" s="3">
+        <v>400</v>
+      </c>
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
-      </c>
-      <c r="M57" s="3">
-        <v>400</v>
       </c>
       <c r="N57" s="3">
         <v>400</v>
       </c>
       <c r="O57" s="3">
+        <v>400</v>
+      </c>
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>400</v>
       </c>
       <c r="R57" s="3">
         <v>400</v>
       </c>
       <c r="S57" s="3">
+        <v>400</v>
+      </c>
+      <c r="T57" s="3">
         <v>500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>400</v>
       </c>
-      <c r="V57" s="3">
-        <v>300</v>
-      </c>
       <c r="W57" s="3">
         <v>300</v>
       </c>
       <c r="X57" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y57" s="3">
         <v>100</v>
       </c>
-      <c r="Y57" s="3">
-        <v>300</v>
-      </c>
       <c r="Z57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AA57" s="3">
         <v>200</v>
       </c>
       <c r="AB57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC57" s="3">
         <v>700</v>
       </c>
-      <c r="AC57" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4435,10 +4569,10 @@
         <v>400</v>
       </c>
       <c r="M58" s="3">
-        <v>300</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
+        <v>400</v>
+      </c>
+      <c r="N58" s="3">
+        <v>300</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>5</v>
@@ -4455,8 +4589,8 @@
       <c r="S58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -4485,46 +4619,49 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
-      </c>
-      <c r="J59" s="3">
-        <v>700</v>
       </c>
       <c r="K59" s="3">
         <v>700</v>
       </c>
       <c r="L59" s="3">
+        <v>700</v>
+      </c>
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>800</v>
-      </c>
-      <c r="O59" s="3">
-        <v>700</v>
       </c>
       <c r="P59" s="3">
         <v>700</v>
@@ -4533,31 +4670,31 @@
         <v>700</v>
       </c>
       <c r="R59" s="3">
+        <v>700</v>
+      </c>
+      <c r="S59" s="3">
         <v>600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>600</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>500</v>
       </c>
       <c r="AA59" s="3">
         <v>500</v>
@@ -4566,128 +4703,134 @@
         <v>500</v>
       </c>
       <c r="AC59" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E60" s="3">
         <v>2500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1500</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1700</v>
       </c>
       <c r="L60" s="3">
         <v>1700</v>
       </c>
       <c r="M60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N60" s="3">
         <v>1500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1100</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1300</v>
       </c>
       <c r="P60" s="3">
         <v>1300</v>
       </c>
       <c r="Q60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R60" s="3">
         <v>1100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E61" s="3">
         <v>24000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>24100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>24200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>24300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>24400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>24500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>24600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>24700</v>
-      </c>
-      <c r="L61" s="3">
-        <v>24800</v>
       </c>
       <c r="M61" s="3">
         <v>24800</v>
       </c>
       <c r="N61" s="3">
-        <v>25200</v>
+        <v>24800</v>
       </c>
       <c r="O61" s="3">
         <v>25200</v>
@@ -4708,7 +4851,7 @@
         <v>25200</v>
       </c>
       <c r="U61" s="3">
-        <v>25100</v>
+        <v>25200</v>
       </c>
       <c r="V61" s="3">
         <v>25100</v>
@@ -4729,27 +4872,30 @@
         <v>25100</v>
       </c>
       <c r="AB61" s="3">
+        <v>25100</v>
+      </c>
+      <c r="AC61" s="3">
         <v>25300</v>
       </c>
-      <c r="AC61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
       <c r="G62" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>200</v>
@@ -4760,8 +4906,8 @@
       <c r="J62" s="3">
         <v>200</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
+      <c r="K62" s="3">
+        <v>200</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>5</v>
@@ -4775,8 +4921,8 @@
       <c r="O62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -4817,8 +4963,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,28 +5221,31 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E66" s="3">
         <v>27100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>27000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>26400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>27000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>26700</v>
-      </c>
-      <c r="I66" s="3">
-        <v>26500</v>
       </c>
       <c r="J66" s="3">
         <v>26500</v>
@@ -5099,58 +5257,61 @@
         <v>26500</v>
       </c>
       <c r="M66" s="3">
-        <v>26400</v>
+        <v>26500</v>
       </c>
       <c r="N66" s="3">
         <v>26400</v>
       </c>
       <c r="O66" s="3">
-        <v>26500</v>
+        <v>26400</v>
       </c>
       <c r="P66" s="3">
         <v>26500</v>
       </c>
       <c r="Q66" s="3">
+        <v>26500</v>
+      </c>
+      <c r="R66" s="3">
         <v>26300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>26200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>27200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>26300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>26600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>26300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>26500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>25800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>26100</v>
-      </c>
-      <c r="Z66" s="3">
-        <v>26000</v>
       </c>
       <c r="AA66" s="3">
         <v>26000</v>
       </c>
       <c r="AB66" s="3">
+        <v>26000</v>
+      </c>
+      <c r="AC66" s="3">
         <v>26500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5597,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,13 +5683,16 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>55400</v>
+        <v>55600</v>
       </c>
       <c r="E72" s="3">
         <v>55400</v>
@@ -5527,76 +5701,79 @@
         <v>55400</v>
       </c>
       <c r="G72" s="3">
-        <v>55200</v>
+        <v>55400</v>
       </c>
       <c r="H72" s="3">
         <v>55200</v>
       </c>
       <c r="I72" s="3">
-        <v>55300</v>
+        <v>55200</v>
       </c>
       <c r="J72" s="3">
         <v>55300</v>
       </c>
       <c r="K72" s="3">
-        <v>55400</v>
+        <v>55300</v>
       </c>
       <c r="L72" s="3">
         <v>55400</v>
       </c>
       <c r="M72" s="3">
+        <v>55400</v>
+      </c>
+      <c r="N72" s="3">
         <v>55700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>55800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>56000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>55100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>55500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>55400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>40600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>39900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>40700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>55800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>39700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>38900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>38100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>37800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>37100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>35700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,22 +6027,25 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>69700</v>
+      </c>
+      <c r="E76" s="3">
         <v>69500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>69400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>69500</v>
-      </c>
-      <c r="G76" s="3">
-        <v>69300</v>
       </c>
       <c r="H76" s="3">
         <v>69300</v>
@@ -5868,67 +6054,70 @@
         <v>69300</v>
       </c>
       <c r="J76" s="3">
+        <v>69300</v>
+      </c>
+      <c r="K76" s="3">
         <v>69400</v>
-      </c>
-      <c r="K76" s="3">
-        <v>69500</v>
       </c>
       <c r="L76" s="3">
         <v>69500</v>
       </c>
       <c r="M76" s="3">
+        <v>69500</v>
+      </c>
+      <c r="N76" s="3">
         <v>69700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>69900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>70100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>69200</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>69500</v>
       </c>
       <c r="R76" s="3">
         <v>69500</v>
       </c>
       <c r="S76" s="3">
+        <v>69500</v>
+      </c>
+      <c r="T76" s="3">
         <v>54700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>54000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>54800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>69900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>53800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>53000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>52100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>51900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>51100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>49700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,111 +6199,117 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42551</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>600</v>
+      </c>
+      <c r="E81" s="3">
         <v>400</v>
       </c>
-      <c r="E81" s="3">
-        <v>300</v>
-      </c>
       <c r="F81" s="3">
+        <v>300</v>
+      </c>
+      <c r="G81" s="3">
         <v>500</v>
       </c>
-      <c r="G81" s="3">
-        <v>300</v>
-      </c>
       <c r="H81" s="3">
         <v>300</v>
       </c>
@@ -6122,67 +6317,70 @@
         <v>300</v>
       </c>
       <c r="J81" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K81" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L81" s="3">
+        <v>300</v>
+      </c>
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="M81" s="3">
-        <v>200</v>
-      </c>
       <c r="N81" s="3">
         <v>200</v>
       </c>
       <c r="O81" s="3">
+        <v>200</v>
+      </c>
+      <c r="P81" s="3">
         <v>1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6410,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6278,11 +6477,11 @@
         <v>200</v>
       </c>
       <c r="X83" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y83" s="3">
         <v>400</v>
       </c>
-      <c r="Y83" s="3">
-        <v>200</v>
-      </c>
       <c r="Z83" s="3">
         <v>200</v>
       </c>
@@ -6293,10 +6492,13 @@
         <v>200</v>
       </c>
       <c r="AC83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +6924,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
-        <v>200</v>
-      </c>
       <c r="F89" s="3">
+        <v>200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>400</v>
       </c>
-      <c r="H89" s="3">
-        <v>300</v>
-      </c>
       <c r="I89" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J89" s="3">
+        <v>200</v>
+      </c>
+      <c r="K89" s="3">
         <v>400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1600</v>
       </c>
-      <c r="L89" s="3">
-        <v>200</v>
-      </c>
       <c r="M89" s="3">
+        <v>200</v>
+      </c>
+      <c r="N89" s="3">
         <v>100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-900</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-2700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-1400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,8 +7044,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6850,8 +7071,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>5</v>
@@ -6859,8 +7080,8 @@
       <c r="M91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -6892,23 +7113,26 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-      <c r="Y91" s="3" t="s">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
-      </c>
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-      <c r="AB91" s="3" t="s">
-        <v>5</v>
+      <c r="AB91" s="3">
+        <v>0</v>
       </c>
       <c r="AC91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,91 +7300,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>500</v>
+      </c>
+      <c r="E94" s="3">
         <v>1000</v>
       </c>
-      <c r="E94" s="3">
-        <v>200</v>
-      </c>
       <c r="F94" s="3">
+        <v>200</v>
+      </c>
+      <c r="G94" s="3">
         <v>700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>2000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>2300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>1200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>1500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>1100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-9400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7420,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7253,10 +7487,10 @@
         <v>-300</v>
       </c>
       <c r="X96" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-600</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-300</v>
       </c>
       <c r="Z96" s="3">
         <v>-300</v>
@@ -7265,13 +7499,16 @@
         <v>-300</v>
       </c>
       <c r="AB96" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="AC96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,8 +7762,11 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7537,10 +7783,10 @@
         <v>-400</v>
       </c>
       <c r="H100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I100" s="3">
         <v>-500</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-400</v>
       </c>
       <c r="J100" s="3">
         <v>-400</v>
@@ -7549,7 +7795,7 @@
         <v>-400</v>
       </c>
       <c r="L100" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="M100" s="3">
         <v>-300</v>
@@ -7567,10 +7813,10 @@
         <v>-300</v>
       </c>
       <c r="R100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S100" s="3">
         <v>-200</v>
-      </c>
-      <c r="S100" s="3">
-        <v>-300</v>
       </c>
       <c r="T100" s="3">
         <v>-300</v>
@@ -7585,25 +7831,28 @@
         <v>-300</v>
       </c>
       <c r="X100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-600</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>-300</v>
       </c>
       <c r="Z100" s="3">
         <v>-300</v>
       </c>
       <c r="AA100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AB100" s="3">
         <v>-400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>9000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,87 +7934,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>200</v>
+      </c>
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>300</v>
+      </c>
+      <c r="O102" s="3">
         <v>-6800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>700</v>
       </c>
-      <c r="W102" s="3">
-        <v>200</v>
-      </c>
       <c r="X102" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-600</v>
-      </c>
-      <c r="Y102" s="3">
-        <v>100</v>
       </c>
       <c r="Z102" s="3">
         <v>100</v>
       </c>
       <c r="AA102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1800</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RAFI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAFI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>RAFI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,135 +665,139 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42551</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E8" s="3">
         <v>1400</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1300</v>
       </c>
       <c r="F8" s="3">
         <v>1300</v>
@@ -802,16 +806,16 @@
         <v>1300</v>
       </c>
       <c r="H8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I8" s="3">
         <v>1200</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1100</v>
       </c>
       <c r="J8" s="3">
         <v>1100</v>
       </c>
       <c r="K8" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="L8" s="3">
         <v>1000</v>
@@ -835,43 +839,46 @@
         <v>1000</v>
       </c>
       <c r="S8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T8" s="3">
         <v>900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1000</v>
-      </c>
-      <c r="U8" s="3">
-        <v>900</v>
       </c>
       <c r="V8" s="3">
         <v>900</v>
       </c>
       <c r="W8" s="3">
+        <v>900</v>
+      </c>
+      <c r="X8" s="3">
         <v>800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>700</v>
       </c>
-      <c r="AD8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -897,10 +904,10 @@
         <v>400</v>
       </c>
       <c r="K9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M9" s="3">
         <v>400</v>
@@ -909,10 +916,10 @@
         <v>400</v>
       </c>
       <c r="O9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q9" s="3">
         <v>400</v>
@@ -933,39 +940,42 @@
         <v>400</v>
       </c>
       <c r="W9" s="3">
+        <v>400</v>
+      </c>
+      <c r="X9" s="3">
         <v>500</v>
       </c>
-      <c r="X9" s="3">
-        <v>300</v>
-      </c>
       <c r="Y9" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z9" s="3">
         <v>600</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>400</v>
       </c>
       <c r="AA9" s="3">
         <v>400</v>
       </c>
       <c r="AB9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AC9" s="3">
-        <v>200</v>
-      </c>
-      <c r="AD9" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>900</v>
+      </c>
+      <c r="E10" s="3">
         <v>1000</v>
-      </c>
-      <c r="E10" s="3">
-        <v>900</v>
       </c>
       <c r="F10" s="3">
         <v>900</v>
@@ -974,10 +984,10 @@
         <v>900</v>
       </c>
       <c r="H10" s="3">
+        <v>900</v>
+      </c>
+      <c r="I10" s="3">
         <v>800</v>
-      </c>
-      <c r="I10" s="3">
-        <v>700</v>
       </c>
       <c r="J10" s="3">
         <v>700</v>
@@ -986,7 +996,7 @@
         <v>700</v>
       </c>
       <c r="L10" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M10" s="3">
         <v>600</v>
@@ -995,10 +1005,10 @@
         <v>600</v>
       </c>
       <c r="O10" s="3">
+        <v>600</v>
+      </c>
+      <c r="P10" s="3">
         <v>700</v>
-      </c>
-      <c r="P10" s="3">
-        <v>600</v>
       </c>
       <c r="Q10" s="3">
         <v>600</v>
@@ -1007,31 +1017,31 @@
         <v>600</v>
       </c>
       <c r="S10" s="3">
+        <v>600</v>
+      </c>
+      <c r="T10" s="3">
         <v>500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>600</v>
-      </c>
-      <c r="U10" s="3">
-        <v>500</v>
       </c>
       <c r="V10" s="3">
         <v>500</v>
       </c>
       <c r="W10" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="X10" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y10" s="3">
         <v>600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1100</v>
       </c>
-      <c r="Z10" s="3">
-        <v>300</v>
-      </c>
       <c r="AA10" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AB10" s="3">
         <v>500</v>
@@ -1039,11 +1049,14 @@
       <c r="AC10" s="3">
         <v>500</v>
       </c>
-      <c r="AD10" s="3" t="s">
+      <c r="AD10" s="3">
+        <v>500</v>
+      </c>
+      <c r="AE10" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1074,8 +1087,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1160,8 +1174,11 @@
       <c r="AD12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1246,8 +1263,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1272,8 +1292,8 @@
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1291,16 +1311,16 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>200</v>
+      </c>
+      <c r="S14" s="3">
         <v>1000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2100</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>5</v>
@@ -1308,8 +1328,8 @@
       <c r="V14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1324,16 +1344,19 @@
         <v>0</v>
       </c>
       <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>-100</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>1400</v>
       </c>
-      <c r="AD14" s="3" t="s">
+      <c r="AE14" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1401,11 +1424,11 @@
         <v>200</v>
       </c>
       <c r="Y15" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z15" s="3">
         <v>400</v>
       </c>
-      <c r="Z15" s="3">
-        <v>200</v>
-      </c>
       <c r="AA15" s="3">
         <v>200</v>
       </c>
@@ -1415,11 +1438,14 @@
       <c r="AC15" s="3">
         <v>200</v>
       </c>
-      <c r="AD15" s="3" t="s">
+      <c r="AD15" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE15" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1447,8 +1473,9 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1456,7 +1483,7 @@
         <v>900</v>
       </c>
       <c r="E17" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F17" s="3">
         <v>1000</v>
@@ -1465,85 +1492,88 @@
         <v>1000</v>
       </c>
       <c r="H17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I17" s="3">
         <v>900</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1000</v>
       </c>
       <c r="J17" s="3">
         <v>1000</v>
       </c>
       <c r="K17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>900</v>
-      </c>
-      <c r="U17" s="3">
-        <v>1100</v>
       </c>
       <c r="V17" s="3">
         <v>1100</v>
       </c>
       <c r="W17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X17" s="3">
         <v>1200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2400</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>400</v>
+      </c>
+      <c r="E18" s="3">
         <v>500</v>
       </c>
-      <c r="E18" s="3">
-        <v>300</v>
-      </c>
       <c r="F18" s="3">
         <v>300</v>
       </c>
@@ -1554,73 +1584,76 @@
         <v>300</v>
       </c>
       <c r="I18" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J18" s="3">
         <v>100</v>
       </c>
       <c r="K18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M18" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>100</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-200</v>
       </c>
       <c r="V18" s="3">
         <v>-200</v>
       </c>
       <c r="W18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X18" s="3">
         <v>-400</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
       <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-400</v>
       </c>
-      <c r="AA18" s="3">
-        <v>0</v>
-      </c>
       <c r="AB18" s="3">
         <v>0</v>
       </c>
       <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="3">
         <v>-1700</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1651,25 +1684,26 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
-        <v>300</v>
-      </c>
       <c r="H20" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I20" s="3">
         <v>600</v>
@@ -1678,10 +1712,10 @@
         <v>600</v>
       </c>
       <c r="K20" s="3">
+        <v>600</v>
+      </c>
+      <c r="L20" s="3">
         <v>500</v>
-      </c>
-      <c r="L20" s="3">
-        <v>600</v>
       </c>
       <c r="M20" s="3">
         <v>600</v>
@@ -1690,141 +1724,147 @@
         <v>600</v>
       </c>
       <c r="O20" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="P20" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q20" s="3">
         <v>700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>3400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>1300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>2300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>1800</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>1900</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E21" s="3">
         <v>1300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>900</v>
-      </c>
-      <c r="K21" s="3">
-        <v>800</v>
       </c>
       <c r="L21" s="3">
         <v>800</v>
       </c>
       <c r="M21" s="3">
+        <v>800</v>
+      </c>
+      <c r="N21" s="3">
         <v>900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>600</v>
-      </c>
-      <c r="P21" s="3">
-        <v>900</v>
       </c>
       <c r="Q21" s="3">
         <v>900</v>
       </c>
       <c r="R21" s="3">
+        <v>900</v>
+      </c>
+      <c r="S21" s="3">
         <v>1000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>3500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>2500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>2000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>400</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1892,11 +1932,11 @@
         <v>300</v>
       </c>
       <c r="Y22" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z22" s="3">
         <v>600</v>
       </c>
-      <c r="Z22" s="3">
-        <v>300</v>
-      </c>
       <c r="AA22" s="3">
         <v>300</v>
       </c>
@@ -1904,104 +1944,110 @@
         <v>300</v>
       </c>
       <c r="AC22" s="3">
-        <v>200</v>
-      </c>
-      <c r="AD22" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE22" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>900</v>
+      </c>
+      <c r="E23" s="3">
         <v>800</v>
-      </c>
-      <c r="E23" s="3">
-        <v>500</v>
       </c>
       <c r="F23" s="3">
         <v>500</v>
       </c>
       <c r="G23" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H23" s="3">
+        <v>300</v>
+      </c>
+      <c r="I23" s="3">
         <v>600</v>
-      </c>
-      <c r="I23" s="3">
-        <v>400</v>
       </c>
       <c r="J23" s="3">
         <v>400</v>
       </c>
       <c r="K23" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L23" s="3">
         <v>300</v>
       </c>
       <c r="M23" s="3">
+        <v>300</v>
+      </c>
+      <c r="N23" s="3">
         <v>400</v>
       </c>
-      <c r="N23" s="3">
-        <v>300</v>
-      </c>
       <c r="O23" s="3">
+        <v>300</v>
+      </c>
+      <c r="P23" s="3">
         <v>100</v>
-      </c>
-      <c r="P23" s="3">
-        <v>400</v>
       </c>
       <c r="Q23" s="3">
         <v>400</v>
       </c>
       <c r="R23" s="3">
+        <v>400</v>
+      </c>
+      <c r="S23" s="3">
         <v>500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>2000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1500</v>
       </c>
-      <c r="AC23" s="3">
-        <v>0</v>
-      </c>
       <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
@@ -2010,79 +2056,82 @@
         <v>100</v>
       </c>
       <c r="G24" s="3">
+        <v>100</v>
+      </c>
+      <c r="H24" s="3">
         <v>-400</v>
       </c>
-      <c r="H24" s="3">
-        <v>200</v>
-      </c>
       <c r="I24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J24" s="3">
         <v>100</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>300</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2200</v>
       </c>
-      <c r="V24" s="3">
-        <v>200</v>
-      </c>
       <c r="W24" s="3">
+        <v>200</v>
+      </c>
+      <c r="X24" s="3">
         <v>-700</v>
-      </c>
-      <c r="X24" s="3">
-        <v>800</v>
       </c>
       <c r="Y24" s="3">
         <v>800</v>
       </c>
       <c r="Z24" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA24" s="3">
         <v>100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-200</v>
       </c>
-      <c r="AC24" s="3">
-        <v>200</v>
-      </c>
       <c r="AD24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2167,8 +2216,11 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2176,20 +2228,20 @@
         <v>700</v>
       </c>
       <c r="E26" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F26" s="3">
         <v>400</v>
       </c>
       <c r="G26" s="3">
+        <v>400</v>
+      </c>
+      <c r="H26" s="3">
         <v>600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>400</v>
       </c>
-      <c r="I26" s="3">
-        <v>300</v>
-      </c>
       <c r="J26" s="3">
         <v>300</v>
       </c>
@@ -2200,61 +2252,64 @@
         <v>300</v>
       </c>
       <c r="M26" s="3">
+        <v>300</v>
+      </c>
+      <c r="N26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3">
-        <v>200</v>
-      </c>
       <c r="O26" s="3">
         <v>200</v>
       </c>
       <c r="P26" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q26" s="3">
         <v>1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>1700</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2262,17 +2317,17 @@
         <v>600</v>
       </c>
       <c r="E27" s="3">
+        <v>600</v>
+      </c>
+      <c r="F27" s="3">
         <v>400</v>
       </c>
-      <c r="F27" s="3">
-        <v>300</v>
-      </c>
       <c r="G27" s="3">
+        <v>300</v>
+      </c>
+      <c r="H27" s="3">
         <v>500</v>
       </c>
-      <c r="H27" s="3">
-        <v>300</v>
-      </c>
       <c r="I27" s="3">
         <v>300</v>
       </c>
@@ -2280,67 +2335,70 @@
         <v>300</v>
       </c>
       <c r="K27" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L27" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M27" s="3">
+        <v>300</v>
+      </c>
+      <c r="N27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3">
-        <v>200</v>
-      </c>
       <c r="O27" s="3">
         <v>200</v>
       </c>
       <c r="P27" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q27" s="3">
         <v>1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1700</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>100</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2425,8 +2483,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2511,8 +2572,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2597,8 +2661,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2683,25 +2750,28 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-600</v>
       </c>
       <c r="I32" s="3">
         <v>-600</v>
@@ -2710,10 +2780,10 @@
         <v>-600</v>
       </c>
       <c r="K32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L32" s="3">
         <v>-500</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-600</v>
       </c>
       <c r="M32" s="3">
         <v>-600</v>
@@ -2722,55 +2792,58 @@
         <v>-600</v>
       </c>
       <c r="O32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-2300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-1800</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-1900</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2778,17 +2851,17 @@
         <v>600</v>
       </c>
       <c r="E33" s="3">
+        <v>600</v>
+      </c>
+      <c r="F33" s="3">
         <v>400</v>
       </c>
-      <c r="F33" s="3">
-        <v>300</v>
-      </c>
       <c r="G33" s="3">
+        <v>300</v>
+      </c>
+      <c r="H33" s="3">
         <v>500</v>
       </c>
-      <c r="H33" s="3">
-        <v>300</v>
-      </c>
       <c r="I33" s="3">
         <v>300</v>
       </c>
@@ -2796,67 +2869,70 @@
         <v>300</v>
       </c>
       <c r="K33" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L33" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M33" s="3">
+        <v>300</v>
+      </c>
+      <c r="N33" s="3">
         <v>100</v>
       </c>
-      <c r="N33" s="3">
-        <v>200</v>
-      </c>
       <c r="O33" s="3">
         <v>200</v>
       </c>
       <c r="P33" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q33" s="3">
         <v>1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>100</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,8 +3017,11 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2950,17 +3029,17 @@
         <v>600</v>
       </c>
       <c r="E35" s="3">
+        <v>600</v>
+      </c>
+      <c r="F35" s="3">
         <v>400</v>
       </c>
-      <c r="F35" s="3">
-        <v>300</v>
-      </c>
       <c r="G35" s="3">
+        <v>300</v>
+      </c>
+      <c r="H35" s="3">
         <v>500</v>
       </c>
-      <c r="H35" s="3">
-        <v>300</v>
-      </c>
       <c r="I35" s="3">
         <v>300</v>
       </c>
@@ -2968,158 +3047,164 @@
         <v>300</v>
       </c>
       <c r="K35" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L35" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M35" s="3">
+        <v>300</v>
+      </c>
+      <c r="N35" s="3">
         <v>100</v>
       </c>
-      <c r="N35" s="3">
-        <v>200</v>
-      </c>
       <c r="O35" s="3">
         <v>200</v>
       </c>
       <c r="P35" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q35" s="3">
         <v>1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>100</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42551</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3235,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3182,8 +3268,9 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3191,126 +3278,129 @@
         <v>2900</v>
       </c>
       <c r="E41" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F41" s="3">
         <v>2000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>5200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>5000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>4900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>5400</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E42" s="3">
         <v>4400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>4900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>6000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>6200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>6900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>7000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>6500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>5900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>6500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>5700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>5800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>6300</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>5</v>
@@ -3324,8 +3414,8 @@
       <c r="T42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
+      <c r="U42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V42" s="3">
         <v>0</v>
@@ -3354,8 +3444,11 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3375,7 +3468,7 @@
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -3384,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
@@ -3405,7 +3498,7 @@
         <v>100</v>
       </c>
       <c r="S43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
@@ -3420,28 +3513,31 @@
         <v>0</v>
       </c>
       <c r="X43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z43" s="3">
         <v>300</v>
       </c>
       <c r="AA43" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB43" s="3">
         <v>100</v>
       </c>
-      <c r="AB43" s="3">
-        <v>300</v>
-      </c>
       <c r="AC43" s="3">
         <v>300</v>
       </c>
       <c r="AD43" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3496,14 +3592,14 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>5</v>
+      <c r="U44" s="3">
+        <v>0</v>
       </c>
       <c r="V44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W44" s="3">
-        <v>0</v>
+      <c r="W44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X44" s="3">
         <v>0</v>
@@ -3523,355 +3619,370 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-      <c r="AD44" s="3" t="s">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>900</v>
+      </c>
+      <c r="E45" s="3">
         <v>1100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>600</v>
-      </c>
-      <c r="J45" s="3">
-        <v>700</v>
       </c>
       <c r="K45" s="3">
         <v>700</v>
       </c>
       <c r="L45" s="3">
+        <v>700</v>
+      </c>
+      <c r="M45" s="3">
         <v>1400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>700</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>800</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8500</v>
+        <v>7600</v>
       </c>
       <c r="E46" s="3">
         <v>8500</v>
       </c>
       <c r="F46" s="3">
+        <v>8500</v>
+      </c>
+      <c r="G46" s="3">
         <v>8600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8800</v>
-      </c>
-      <c r="H46" s="3">
-        <v>9300</v>
       </c>
       <c r="I46" s="3">
         <v>9300</v>
       </c>
       <c r="J46" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K46" s="3">
         <v>8300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>7000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>6400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>6200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>5900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>6000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>6500</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E47" s="3">
         <v>57700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>57200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>56700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>56100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>55800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>55300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>56000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>55400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>55000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>54400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>54000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>53400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>53500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>55000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>56100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>56800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>42600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>41400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>40200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>55400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>40000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>38500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>37000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>36700</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>35100</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>34100</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>32800</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E48" s="3">
         <v>30500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>30800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>31000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>30800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>31000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>31200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>31300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>31500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>31700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>31900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>32100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>32300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>32500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>32600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>32800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>33000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>33200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>33400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>33600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>33800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>34000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>34200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>34400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>34600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>34700</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>34900</v>
       </c>
-      <c r="AD48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3956,8 +4067,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4042,8 +4156,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4128,8 +4245,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4155,7 +4275,7 @@
         <v>200</v>
       </c>
       <c r="K52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L52" s="3">
         <v>300</v>
@@ -4167,16 +4287,16 @@
         <v>300</v>
       </c>
       <c r="O52" s="3">
+        <v>300</v>
+      </c>
+      <c r="P52" s="3">
         <v>400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>400</v>
-      </c>
-      <c r="R52" s="3">
-        <v>500</v>
       </c>
       <c r="S52" s="3">
         <v>500</v>
@@ -4188,7 +4308,7 @@
         <v>500</v>
       </c>
       <c r="V52" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="W52" s="3">
         <v>600</v>
@@ -4203,19 +4323,22 @@
         <v>600</v>
       </c>
       <c r="AA52" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB52" s="3">
         <v>700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1200</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>700</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4300,94 +4423,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>92900</v>
+      </c>
+      <c r="E54" s="3">
         <v>96900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>96500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>96400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>95800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>96200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>95900</v>
-      </c>
-      <c r="J54" s="3">
-        <v>95800</v>
       </c>
       <c r="K54" s="3">
         <v>95800</v>
       </c>
       <c r="L54" s="3">
-        <v>96000</v>
+        <v>95800</v>
       </c>
       <c r="M54" s="3">
         <v>96000</v>
       </c>
       <c r="N54" s="3">
+        <v>96000</v>
+      </c>
+      <c r="O54" s="3">
         <v>96100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>96200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>96600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>95600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>95900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>95700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>81800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>80300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>81400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>96100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>80300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>78800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>78200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>77800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>77100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>76200</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4418,8 +4547,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4450,99 +4580,103 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
-      </c>
-      <c r="F57" s="3">
-        <v>400</v>
       </c>
       <c r="G57" s="3">
         <v>400</v>
       </c>
       <c r="H57" s="3">
+        <v>400</v>
+      </c>
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
-      </c>
-      <c r="J57" s="3">
-        <v>400</v>
       </c>
       <c r="K57" s="3">
         <v>400</v>
       </c>
       <c r="L57" s="3">
+        <v>400</v>
+      </c>
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
-      </c>
-      <c r="N57" s="3">
-        <v>400</v>
       </c>
       <c r="O57" s="3">
         <v>400</v>
       </c>
       <c r="P57" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q57" s="3">
         <v>600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>500</v>
-      </c>
-      <c r="R57" s="3">
-        <v>400</v>
       </c>
       <c r="S57" s="3">
         <v>400</v>
       </c>
       <c r="T57" s="3">
+        <v>400</v>
+      </c>
+      <c r="U57" s="3">
         <v>500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>400</v>
       </c>
-      <c r="W57" s="3">
-        <v>300</v>
-      </c>
       <c r="X57" s="3">
         <v>300</v>
       </c>
       <c r="Y57" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z57" s="3">
         <v>100</v>
       </c>
-      <c r="Z57" s="3">
-        <v>300</v>
-      </c>
       <c r="AA57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AB57" s="3">
         <v>200</v>
       </c>
       <c r="AC57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD57" s="3">
         <v>700</v>
       </c>
-      <c r="AD57" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>400</v>
+      <c r="D58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E58" s="3">
         <v>400</v>
@@ -4572,10 +4706,10 @@
         <v>400</v>
       </c>
       <c r="N58" s="3">
-        <v>300</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
+        <v>400</v>
+      </c>
+      <c r="O58" s="3">
+        <v>300</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>5</v>
@@ -4592,8 +4726,8 @@
       <c r="T58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -4622,49 +4756,52 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
-      </c>
-      <c r="K59" s="3">
-        <v>700</v>
       </c>
       <c r="L59" s="3">
         <v>700</v>
       </c>
       <c r="M59" s="3">
+        <v>700</v>
+      </c>
+      <c r="N59" s="3">
         <v>800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>800</v>
-      </c>
-      <c r="P59" s="3">
-        <v>700</v>
       </c>
       <c r="Q59" s="3">
         <v>700</v>
@@ -4673,31 +4810,31 @@
         <v>700</v>
       </c>
       <c r="S59" s="3">
+        <v>700</v>
+      </c>
+      <c r="T59" s="3">
         <v>600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>600</v>
-      </c>
-      <c r="AA59" s="3">
-        <v>500</v>
       </c>
       <c r="AB59" s="3">
         <v>500</v>
@@ -4706,134 +4843,140 @@
         <v>500</v>
       </c>
       <c r="AD59" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+      <c r="AE59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
         <v>2700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1500</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1700</v>
       </c>
       <c r="M60" s="3">
         <v>1700</v>
       </c>
       <c r="N60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O60" s="3">
         <v>1500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1100</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1300</v>
       </c>
       <c r="Q60" s="3">
         <v>1300</v>
       </c>
       <c r="R60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S60" s="3">
         <v>1100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1200</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>23900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>24000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>24100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>24200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>24300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>24400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>24500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>24600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>24700</v>
-      </c>
-      <c r="M61" s="3">
-        <v>24800</v>
       </c>
       <c r="N61" s="3">
         <v>24800</v>
       </c>
       <c r="O61" s="3">
-        <v>25200</v>
+        <v>24800</v>
       </c>
       <c r="P61" s="3">
         <v>25200</v>
@@ -4854,7 +4997,7 @@
         <v>25200</v>
       </c>
       <c r="V61" s="3">
-        <v>25100</v>
+        <v>25200</v>
       </c>
       <c r="W61" s="3">
         <v>25100</v>
@@ -4875,30 +5018,33 @@
         <v>25100</v>
       </c>
       <c r="AC61" s="3">
+        <v>25100</v>
+      </c>
+      <c r="AD61" s="3">
         <v>25300</v>
       </c>
-      <c r="AD61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
       <c r="H62" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
         <v>200</v>
@@ -4909,8 +5055,8 @@
       <c r="K62" s="3">
         <v>200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
+      <c r="L62" s="3">
+        <v>200</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>5</v>
@@ -4924,8 +5070,8 @@
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -4966,8 +5112,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5052,8 +5201,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5138,8 +5290,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5224,31 +5379,34 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E66" s="3">
         <v>27200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>27100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>27000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>26400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>27000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>26700</v>
-      </c>
-      <c r="J66" s="3">
-        <v>26500</v>
       </c>
       <c r="K66" s="3">
         <v>26500</v>
@@ -5260,58 +5418,61 @@
         <v>26500</v>
       </c>
       <c r="N66" s="3">
-        <v>26400</v>
+        <v>26500</v>
       </c>
       <c r="O66" s="3">
         <v>26400</v>
       </c>
       <c r="P66" s="3">
-        <v>26500</v>
+        <v>26400</v>
       </c>
       <c r="Q66" s="3">
         <v>26500</v>
       </c>
       <c r="R66" s="3">
+        <v>26500</v>
+      </c>
+      <c r="S66" s="3">
         <v>26300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>26200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>27200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>26300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>26600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>26300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>26500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>25800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>26100</v>
-      </c>
-      <c r="AA66" s="3">
-        <v>26000</v>
       </c>
       <c r="AB66" s="3">
         <v>26000</v>
       </c>
       <c r="AC66" s="3">
+        <v>26000</v>
+      </c>
+      <c r="AD66" s="3">
         <v>26500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5342,8 +5503,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5428,8 +5590,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5514,8 +5679,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5600,8 +5768,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5686,16 +5857,19 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>51700</v>
+      </c>
+      <c r="E72" s="3">
         <v>55600</v>
-      </c>
-      <c r="E72" s="3">
-        <v>55400</v>
       </c>
       <c r="F72" s="3">
         <v>55400</v>
@@ -5704,76 +5878,79 @@
         <v>55400</v>
       </c>
       <c r="H72" s="3">
-        <v>55200</v>
+        <v>55400</v>
       </c>
       <c r="I72" s="3">
         <v>55200</v>
       </c>
       <c r="J72" s="3">
-        <v>55300</v>
+        <v>55200</v>
       </c>
       <c r="K72" s="3">
         <v>55300</v>
       </c>
       <c r="L72" s="3">
-        <v>55400</v>
+        <v>55300</v>
       </c>
       <c r="M72" s="3">
         <v>55400</v>
       </c>
       <c r="N72" s="3">
+        <v>55400</v>
+      </c>
+      <c r="O72" s="3">
         <v>55700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>55800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>56000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>55100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>55500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>55400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>40600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>39900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>40700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>55800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>39700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>38900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>38100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>37800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>37100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>35700</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5858,8 +6035,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5944,8 +6124,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6030,25 +6213,28 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>65800</v>
+      </c>
+      <c r="E76" s="3">
         <v>69700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>69500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>69400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>69500</v>
-      </c>
-      <c r="H76" s="3">
-        <v>69300</v>
       </c>
       <c r="I76" s="3">
         <v>69300</v>
@@ -6057,67 +6243,70 @@
         <v>69300</v>
       </c>
       <c r="K76" s="3">
+        <v>69300</v>
+      </c>
+      <c r="L76" s="3">
         <v>69400</v>
-      </c>
-      <c r="L76" s="3">
-        <v>69500</v>
       </c>
       <c r="M76" s="3">
         <v>69500</v>
       </c>
       <c r="N76" s="3">
+        <v>69500</v>
+      </c>
+      <c r="O76" s="3">
         <v>69700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>69900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>70100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>69200</v>
-      </c>
-      <c r="R76" s="3">
-        <v>69500</v>
       </c>
       <c r="S76" s="3">
         <v>69500</v>
       </c>
       <c r="T76" s="3">
+        <v>69500</v>
+      </c>
+      <c r="U76" s="3">
         <v>54700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>54000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>54800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>69900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>53800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>53000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>52100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>51900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>51100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>49700</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6202,99 +6391,105 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42551</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6302,17 +6497,17 @@
         <v>600</v>
       </c>
       <c r="E81" s="3">
+        <v>600</v>
+      </c>
+      <c r="F81" s="3">
         <v>400</v>
       </c>
-      <c r="F81" s="3">
-        <v>300</v>
-      </c>
       <c r="G81" s="3">
+        <v>300</v>
+      </c>
+      <c r="H81" s="3">
         <v>500</v>
       </c>
-      <c r="H81" s="3">
-        <v>300</v>
-      </c>
       <c r="I81" s="3">
         <v>300</v>
       </c>
@@ -6320,67 +6515,70 @@
         <v>300</v>
       </c>
       <c r="K81" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L81" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M81" s="3">
+        <v>300</v>
+      </c>
+      <c r="N81" s="3">
         <v>100</v>
       </c>
-      <c r="N81" s="3">
-        <v>200</v>
-      </c>
       <c r="O81" s="3">
         <v>200</v>
       </c>
       <c r="P81" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q81" s="3">
         <v>1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>100</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6411,8 +6609,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6480,11 +6679,11 @@
         <v>200</v>
       </c>
       <c r="Y83" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z83" s="3">
         <v>400</v>
       </c>
-      <c r="Z83" s="3">
-        <v>200</v>
-      </c>
       <c r="AA83" s="3">
         <v>200</v>
       </c>
@@ -6495,10 +6694,13 @@
         <v>200</v>
       </c>
       <c r="AD83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6583,8 +6785,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6669,8 +6874,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6755,8 +6963,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6841,8 +7052,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6927,94 +7141,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>500</v>
+      </c>
+      <c r="E89" s="3">
         <v>900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
-        <v>200</v>
-      </c>
       <c r="G89" s="3">
+        <v>200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>400</v>
       </c>
-      <c r="I89" s="3">
-        <v>300</v>
-      </c>
       <c r="J89" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K89" s="3">
+        <v>200</v>
+      </c>
+      <c r="L89" s="3">
         <v>400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1600</v>
       </c>
-      <c r="M89" s="3">
-        <v>200</v>
-      </c>
       <c r="N89" s="3">
+        <v>200</v>
+      </c>
+      <c r="O89" s="3">
         <v>100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-900</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-2700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-2300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-1400</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7045,8 +7265,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7074,8 +7295,8 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>5</v>
@@ -7083,8 +7304,8 @@
       <c r="N91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -7116,23 +7337,26 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-      <c r="Z91" s="3" t="s">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA91" s="3">
-        <v>0</v>
-      </c>
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-      <c r="AC91" s="3" t="s">
-        <v>5</v>
+      <c r="AC91" s="3">
+        <v>0</v>
       </c>
       <c r="AD91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7217,8 +7441,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7303,94 +7530,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>300</v>
+      </c>
+      <c r="E94" s="3">
         <v>500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1000</v>
       </c>
-      <c r="F94" s="3">
-        <v>200</v>
-      </c>
       <c r="G94" s="3">
+        <v>200</v>
+      </c>
+      <c r="H94" s="3">
         <v>700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>2000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>2300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>1200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>1500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>1100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>800</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-9400</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7421,8 +7654,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7490,10 +7724,10 @@
         <v>-300</v>
       </c>
       <c r="Y96" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-600</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>-300</v>
       </c>
       <c r="AA96" s="3">
         <v>-300</v>
@@ -7502,13 +7736,16 @@
         <v>-300</v>
       </c>
       <c r="AC96" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="AD96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7593,8 +7830,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7679,8 +7919,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7765,13 +8008,16 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E100" s="3">
         <v>-400</v>
@@ -7786,10 +8032,10 @@
         <v>-400</v>
       </c>
       <c r="I100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J100" s="3">
         <v>-500</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-400</v>
       </c>
       <c r="K100" s="3">
         <v>-400</v>
@@ -7798,7 +8044,7 @@
         <v>-400</v>
       </c>
       <c r="M100" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="N100" s="3">
         <v>-300</v>
@@ -7816,10 +8062,10 @@
         <v>-300</v>
       </c>
       <c r="S100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T100" s="3">
         <v>-200</v>
-      </c>
-      <c r="T100" s="3">
-        <v>-300</v>
       </c>
       <c r="U100" s="3">
         <v>-300</v>
@@ -7834,25 +8080,28 @@
         <v>-300</v>
       </c>
       <c r="Y100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-600</v>
-      </c>
-      <c r="Z100" s="3">
-        <v>-300</v>
       </c>
       <c r="AA100" s="3">
         <v>-300</v>
       </c>
       <c r="AB100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC100" s="3">
         <v>-400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>9000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7937,90 +8186,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>300</v>
+      </c>
+      <c r="E102" s="3">
         <v>900</v>
       </c>
-      <c r="E102" s="3">
-        <v>300</v>
-      </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>200</v>
+      </c>
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>300</v>
+      </c>
+      <c r="P102" s="3">
         <v>-6800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>700</v>
       </c>
-      <c r="X102" s="3">
-        <v>200</v>
-      </c>
       <c r="Y102" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-600</v>
-      </c>
-      <c r="Z102" s="3">
-        <v>100</v>
       </c>
       <c r="AA102" s="3">
         <v>100</v>
       </c>
       <c r="AB102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC102" s="3">
         <v>-400</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-1800</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RAFI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAFI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>RAFI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,135 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
-        <v>44469</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42551</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -797,28 +801,28 @@
         <v>1300</v>
       </c>
       <c r="E8" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F8" s="3">
         <v>1300</v>
       </c>
       <c r="G8" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="H8" s="3">
         <v>1300</v>
       </c>
       <c r="I8" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="J8" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="K8" s="3">
         <v>1100</v>
       </c>
       <c r="L8" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="M8" s="3">
         <v>1000</v>
@@ -842,43 +846,46 @@
         <v>1000</v>
       </c>
       <c r="T8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U8" s="3">
         <v>900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1000</v>
-      </c>
-      <c r="V8" s="3">
-        <v>900</v>
       </c>
       <c r="W8" s="3">
         <v>900</v>
       </c>
       <c r="X8" s="3">
+        <v>900</v>
+      </c>
+      <c r="Y8" s="3">
         <v>800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>800</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>700</v>
       </c>
-      <c r="AE8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -889,7 +896,7 @@
         <v>400</v>
       </c>
       <c r="F9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G9" s="3">
         <v>400</v>
@@ -907,10 +914,10 @@
         <v>400</v>
       </c>
       <c r="L9" s="3">
+        <v>400</v>
+      </c>
+      <c r="M9" s="3">
         <v>300</v>
-      </c>
-      <c r="M9" s="3">
-        <v>400</v>
       </c>
       <c r="N9" s="3">
         <v>400</v>
@@ -919,10 +926,10 @@
         <v>400</v>
       </c>
       <c r="P9" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q9" s="3">
         <v>300</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>400</v>
       </c>
       <c r="R9" s="3">
         <v>400</v>
@@ -943,31 +950,34 @@
         <v>400</v>
       </c>
       <c r="X9" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y9" s="3">
         <v>500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>600</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>400</v>
       </c>
       <c r="AB9" s="3">
         <v>400</v>
       </c>
       <c r="AC9" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD9" s="3">
         <v>300</v>
       </c>
-      <c r="AD9" s="3">
-        <v>200</v>
-      </c>
-      <c r="AE9" s="3" t="s">
+      <c r="AE9" s="3">
+        <v>200</v>
+      </c>
+      <c r="AF9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -975,22 +985,22 @@
         <v>900</v>
       </c>
       <c r="E10" s="3">
+        <v>900</v>
+      </c>
+      <c r="F10" s="3">
         <v>1000</v>
       </c>
-      <c r="F10" s="3">
-        <v>900</v>
-      </c>
       <c r="G10" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="H10" s="3">
         <v>900</v>
       </c>
       <c r="I10" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="J10" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="K10" s="3">
         <v>700</v>
@@ -999,7 +1009,7 @@
         <v>700</v>
       </c>
       <c r="M10" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N10" s="3">
         <v>600</v>
@@ -1008,10 +1018,10 @@
         <v>600</v>
       </c>
       <c r="P10" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q10" s="3">
         <v>700</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>600</v>
       </c>
       <c r="R10" s="3">
         <v>600</v>
@@ -1020,31 +1030,31 @@
         <v>600</v>
       </c>
       <c r="T10" s="3">
+        <v>600</v>
+      </c>
+      <c r="U10" s="3">
         <v>500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>600</v>
-      </c>
-      <c r="V10" s="3">
-        <v>500</v>
       </c>
       <c r="W10" s="3">
         <v>500</v>
       </c>
       <c r="X10" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y10" s="3">
         <v>300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>300</v>
-      </c>
-      <c r="AB10" s="3">
-        <v>500</v>
       </c>
       <c r="AC10" s="3">
         <v>500</v>
@@ -1052,11 +1062,14 @@
       <c r="AD10" s="3">
         <v>500</v>
       </c>
-      <c r="AE10" s="3" t="s">
+      <c r="AE10" s="3">
+        <v>500</v>
+      </c>
+      <c r="AF10" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1088,8 +1101,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1177,8 +1191,11 @@
       <c r="AE12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1266,37 +1283,40 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1314,16 +1334,16 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>200</v>
+      </c>
+      <c r="T14" s="3">
         <v>1000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2100</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>5</v>
@@ -1331,8 +1351,8 @@
       <c r="W14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
@@ -1347,16 +1367,19 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
         <v>-100</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>1400</v>
       </c>
-      <c r="AE14" s="3" t="s">
+      <c r="AF14" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1427,11 +1450,11 @@
         <v>200</v>
       </c>
       <c r="Z15" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA15" s="3">
         <v>400</v>
       </c>
-      <c r="AA15" s="3">
-        <v>200</v>
-      </c>
       <c r="AB15" s="3">
         <v>200</v>
       </c>
@@ -1441,11 +1464,14 @@
       <c r="AD15" s="3">
         <v>200</v>
       </c>
-      <c r="AE15" s="3" t="s">
+      <c r="AE15" s="3">
+        <v>200</v>
+      </c>
+      <c r="AF15" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1474,8 +1500,9 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1486,16 +1513,16 @@
         <v>900</v>
       </c>
       <c r="F17" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G17" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H17" s="3">
         <v>1000</v>
       </c>
       <c r="I17" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="J17" s="3">
         <v>1000</v>
@@ -1504,67 +1531,70 @@
         <v>1000</v>
       </c>
       <c r="L17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>900</v>
-      </c>
-      <c r="V17" s="3">
-        <v>1100</v>
       </c>
       <c r="W17" s="3">
         <v>1100</v>
       </c>
       <c r="X17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y17" s="3">
         <v>1200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>800</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>2400</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1572,13 +1602,13 @@
         <v>400</v>
       </c>
       <c r="E18" s="3">
+        <v>400</v>
+      </c>
+      <c r="F18" s="3">
         <v>500</v>
       </c>
-      <c r="F18" s="3">
-        <v>300</v>
-      </c>
       <c r="G18" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H18" s="3">
         <v>300</v>
@@ -1587,73 +1617,76 @@
         <v>300</v>
       </c>
       <c r="J18" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K18" s="3">
         <v>100</v>
       </c>
       <c r="L18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N18" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>100</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-200</v>
       </c>
       <c r="W18" s="3">
         <v>-200</v>
       </c>
       <c r="X18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-400</v>
       </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
       <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-400</v>
       </c>
-      <c r="AB18" s="3">
-        <v>0</v>
-      </c>
       <c r="AC18" s="3">
         <v>0</v>
       </c>
       <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="3">
         <v>-1700</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1685,40 +1718,41 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
-        <v>600</v>
-      </c>
       <c r="F20" s="3">
-        <v>500</v>
+        <v>-3500</v>
       </c>
       <c r="G20" s="3">
         <v>600</v>
       </c>
       <c r="H20" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I20" s="3">
         <v>600</v>
       </c>
       <c r="J20" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K20" s="3">
         <v>600</v>
       </c>
       <c r="L20" s="3">
+        <v>600</v>
+      </c>
+      <c r="M20" s="3">
         <v>500</v>
-      </c>
-      <c r="M20" s="3">
-        <v>600</v>
       </c>
       <c r="N20" s="3">
         <v>600</v>
@@ -1727,144 +1761,150 @@
         <v>600</v>
       </c>
       <c r="P20" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>3400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>1300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>2300</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>1800</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>1900</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E21" s="3">
         <v>1400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G21" s="3">
         <v>1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>800</v>
       </c>
-      <c r="I21" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>900</v>
-      </c>
-      <c r="L21" s="3">
-        <v>800</v>
       </c>
       <c r="M21" s="3">
         <v>800</v>
       </c>
       <c r="N21" s="3">
+        <v>800</v>
+      </c>
+      <c r="O21" s="3">
         <v>900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>600</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>900</v>
       </c>
       <c r="R21" s="3">
         <v>900</v>
       </c>
       <c r="S21" s="3">
+        <v>900</v>
+      </c>
+      <c r="T21" s="3">
         <v>1000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>3500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>2500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>2000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>400</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1935,10 +1975,10 @@
         <v>300</v>
       </c>
       <c r="Z22" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA22" s="3">
         <v>600</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>300</v>
       </c>
       <c r="AB22" s="3">
         <v>300</v>
@@ -1947,13 +1987,16 @@
         <v>300</v>
       </c>
       <c r="AD22" s="3">
-        <v>200</v>
-      </c>
-      <c r="AE22" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>200</v>
+      </c>
+      <c r="AF22" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1961,88 +2004,91 @@
         <v>900</v>
       </c>
       <c r="E23" s="3">
+        <v>900</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G23" s="3">
         <v>800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>600</v>
-      </c>
-      <c r="J23" s="3">
-        <v>400</v>
       </c>
       <c r="K23" s="3">
         <v>400</v>
       </c>
       <c r="L23" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M23" s="3">
         <v>300</v>
       </c>
       <c r="N23" s="3">
+        <v>300</v>
+      </c>
+      <c r="O23" s="3">
         <v>400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>400</v>
       </c>
       <c r="R23" s="3">
         <v>400</v>
       </c>
       <c r="S23" s="3">
+        <v>400</v>
+      </c>
+      <c r="T23" s="3">
         <v>500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>2000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>1500</v>
       </c>
-      <c r="AD23" s="3">
-        <v>0</v>
-      </c>
       <c r="AE23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2050,88 +2096,91 @@
         <v>200</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
       </c>
       <c r="H24" s="3">
+        <v>100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>100</v>
+      </c>
+      <c r="J24" s="3">
         <v>-400</v>
-      </c>
-      <c r="I24" s="3">
-        <v>200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2200</v>
       </c>
-      <c r="W24" s="3">
-        <v>200</v>
-      </c>
       <c r="X24" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y24" s="3">
         <v>-700</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>800</v>
       </c>
       <c r="Z24" s="3">
         <v>800</v>
       </c>
       <c r="AA24" s="3">
+        <v>800</v>
+      </c>
+      <c r="AB24" s="3">
         <v>100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>900</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-200</v>
       </c>
-      <c r="AD24" s="3">
-        <v>200</v>
-      </c>
       <c r="AE24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2219,31 +2268,34 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E26" s="3">
         <v>700</v>
       </c>
       <c r="F26" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="G26" s="3">
+        <v>700</v>
+      </c>
+      <c r="H26" s="3">
         <v>400</v>
-      </c>
-      <c r="G26" s="3">
-        <v>400</v>
-      </c>
-      <c r="H26" s="3">
-        <v>600</v>
       </c>
       <c r="I26" s="3">
         <v>400</v>
       </c>
       <c r="J26" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K26" s="3">
         <v>300</v>
@@ -2255,61 +2307,64 @@
         <v>300</v>
       </c>
       <c r="N26" s="3">
+        <v>300</v>
+      </c>
+      <c r="O26" s="3">
         <v>100</v>
       </c>
-      <c r="O26" s="3">
-        <v>200</v>
-      </c>
       <c r="P26" s="3">
         <v>200</v>
       </c>
       <c r="Q26" s="3">
+        <v>200</v>
+      </c>
+      <c r="R26" s="3">
         <v>1200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-3600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>1100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>1700</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-200</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2320,85 +2375,88 @@
         <v>600</v>
       </c>
       <c r="F27" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="G27" s="3">
+        <v>600</v>
+      </c>
+      <c r="H27" s="3">
         <v>400</v>
-      </c>
-      <c r="G27" s="3">
-        <v>300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>500</v>
       </c>
       <c r="I27" s="3">
         <v>300</v>
       </c>
       <c r="J27" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K27" s="3">
         <v>300</v>
       </c>
       <c r="L27" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M27" s="3">
+        <v>200</v>
+      </c>
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="O27" s="3">
-        <v>200</v>
-      </c>
       <c r="P27" s="3">
         <v>200</v>
       </c>
       <c r="Q27" s="3">
+        <v>200</v>
+      </c>
+      <c r="R27" s="3">
         <v>1200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-3600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>1700</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>100</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2486,8 +2544,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2575,8 +2636,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2664,8 +2728,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2753,40 +2820,43 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
-        <v>-600</v>
-      </c>
       <c r="F32" s="3">
-        <v>-500</v>
+        <v>3500</v>
       </c>
       <c r="G32" s="3">
         <v>-600</v>
       </c>
       <c r="H32" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="I32" s="3">
         <v>-600</v>
       </c>
       <c r="J32" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="K32" s="3">
         <v>-600</v>
       </c>
       <c r="L32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M32" s="3">
         <v>-500</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-600</v>
       </c>
       <c r="N32" s="3">
         <v>-600</v>
@@ -2795,55 +2865,58 @@
         <v>-600</v>
       </c>
       <c r="P32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-3400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-1300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-2300</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-1800</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-1900</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2854,85 +2927,88 @@
         <v>600</v>
       </c>
       <c r="F33" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="G33" s="3">
+        <v>600</v>
+      </c>
+      <c r="H33" s="3">
         <v>400</v>
-      </c>
-      <c r="G33" s="3">
-        <v>300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>500</v>
       </c>
       <c r="I33" s="3">
         <v>300</v>
       </c>
       <c r="J33" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K33" s="3">
         <v>300</v>
       </c>
       <c r="L33" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M33" s="3">
+        <v>200</v>
+      </c>
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>100</v>
       </c>
-      <c r="O33" s="3">
-        <v>200</v>
-      </c>
       <c r="P33" s="3">
         <v>200</v>
       </c>
       <c r="Q33" s="3">
+        <v>200</v>
+      </c>
+      <c r="R33" s="3">
         <v>1200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-3600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>1700</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>100</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3020,8 +3096,11 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -3032,179 +3111,185 @@
         <v>600</v>
       </c>
       <c r="F35" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="G35" s="3">
+        <v>600</v>
+      </c>
+      <c r="H35" s="3">
         <v>400</v>
-      </c>
-      <c r="G35" s="3">
-        <v>300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>500</v>
       </c>
       <c r="I35" s="3">
         <v>300</v>
       </c>
       <c r="J35" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K35" s="3">
         <v>300</v>
       </c>
       <c r="L35" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M35" s="3">
+        <v>200</v>
+      </c>
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>100</v>
       </c>
-      <c r="O35" s="3">
-        <v>200</v>
-      </c>
       <c r="P35" s="3">
         <v>200</v>
       </c>
       <c r="Q35" s="3">
+        <v>200</v>
+      </c>
+      <c r="R35" s="3">
         <v>1200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-3600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>1700</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>100</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
-        <v>44469</v>
-      </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42551</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3236,8 +3321,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3269,141 +3355,145 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="E41" s="3">
         <v>2900</v>
       </c>
       <c r="F41" s="3">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="G41" s="3">
-        <v>1800</v>
+        <v>2900</v>
       </c>
       <c r="H41" s="3">
         <v>2000</v>
       </c>
       <c r="I41" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="J41" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>5200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>5000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>4900</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>5400</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E42" s="3">
         <v>3700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G42" s="3">
         <v>4400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>4900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>6000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>6200</v>
       </c>
-      <c r="I42" s="3">
-        <v>6900</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>7000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>6500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>5900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>6500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>5700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>5800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>6300</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>5</v>
@@ -3417,8 +3507,8 @@
       <c r="U42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
+      <c r="V42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W42" s="3">
         <v>0</v>
@@ -3447,8 +3537,11 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3471,7 +3564,7 @@
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -3480,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
@@ -3501,7 +3594,7 @@
         <v>100</v>
       </c>
       <c r="T43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
@@ -3516,28 +3609,31 @@
         <v>0</v>
       </c>
       <c r="Y43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Z43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AA43" s="3">
         <v>300</v>
       </c>
       <c r="AB43" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC43" s="3">
         <v>100</v>
-      </c>
-      <c r="AC43" s="3">
-        <v>300</v>
       </c>
       <c r="AD43" s="3">
         <v>300</v>
       </c>
       <c r="AE43" s="3">
+        <v>300</v>
+      </c>
+      <c r="AF43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3595,14 +3691,14 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>5</v>
+      <c r="V44" s="3">
+        <v>0</v>
       </c>
       <c r="W44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X44" s="3">
-        <v>0</v>
+      <c r="X44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y44" s="3">
         <v>0</v>
@@ -3622,292 +3718,304 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-      <c r="AE44" s="3" t="s">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E45" s="3">
         <v>900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
+        <v>900</v>
+      </c>
+      <c r="G45" s="3">
         <v>1100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
-        <v>800</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>600</v>
-      </c>
-      <c r="K45" s="3">
-        <v>700</v>
       </c>
       <c r="L45" s="3">
         <v>700</v>
       </c>
       <c r="M45" s="3">
+        <v>700</v>
+      </c>
+      <c r="N45" s="3">
         <v>1400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>700</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>800</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>700</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>800</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E46" s="3">
         <v>7600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
+        <v>7700</v>
+      </c>
+      <c r="G46" s="3">
         <v>8500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>8500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>8600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>8800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>9300</v>
       </c>
-      <c r="J46" s="3">
-        <v>9300</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>7000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>6400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>5500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>6200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>5900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>6000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>6500</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>55700</v>
+      </c>
+      <c r="E47" s="3">
         <v>55000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
+        <v>54300</v>
+      </c>
+      <c r="G47" s="3">
         <v>57700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>57200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>56700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>56100</v>
       </c>
-      <c r="I47" s="3">
-        <v>55800</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>55300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>56000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>55400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>55000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>54400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>54000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>53400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>53500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>55000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>56100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>56800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>42600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>41400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>40200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>55400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>40000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>38500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>37000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>36700</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>35100</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>34100</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>32800</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>35500</v>
+        <v>30200</v>
       </c>
       <c r="E48" s="3">
+        <v>30100</v>
+      </c>
+      <c r="F48" s="3">
+        <v>30400</v>
+      </c>
+      <c r="G48" s="3">
         <v>30500</v>
-      </c>
-      <c r="F48" s="3">
-        <v>30800</v>
-      </c>
-      <c r="G48" s="3">
-        <v>31000</v>
       </c>
       <c r="H48" s="3">
         <v>30800</v>
@@ -3916,73 +4024,76 @@
         <v>31000</v>
       </c>
       <c r="J48" s="3">
+        <v>30800</v>
+      </c>
+      <c r="K48" s="3">
         <v>31200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>31300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>31500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>31700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>31900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>32100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>32300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>32500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>32600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>32800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>33000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>33200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>33400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>33600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>33800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>34000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>34200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>34400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>34600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>34700</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>34900</v>
       </c>
-      <c r="AE48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4070,8 +4181,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4159,8 +4273,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4248,8 +4365,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4278,7 +4398,7 @@
         <v>200</v>
       </c>
       <c r="L52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M52" s="3">
         <v>300</v>
@@ -4290,16 +4410,16 @@
         <v>300</v>
       </c>
       <c r="P52" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q52" s="3">
         <v>400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>400</v>
-      </c>
-      <c r="S52" s="3">
-        <v>500</v>
       </c>
       <c r="T52" s="3">
         <v>500</v>
@@ -4311,7 +4431,7 @@
         <v>500</v>
       </c>
       <c r="W52" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="X52" s="3">
         <v>600</v>
@@ -4326,19 +4446,22 @@
         <v>600</v>
       </c>
       <c r="AB52" s="3">
+        <v>600</v>
+      </c>
+      <c r="AC52" s="3">
         <v>700</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1200</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>700</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4426,97 +4549,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>92400</v>
+      </c>
+      <c r="E54" s="3">
         <v>92900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>92400</v>
+      </c>
+      <c r="G54" s="3">
         <v>96900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>96500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>96400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>95800</v>
       </c>
-      <c r="I54" s="3">
-        <v>96200</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>95900</v>
-      </c>
-      <c r="K54" s="3">
-        <v>95800</v>
       </c>
       <c r="L54" s="3">
         <v>95800</v>
       </c>
       <c r="M54" s="3">
-        <v>96000</v>
+        <v>95800</v>
       </c>
       <c r="N54" s="3">
         <v>96000</v>
       </c>
       <c r="O54" s="3">
+        <v>96000</v>
+      </c>
+      <c r="P54" s="3">
         <v>96100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>96200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>96600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>95600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>95900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>95700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>81800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>80300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>81400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>96100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>80300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>78800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>78200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>77800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>77100</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>76200</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4548,8 +4677,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4581,8 +4711,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4590,93 +4721,96 @@
         <v>300</v>
       </c>
       <c r="E57" s="3">
+        <v>300</v>
+      </c>
+      <c r="F57" s="3">
+        <v>300</v>
+      </c>
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
-        <v>600</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
-      </c>
-      <c r="K57" s="3">
-        <v>400</v>
       </c>
       <c r="L57" s="3">
         <v>400</v>
       </c>
       <c r="M57" s="3">
+        <v>400</v>
+      </c>
+      <c r="N57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
-      </c>
-      <c r="O57" s="3">
-        <v>400</v>
       </c>
       <c r="P57" s="3">
         <v>400</v>
       </c>
       <c r="Q57" s="3">
+        <v>400</v>
+      </c>
+      <c r="R57" s="3">
         <v>600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
-      </c>
-      <c r="S57" s="3">
-        <v>400</v>
       </c>
       <c r="T57" s="3">
         <v>400</v>
       </c>
       <c r="U57" s="3">
+        <v>400</v>
+      </c>
+      <c r="V57" s="3">
         <v>500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>400</v>
-      </c>
-      <c r="X57" s="3">
-        <v>300</v>
       </c>
       <c r="Y57" s="3">
         <v>300</v>
       </c>
       <c r="Z57" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA57" s="3">
         <v>100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>300</v>
       </c>
-      <c r="AB57" s="3">
-        <v>200</v>
-      </c>
       <c r="AC57" s="3">
         <v>200</v>
       </c>
       <c r="AD57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE57" s="3">
         <v>700</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
+      <c r="D58" s="3">
+        <v>400</v>
       </c>
       <c r="E58" s="3">
         <v>400</v>
@@ -4709,10 +4843,10 @@
         <v>400</v>
       </c>
       <c r="O58" s="3">
+        <v>400</v>
+      </c>
+      <c r="P58" s="3">
         <v>300</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>5</v>
@@ -4729,8 +4863,8 @@
       <c r="U58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -4759,52 +4893,55 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H59" s="3">
         <v>1600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1500</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1100</v>
       </c>
       <c r="J59" s="3">
         <v>1000</v>
       </c>
       <c r="K59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L59" s="3">
         <v>800</v>
-      </c>
-      <c r="L59" s="3">
-        <v>700</v>
       </c>
       <c r="M59" s="3">
         <v>700</v>
       </c>
       <c r="N59" s="3">
+        <v>700</v>
+      </c>
+      <c r="O59" s="3">
         <v>800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>800</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>700</v>
       </c>
       <c r="R59" s="3">
         <v>700</v>
@@ -4813,31 +4950,31 @@
         <v>700</v>
       </c>
       <c r="T59" s="3">
+        <v>700</v>
+      </c>
+      <c r="U59" s="3">
         <v>600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>600</v>
-      </c>
-      <c r="AB59" s="3">
-        <v>500</v>
       </c>
       <c r="AC59" s="3">
         <v>500</v>
@@ -4846,140 +4983,146 @@
         <v>500</v>
       </c>
       <c r="AE59" s="3">
+        <v>500</v>
+      </c>
+      <c r="AF59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E60" s="3">
         <v>2600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G60" s="3">
         <v>2700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2300</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I60" s="3">
-        <v>2100</v>
       </c>
       <c r="J60" s="3">
         <v>1800</v>
       </c>
       <c r="K60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L60" s="3">
         <v>1600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1500</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1700</v>
       </c>
       <c r="N60" s="3">
         <v>1700</v>
       </c>
       <c r="O60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P60" s="3">
         <v>1500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>1300</v>
       </c>
       <c r="R60" s="3">
         <v>1300</v>
       </c>
       <c r="S60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T60" s="3">
         <v>1100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>700</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>800</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>1200</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>23600</v>
       </c>
       <c r="E61" s="3">
+        <v>23700</v>
+      </c>
+      <c r="F61" s="3">
+        <v>23800</v>
+      </c>
+      <c r="G61" s="3">
         <v>23900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>24000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>24100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>24200</v>
       </c>
-      <c r="I61" s="3">
-        <v>24300</v>
-      </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>24400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>24500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>24600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>24700</v>
-      </c>
-      <c r="N61" s="3">
-        <v>24800</v>
       </c>
       <c r="O61" s="3">
         <v>24800</v>
       </c>
       <c r="P61" s="3">
-        <v>25200</v>
+        <v>24800</v>
       </c>
       <c r="Q61" s="3">
         <v>25200</v>
@@ -5000,7 +5143,7 @@
         <v>25200</v>
       </c>
       <c r="W61" s="3">
-        <v>25100</v>
+        <v>25200</v>
       </c>
       <c r="X61" s="3">
         <v>25100</v>
@@ -5021,36 +5164,39 @@
         <v>25100</v>
       </c>
       <c r="AD61" s="3">
+        <v>25100</v>
+      </c>
+      <c r="AE61" s="3">
         <v>25300</v>
       </c>
-      <c r="AE61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
+      <c r="D62" s="3">
+        <v>200</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>200</v>
-      </c>
       <c r="J62" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
         <v>200</v>
@@ -5058,8 +5204,8 @@
       <c r="L62" s="3">
         <v>200</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
+      <c r="M62" s="3">
+        <v>200</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>5</v>
@@ -5073,8 +5219,8 @@
       <c r="Q62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -5115,8 +5261,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5204,8 +5353,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5293,8 +5445,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5382,34 +5537,37 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E66" s="3">
         <v>27100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>26900</v>
+      </c>
+      <c r="G66" s="3">
         <v>27200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>27100</v>
-      </c>
-      <c r="G66" s="3">
-        <v>27000</v>
-      </c>
-      <c r="H66" s="3">
-        <v>26400</v>
       </c>
       <c r="I66" s="3">
         <v>27000</v>
       </c>
       <c r="J66" s="3">
+        <v>26400</v>
+      </c>
+      <c r="K66" s="3">
         <v>26700</v>
-      </c>
-      <c r="K66" s="3">
-        <v>26500</v>
       </c>
       <c r="L66" s="3">
         <v>26500</v>
@@ -5421,58 +5579,61 @@
         <v>26500</v>
       </c>
       <c r="O66" s="3">
-        <v>26400</v>
+        <v>26500</v>
       </c>
       <c r="P66" s="3">
         <v>26400</v>
       </c>
       <c r="Q66" s="3">
-        <v>26500</v>
+        <v>26400</v>
       </c>
       <c r="R66" s="3">
         <v>26500</v>
       </c>
       <c r="S66" s="3">
+        <v>26500</v>
+      </c>
+      <c r="T66" s="3">
         <v>26300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>26200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>27200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>26300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>26600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>26300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>26500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>25800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>26100</v>
-      </c>
-      <c r="AB66" s="3">
-        <v>26000</v>
       </c>
       <c r="AC66" s="3">
         <v>26000</v>
       </c>
       <c r="AD66" s="3">
+        <v>26000</v>
+      </c>
+      <c r="AE66" s="3">
         <v>26500</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5504,8 +5665,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5593,8 +5755,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5682,8 +5847,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5771,8 +5939,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5860,97 +6031,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E72" s="3">
         <v>51700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
+        <v>51500</v>
+      </c>
+      <c r="G72" s="3">
         <v>55600</v>
-      </c>
-      <c r="F72" s="3">
-        <v>55400</v>
-      </c>
-      <c r="G72" s="3">
-        <v>55400</v>
       </c>
       <c r="H72" s="3">
         <v>55400</v>
       </c>
       <c r="I72" s="3">
+        <v>55400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>55400</v>
+      </c>
+      <c r="K72" s="3">
         <v>55200</v>
-      </c>
-      <c r="J72" s="3">
-        <v>55200</v>
-      </c>
-      <c r="K72" s="3">
-        <v>55300</v>
       </c>
       <c r="L72" s="3">
         <v>55300</v>
       </c>
       <c r="M72" s="3">
-        <v>55400</v>
+        <v>55300</v>
       </c>
       <c r="N72" s="3">
         <v>55400</v>
       </c>
       <c r="O72" s="3">
+        <v>55400</v>
+      </c>
+      <c r="P72" s="3">
         <v>55700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>55800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>56000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>55100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>55500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>55400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>40600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>39900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>40700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>55800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>39700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>38900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>38100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>37800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>37100</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>35700</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6038,8 +6215,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6127,8 +6307,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6216,97 +6399,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E76" s="3">
         <v>65800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>65500</v>
+      </c>
+      <c r="G76" s="3">
         <v>69700</v>
-      </c>
-      <c r="F76" s="3">
-        <v>69500</v>
-      </c>
-      <c r="G76" s="3">
-        <v>69400</v>
       </c>
       <c r="H76" s="3">
         <v>69500</v>
       </c>
       <c r="I76" s="3">
-        <v>69300</v>
+        <v>69400</v>
       </c>
       <c r="J76" s="3">
-        <v>69300</v>
+        <v>69500</v>
       </c>
       <c r="K76" s="3">
         <v>69300</v>
       </c>
       <c r="L76" s="3">
+        <v>69300</v>
+      </c>
+      <c r="M76" s="3">
         <v>69400</v>
-      </c>
-      <c r="M76" s="3">
-        <v>69500</v>
       </c>
       <c r="N76" s="3">
         <v>69500</v>
       </c>
       <c r="O76" s="3">
+        <v>69500</v>
+      </c>
+      <c r="P76" s="3">
         <v>69700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>69900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>70100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>69200</v>
-      </c>
-      <c r="S76" s="3">
-        <v>69500</v>
       </c>
       <c r="T76" s="3">
         <v>69500</v>
       </c>
       <c r="U76" s="3">
+        <v>69500</v>
+      </c>
+      <c r="V76" s="3">
         <v>54700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>54000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>54800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>69900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>53800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>53000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>52100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>51900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>51100</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>49700</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6394,102 +6583,108 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
-        <v>44469</v>
-      </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42551</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6500,85 +6695,88 @@
         <v>600</v>
       </c>
       <c r="F81" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="G81" s="3">
+        <v>600</v>
+      </c>
+      <c r="H81" s="3">
         <v>400</v>
-      </c>
-      <c r="G81" s="3">
-        <v>300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>500</v>
       </c>
       <c r="I81" s="3">
         <v>300</v>
       </c>
       <c r="J81" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K81" s="3">
         <v>300</v>
       </c>
       <c r="L81" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M81" s="3">
+        <v>200</v>
+      </c>
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>100</v>
       </c>
-      <c r="O81" s="3">
-        <v>200</v>
-      </c>
       <c r="P81" s="3">
         <v>200</v>
       </c>
       <c r="Q81" s="3">
+        <v>200</v>
+      </c>
+      <c r="R81" s="3">
         <v>1200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-3600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>1700</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>100</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6610,8 +6808,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6682,11 +6881,11 @@
         <v>200</v>
       </c>
       <c r="Z83" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA83" s="3">
         <v>400</v>
       </c>
-      <c r="AA83" s="3">
-        <v>200</v>
-      </c>
       <c r="AB83" s="3">
         <v>200</v>
       </c>
@@ -6697,10 +6896,13 @@
         <v>200</v>
       </c>
       <c r="AE83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6788,8 +6990,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6877,8 +7082,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6966,8 +7174,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7055,8 +7266,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7144,97 +7358,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
         <v>500</v>
-      </c>
-      <c r="E89" s="3">
-        <v>900</v>
       </c>
       <c r="F89" s="3">
         <v>-300</v>
       </c>
       <c r="G89" s="3">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="H89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I89" s="3">
+        <v>200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
+        <v>300</v>
+      </c>
+      <c r="L89" s="3">
+        <v>200</v>
+      </c>
+      <c r="M89" s="3">
         <v>400</v>
       </c>
-      <c r="J89" s="3">
-        <v>300</v>
-      </c>
-      <c r="K89" s="3">
-        <v>200</v>
-      </c>
-      <c r="L89" s="3">
-        <v>400</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1600</v>
       </c>
-      <c r="N89" s="3">
-        <v>200</v>
-      </c>
       <c r="O89" s="3">
+        <v>200</v>
+      </c>
+      <c r="P89" s="3">
         <v>100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-900</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-2700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-2300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-800</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-1400</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7266,8 +7486,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7278,7 +7499,7 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -7298,8 +7519,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>5</v>
@@ -7307,8 +7528,8 @@
       <c r="O91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -7340,23 +7561,26 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-      <c r="AA91" s="3" t="s">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB91" s="3">
-        <v>0</v>
-      </c>
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-      <c r="AD91" s="3" t="s">
-        <v>5</v>
+      <c r="AD91" s="3">
+        <v>0</v>
       </c>
       <c r="AE91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7444,8 +7668,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7533,97 +7760,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E94" s="3">
         <v>300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
+        <v>300</v>
+      </c>
+      <c r="G94" s="3">
         <v>500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>1000</v>
       </c>
-      <c r="G94" s="3">
-        <v>200</v>
-      </c>
-      <c r="H94" s="3">
-        <v>700</v>
-      </c>
       <c r="I94" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J94" s="3">
         <v>700</v>
       </c>
       <c r="K94" s="3">
+        <v>700</v>
+      </c>
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>2000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>2300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>1000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>1200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>1500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>1100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>700</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>800</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-9400</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7655,8 +7888,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7727,10 +7961,10 @@
         <v>-300</v>
       </c>
       <c r="Z96" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-600</v>
-      </c>
-      <c r="AA96" s="3">
-        <v>-300</v>
       </c>
       <c r="AB96" s="3">
         <v>-300</v>
@@ -7739,13 +7973,16 @@
         <v>-300</v>
       </c>
       <c r="AD96" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="AE96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7833,8 +8070,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7922,8 +8162,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8011,16 +8254,19 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-500</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-400</v>
       </c>
       <c r="F100" s="3">
         <v>-400</v>
@@ -8035,10 +8281,10 @@
         <v>-400</v>
       </c>
       <c r="J100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-500</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-400</v>
       </c>
       <c r="L100" s="3">
         <v>-400</v>
@@ -8047,7 +8293,7 @@
         <v>-400</v>
       </c>
       <c r="N100" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="O100" s="3">
         <v>-300</v>
@@ -8065,10 +8311,10 @@
         <v>-300</v>
       </c>
       <c r="T100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U100" s="3">
         <v>-200</v>
-      </c>
-      <c r="U100" s="3">
-        <v>-300</v>
       </c>
       <c r="V100" s="3">
         <v>-300</v>
@@ -8083,25 +8329,28 @@
         <v>-300</v>
       </c>
       <c r="Z100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA100" s="3">
         <v>-600</v>
-      </c>
-      <c r="AA100" s="3">
-        <v>-300</v>
       </c>
       <c r="AB100" s="3">
         <v>-300</v>
       </c>
       <c r="AC100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AD100" s="3">
         <v>-400</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>9000</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8189,93 +8438,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G102" s="3">
         <v>900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>200</v>
-      </c>
       <c r="I102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>200</v>
+      </c>
+      <c r="K102" s="3">
         <v>600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>700</v>
       </c>
-      <c r="Y102" s="3">
-        <v>200</v>
-      </c>
       <c r="Z102" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-600</v>
-      </c>
-      <c r="AA102" s="3">
-        <v>100</v>
       </c>
       <c r="AB102" s="3">
         <v>100</v>
       </c>
       <c r="AC102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD102" s="3">
         <v>-400</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-1800</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-1100</v>
       </c>
     </row>
